--- a/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
+++ b/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC\InputData\bldgs\BASoBC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC65714E-C019-4C20-B0CF-3F2CAE3D2808}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="25000" windowHeight="13980"/>
+    <workbookView xWindow="135" yWindow="0" windowWidth="25005" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -26,8 +32,13 @@
     <definedName name="rural_share">'[1]Urban Rural Breakdown'!$E$11</definedName>
     <definedName name="urban_share">'[1]Urban Rural Breakdown'!$E$10</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -149,9 +160,6 @@
     <t>Statistics Canada. Table 026-0013 - Residential construction investment, quarterly (dollars)</t>
   </si>
   <si>
-    <t>http://www5.statcan.gc.ca/cansim/a26?lang=eng&amp;id=260013</t>
-  </si>
-  <si>
     <t>Q1 2014</t>
   </si>
   <si>
@@ -328,6 +336,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Statistics Canada, 2016 Census of Population.</t>
@@ -763,11 +772,14 @@
   <si>
     <t>buildings have the same cost shares by component.</t>
   </si>
+  <si>
+    <t>https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=3410001001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -847,6 +859,7 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -854,12 +867,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -867,6 +882,7 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -881,6 +897,7 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1334,9 +1351,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,10 +1421,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="91">
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="81"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
@@ -1468,12 +1485,12 @@
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="82"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Footnotes: top row 2" xfId="83"/>
-    <cellStyle name="Header: bottom row" xfId="3"/>
-    <cellStyle name="Header: bottom row 2" xfId="84"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="83" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
@@ -1491,21 +1508,24 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="85"/>
-    <cellStyle name="Normal 3" xfId="86"/>
-    <cellStyle name="Normal 4" xfId="87"/>
-    <cellStyle name="Parent row" xfId="5"/>
-    <cellStyle name="Parent row 2" xfId="88"/>
+    <cellStyle name="Normal 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3" xfId="86" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 4" xfId="87" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Parent row 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
     <cellStyle name="Percent" xfId="80" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="89"/>
-    <cellStyle name="Table title" xfId="1"/>
-    <cellStyle name="Table title 2" xfId="90"/>
+    <cellStyle name="Percent 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Table title 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1528,7 +1548,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1677,7 +1703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1710,9 +1736,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1745,6 +1788,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1920,267 +1980,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.1796875" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="2:2" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="28">
         <v>2016</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="18">
         <v>2015</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
         <v>2016</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="68" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2195,20 +2257,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2015</v>
       </c>
@@ -2318,7 +2380,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2467,7 +2529,7 @@
         <v>2833653657.4116445</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2678,7 @@
         <v>60009923.289608061</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2765,7 +2827,7 @@
         <v>14271022659.367537</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2914,7 +2976,7 @@
         <v>789180976.55488694</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3063,7 +3125,7 @@
         <v>986476220.69360852</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3223,43 +3285,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="7"/>
-    <col min="2" max="2" width="56.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="12.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.81640625" style="7"/>
+    <col min="1" max="1" width="10.85546875" style="7"/>
+    <col min="2" max="2" width="56.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -3267,34 +3329,34 @@
         <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>16</v>
@@ -3312,7 +3374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
@@ -3365,7 +3427,7 @@
         <v>35840813</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -3418,7 +3480,7 @@
         <v>15808807</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -3471,7 +3533,7 @@
         <v>8350298</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -3524,7 +3586,7 @@
         <v>785171</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -3577,7 +3639,7 @@
         <v>1596019</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -3630,7 +3692,7 @@
         <v>5077319</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -3683,7 +3745,7 @@
         <v>416636</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -3736,7 +3798,7 @@
         <v>3978344</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -3789,7 +3851,7 @@
         <v>15513183</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -3842,7 +3904,7 @@
         <v>10210</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -3895,12 +3957,12 @@
         <v>113633</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1</v>
       </c>
@@ -3908,7 +3970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2</v>
       </c>
@@ -3916,12 +3978,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <v>2014</v>
       </c>
@@ -4034,9 +4096,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="7">
         <f>SUM(C6:F6)*1000</f>
@@ -4085,9 +4147,9 @@
       <c r="AL25"/>
       <c r="AM25"/>
     </row>
-    <row r="26" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="13">
         <f>C25*About!A49</f>
@@ -4102,9 +4164,9 @@
         <v>120043413624</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="13">
         <f>E26*F29</f>
@@ -4243,9 +4305,9 @@
         <v>160456102185.38925</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="7">
         <v>35317500</v>
@@ -4359,9 +4421,9 @@
         <v>48258300</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <f>D28/C28</f>
@@ -4508,12 +4570,12 @@
         <v>1.0072215276661733</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -4524,7 +4586,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>3</v>
       </c>
@@ -4677,160 +4739,160 @@
         <v>6913654043.6618958</v>
       </c>
     </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="66">
+      <c r="C33" s="65">
         <f>C$26*'Component percentages'!$C$16</f>
         <v>103072129.22953957</v>
       </c>
-      <c r="D33" s="66">
+      <c r="D33" s="65">
         <f>D$26*'Component percentages'!$C$16</f>
         <v>106408075.49439766</v>
       </c>
-      <c r="E33" s="66">
+      <c r="E33" s="65">
         <f>E$26*'Component percentages'!$C$16</f>
         <v>109538312.61032046</v>
       </c>
-      <c r="F33" s="66">
+      <c r="F33" s="65">
         <f>F$27*'Component percentages'!$C$16</f>
         <v>110721259.27499557</v>
       </c>
-      <c r="G33" s="66">
+      <c r="G33" s="65">
         <f>G$27*'Component percentages'!$C$16</f>
         <v>111896014.20847133</v>
       </c>
-      <c r="H33" s="66">
+      <c r="H33" s="65">
         <f>H$27*'Component percentages'!$C$16</f>
         <v>113060453.62858497</v>
       </c>
-      <c r="I33" s="66">
+      <c r="I33" s="65">
         <f>I$27*'Component percentages'!$C$16</f>
         <v>114212757.15062553</v>
       </c>
-      <c r="J33" s="66">
+      <c r="J33" s="65">
         <f>J$27*'Component percentages'!$C$16</f>
         <v>115367184.45482887</v>
       </c>
-      <c r="K33" s="66">
+      <c r="K33" s="65">
         <f>K$27*'Component percentages'!$C$16</f>
         <v>116521308.36158037</v>
       </c>
-      <c r="L33" s="66">
+      <c r="L33" s="65">
         <f>L$27*'Component percentages'!$C$16</f>
         <v>117674218.67852458</v>
       </c>
-      <c r="M33" s="66">
+      <c r="M33" s="65">
         <f>M$27*'Component percentages'!$C$16</f>
         <v>118823488.22604685</v>
       </c>
-      <c r="N33" s="66">
+      <c r="N33" s="65">
         <f>N$27*'Component percentages'!$C$16</f>
         <v>119967296.6194362</v>
       </c>
-      <c r="O33" s="66">
+      <c r="O33" s="65">
         <f>O$27*'Component percentages'!$C$16</f>
         <v>121103823.47398174</v>
       </c>
-      <c r="P33" s="66">
+      <c r="P33" s="65">
         <f>P$27*'Component percentages'!$C$16</f>
         <v>122231855.1998761</v>
       </c>
-      <c r="Q33" s="66">
+      <c r="Q33" s="65">
         <f>Q$27*'Component percentages'!$C$16</f>
         <v>123349874.80986014</v>
       </c>
-      <c r="R33" s="66">
+      <c r="R33" s="65">
         <f>R$27*'Component percentages'!$C$16</f>
         <v>124456972.1115784</v>
       </c>
-      <c r="S33" s="66">
+      <c r="S33" s="65">
         <f>S$27*'Component percentages'!$C$16</f>
         <v>125553147.10503086</v>
       </c>
-      <c r="T33" s="66">
+      <c r="T33" s="65">
         <f>T$27*'Component percentages'!$C$16</f>
         <v>126638096.39276572</v>
       </c>
-      <c r="U33" s="66">
+      <c r="U33" s="65">
         <f>U$27*'Component percentages'!$C$16</f>
         <v>127711819.97478297</v>
       </c>
-      <c r="V33" s="66">
+      <c r="V33" s="65">
         <f>V$27*'Component percentages'!$C$16</f>
         <v>128775834.83834173</v>
       </c>
-      <c r="W33" s="66">
+      <c r="W33" s="65">
         <f>W$27*'Component percentages'!$C$16</f>
         <v>129830444.38089384</v>
       </c>
-      <c r="X33" s="66">
+      <c r="X33" s="65">
         <f>X$27*'Component percentages'!$C$16</f>
         <v>130877468.98715028</v>
       </c>
-      <c r="Y33" s="66">
+      <c r="Y33" s="65">
         <f>Y$27*'Component percentages'!$C$16</f>
         <v>131918425.64437015</v>
       </c>
-      <c r="Z33" s="66">
+      <c r="Z33" s="65">
         <f>Z$27*'Component percentages'!$C$16</f>
         <v>132953921.14745712</v>
       </c>
-      <c r="AA33" s="66">
+      <c r="AA33" s="65">
         <f>AA$27*'Component percentages'!$C$16</f>
         <v>133986382.67602584</v>
       </c>
-      <c r="AB33" s="66">
+      <c r="AB33" s="65">
         <f>AB$27*'Component percentages'!$C$16</f>
         <v>135016113.6275281</v>
       </c>
-      <c r="AC33" s="66">
+      <c r="AC33" s="65">
         <f>AC$27*'Component percentages'!$C$16</f>
         <v>136044934.38667488</v>
       </c>
-      <c r="AD33" s="66">
+      <c r="AD33" s="65">
         <f>AD$27*'Component percentages'!$C$16</f>
         <v>137073755.14582166</v>
       </c>
-      <c r="AE33" s="66">
+      <c r="AE33" s="65">
         <f>AE$27*'Component percentages'!$C$16</f>
         <v>138102879.30242029</v>
       </c>
-      <c r="AF33" s="66">
+      <c r="AF33" s="65">
         <f>AF$27*'Component percentages'!$C$16</f>
         <v>139133520.44627804</v>
       </c>
-      <c r="AG33" s="66">
+      <c r="AG33" s="65">
         <f>AG$27*'Component percentages'!$C$16</f>
         <v>140165678.57739493</v>
       </c>
-      <c r="AH33" s="66">
+      <c r="AH33" s="65">
         <f>AH$27*'Component percentages'!$C$16</f>
         <v>141199960.49067461</v>
       </c>
-      <c r="AI33" s="66">
+      <c r="AI33" s="65">
         <f>AI$27*'Component percentages'!$C$16</f>
         <v>142236669.5835689</v>
       </c>
-      <c r="AJ33" s="66">
+      <c r="AJ33" s="65">
         <f>AJ$27*'Component percentages'!$C$16</f>
         <v>143276412.65098146</v>
       </c>
-      <c r="AK33" s="66">
+      <c r="AK33" s="65">
         <f>AK$27*'Component percentages'!$C$16</f>
         <v>144318582.89800864</v>
       </c>
-      <c r="AL33" s="66">
+      <c r="AL33" s="65">
         <f>AL$27*'Component percentages'!$C$16</f>
         <v>145364697.31190959</v>
       </c>
-      <c r="AM33" s="66">
+      <c r="AM33" s="65">
         <f>AM$27*'Component percentages'!$C$16</f>
         <v>146414452.49523246</v>
       </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>5</v>
       </c>
@@ -4983,7 +5045,7 @@
         <v>34818974174.229462</v>
       </c>
     </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>6</v>
       </c>
@@ -5136,7 +5198,7 @@
         <v>1925473226.2246711</v>
       </c>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5351,7 @@
         <v>2406841532.7808385</v>
       </c>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>8</v>
       </c>
@@ -5405,10 +5467,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
     </row>
   </sheetData>
@@ -5423,72 +5485,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
-    <col min="2" max="6" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+    <col min="2" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.36328125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.81640625" style="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>16</v>
@@ -5506,23 +5567,23 @@
         <v>20</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B5" s="67">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B5" s="66">
         <v>12858000000</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="66">
         <v>12979000000</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="66">
         <v>13131000000</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="66">
         <v>13012000000</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="66">
         <v>12855000000</v>
       </c>
       <c r="G5" s="30">
@@ -5559,15 +5620,15 @@
         <v>13700000000</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>2014</v>
       </c>
@@ -5680,9 +5741,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="31">
         <f>SUM(B5:E5)</f>
@@ -5698,9 +5759,9 @@
       </c>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="31">
         <f>C9*About!A49</f>
@@ -5715,9 +5776,9 @@
         <v>49201400000</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="31">
         <f>E10*F13</f>
@@ -5856,9 +5917,9 @@
         <v>65765081379.573906</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="7">
         <v>35317500</v>
@@ -5972,9 +6033,9 @@
         <v>48258300</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1">
         <f>F12/E12</f>
@@ -6113,15 +6174,15 @@
         <v>1.0072215276661733</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
@@ -6274,7 +6335,7 @@
         <v>2833653657.4116445</v>
       </c>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>4</v>
       </c>
@@ -6427,7 +6488,7 @@
         <v>60009923.289608061</v>
       </c>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
@@ -6580,7 +6641,7 @@
         <v>14271022659.367537</v>
       </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
@@ -6733,7 +6794,7 @@
         <v>789180976.55488694</v>
       </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
@@ -6886,7 +6947,7 @@
         <v>986476220.69360852</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>8</v>
       </c>
@@ -7014,28 +7075,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7163,9 +7224,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="7">
         <v>33739900</v>
@@ -7303,133 +7364,133 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="64">
         <f>'NRC NEUD Residential E Use'!AB13/SUM('NRC NEUD Residential E Use'!AB13,'NRC NEUD Residential E Use'!AB19)</f>
         <v>0.9792616101989764</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="64">
         <f>'NRC NEUD Residential E Use'!AB19/SUM('NRC NEUD Residential E Use'!AB19,'NRC NEUD Residential E Use'!AB13)</f>
         <v>2.0738389801023525E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="65">
+        <v>55</v>
+      </c>
+      <c r="C15" s="64">
         <f>4.4*B11/100</f>
         <v>4.3087510848754972E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="65">
+        <v>55</v>
+      </c>
+      <c r="C16" s="64">
         <f>4.4*B12/100</f>
         <v>9.1248915124503521E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7">
         <f>(15+2.2+4.1+0.4)/100</f>
         <v>0.21699999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -7441,96 +7502,96 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="7">
         <f>1.5/100</f>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
     </row>
-    <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -7549,67 +7610,67 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="61.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="21" customWidth="1"/>
     <col min="3" max="3" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="21"/>
-    <col min="6" max="6" width="17.36328125" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="10.81640625" style="21"/>
+    <col min="4" max="4" width="17.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="21"/>
+    <col min="6" max="6" width="17.42578125" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
-      <c r="B2" s="32">
+      <c r="B2" s="68">
         <v>2011</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68">
         <v>2016</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>87</v>
       </c>
       <c r="B4" s="22">
         <v>6329414</v>
@@ -7627,9 +7688,9 @@
         <v>245959</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="22">
         <v>4144723</v>
@@ -7647,9 +7708,9 @@
         <v>314043</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="22">
         <v>2926734</v>
@@ -7667,9 +7728,9 @@
         <v>252560</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="22">
         <v>20075817</v>
@@ -7687,9 +7748,9 @@
         <v>862478</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="23">
         <v>33476688</v>
@@ -7707,7 +7768,7 @@
         <v>1675040</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -7715,11 +7776,11 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="25">
         <f>SUM(D5:D7)</f>
@@ -7731,11 +7792,11 @@
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="24">
@@ -7744,7 +7805,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -7752,9 +7813,9 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -7762,19 +7823,19 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -7792,7 +7853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7800,2068 +7861,2068 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="42" style="34" customWidth="1"/>
-    <col min="3" max="12" width="11.54296875" style="34" customWidth="1"/>
-    <col min="13" max="26" width="9.81640625" style="34" customWidth="1"/>
-    <col min="27" max="28" width="9.1796875" style="34" customWidth="1"/>
-    <col min="29" max="29" width="14" style="36" customWidth="1"/>
-    <col min="30" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="2.28515625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="42" style="33" customWidth="1"/>
+    <col min="3" max="12" width="11.5703125" style="33" customWidth="1"/>
+    <col min="13" max="26" width="9.85546875" style="33" customWidth="1"/>
+    <col min="27" max="28" width="9.140625" style="33" customWidth="1"/>
+    <col min="29" max="29" width="14" style="35" customWidth="1"/>
+    <col min="30" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AC1" s="33"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AC2" s="33"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+    </row>
+    <row r="4" spans="1:29" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="37">
+        <v>1990</v>
+      </c>
+      <c r="D4" s="37">
+        <v>1991</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1992</v>
+      </c>
+      <c r="F4" s="37">
+        <v>1993</v>
+      </c>
+      <c r="G4" s="37">
+        <v>1994</v>
+      </c>
+      <c r="H4" s="37">
+        <v>1995</v>
+      </c>
+      <c r="I4" s="37">
+        <v>1996</v>
+      </c>
+      <c r="J4" s="37">
+        <v>1997</v>
+      </c>
+      <c r="K4" s="37">
+        <v>1998</v>
+      </c>
+      <c r="L4" s="37">
+        <v>1999</v>
+      </c>
+      <c r="M4" s="37">
+        <v>2000</v>
+      </c>
+      <c r="N4" s="37">
+        <v>2001</v>
+      </c>
+      <c r="O4" s="37">
+        <v>2002</v>
+      </c>
+      <c r="P4" s="37">
+        <v>2003</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>2004</v>
+      </c>
+      <c r="R4" s="37">
+        <v>2005</v>
+      </c>
+      <c r="S4" s="37">
+        <v>2006</v>
+      </c>
+      <c r="T4" s="37">
+        <v>2007</v>
+      </c>
+      <c r="U4" s="37">
+        <v>2008</v>
+      </c>
+      <c r="V4" s="37">
+        <v>2009</v>
+      </c>
+      <c r="W4" s="37">
+        <v>2010</v>
+      </c>
+      <c r="X4" s="37">
+        <v>2011</v>
+      </c>
+      <c r="Y4" s="37">
+        <v>2012</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>2013</v>
+      </c>
+      <c r="AA4" s="37">
+        <v>2014</v>
+      </c>
+      <c r="AB4" s="37">
+        <v>2015</v>
+      </c>
+      <c r="AC4" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AC1" s="34"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AC2" s="34"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-    </row>
-    <row r="4" spans="1:29" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="38">
-        <v>1990</v>
-      </c>
-      <c r="D4" s="38">
-        <v>1991</v>
-      </c>
-      <c r="E4" s="38">
-        <v>1992</v>
-      </c>
-      <c r="F4" s="38">
-        <v>1993</v>
-      </c>
-      <c r="G4" s="38">
-        <v>1994</v>
-      </c>
-      <c r="H4" s="38">
-        <v>1995</v>
-      </c>
-      <c r="I4" s="38">
-        <v>1996</v>
-      </c>
-      <c r="J4" s="38">
-        <v>1997</v>
-      </c>
-      <c r="K4" s="38">
-        <v>1998</v>
-      </c>
-      <c r="L4" s="38">
-        <v>1999</v>
-      </c>
-      <c r="M4" s="38">
-        <v>2000</v>
-      </c>
-      <c r="N4" s="38">
-        <v>2001</v>
-      </c>
-      <c r="O4" s="38">
-        <v>2002</v>
-      </c>
-      <c r="P4" s="38">
-        <v>2003</v>
-      </c>
-      <c r="Q4" s="38">
-        <v>2004</v>
-      </c>
-      <c r="R4" s="38">
-        <v>2005</v>
-      </c>
-      <c r="S4" s="38">
-        <v>2006</v>
-      </c>
-      <c r="T4" s="38">
-        <v>2007</v>
-      </c>
-      <c r="U4" s="38">
-        <v>2008</v>
-      </c>
-      <c r="V4" s="38">
-        <v>2009</v>
-      </c>
-      <c r="W4" s="38">
-        <v>2010</v>
-      </c>
-      <c r="X4" s="38">
-        <v>2011</v>
-      </c>
-      <c r="Y4" s="38">
-        <v>2012</v>
-      </c>
-      <c r="Z4" s="38">
-        <v>2013</v>
-      </c>
-      <c r="AA4" s="38">
-        <v>2014</v>
-      </c>
-      <c r="AB4" s="38">
-        <v>2015</v>
-      </c>
-      <c r="AC4" s="39" t="s">
+    </row>
+    <row r="5" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40" t="s">
+      <c r="C5" s="40">
+        <v>1424.546</v>
+      </c>
+      <c r="D5" s="40">
+        <v>1400.54</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1424.357</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1474.367</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1508.51</v>
+      </c>
+      <c r="H5" s="40">
+        <v>1468.316</v>
+      </c>
+      <c r="I5" s="40">
+        <v>1546.05</v>
+      </c>
+      <c r="J5" s="40">
+        <v>1493.4079999999999</v>
+      </c>
+      <c r="K5" s="40">
+        <v>1393.921</v>
+      </c>
+      <c r="L5" s="40">
+        <v>1435.204</v>
+      </c>
+      <c r="M5" s="40">
+        <v>1491.1179999999999</v>
+      </c>
+      <c r="N5" s="40">
+        <v>1432.9010000000001</v>
+      </c>
+      <c r="O5" s="40">
+        <v>1504.2439999999999</v>
+      </c>
+      <c r="P5" s="40">
+        <v>1514.53</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>1514.954</v>
+      </c>
+      <c r="R5" s="40">
+        <v>1495.2439999999999</v>
+      </c>
+      <c r="S5" s="40">
+        <v>1442.3689999999999</v>
+      </c>
+      <c r="T5" s="40">
+        <v>1561.5160000000001</v>
+      </c>
+      <c r="U5" s="40">
+        <v>1565.826</v>
+      </c>
+      <c r="V5" s="40">
+        <v>1528.8510000000001</v>
+      </c>
+      <c r="W5" s="40">
+        <v>1487.0239999999999</v>
+      </c>
+      <c r="X5" s="40">
+        <v>1574.0239999999999</v>
+      </c>
+      <c r="Y5" s="40">
+        <v>1508.1759999999999</v>
+      </c>
+      <c r="Z5" s="40">
+        <v>1571.9559999999999</v>
+      </c>
+      <c r="AA5" s="40">
+        <v>1608.6590000000001</v>
+      </c>
+      <c r="AB5" s="40">
+        <v>1543.9860000000001</v>
+      </c>
+      <c r="AC5" s="41">
+        <v>8.3844256345530388E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="41">
-        <v>1424.546</v>
-      </c>
-      <c r="D5" s="41">
-        <v>1400.54</v>
-      </c>
-      <c r="E5" s="41">
-        <v>1424.357</v>
-      </c>
-      <c r="F5" s="41">
-        <v>1474.367</v>
-      </c>
-      <c r="G5" s="41">
-        <v>1508.51</v>
-      </c>
-      <c r="H5" s="41">
-        <v>1468.316</v>
-      </c>
-      <c r="I5" s="41">
-        <v>1546.05</v>
-      </c>
-      <c r="J5" s="41">
-        <v>1493.4079999999999</v>
-      </c>
-      <c r="K5" s="41">
-        <v>1393.921</v>
-      </c>
-      <c r="L5" s="41">
-        <v>1435.204</v>
-      </c>
-      <c r="M5" s="41">
-        <v>1491.1179999999999</v>
-      </c>
-      <c r="N5" s="41">
-        <v>1432.9010000000001</v>
-      </c>
-      <c r="O5" s="41">
-        <v>1504.2439999999999</v>
-      </c>
-      <c r="P5" s="41">
-        <v>1514.53</v>
-      </c>
-      <c r="Q5" s="41">
-        <v>1514.954</v>
-      </c>
-      <c r="R5" s="41">
-        <v>1495.2439999999999</v>
-      </c>
-      <c r="S5" s="41">
-        <v>1442.3689999999999</v>
-      </c>
-      <c r="T5" s="41">
-        <v>1561.5160000000001</v>
-      </c>
-      <c r="U5" s="41">
-        <v>1565.826</v>
-      </c>
-      <c r="V5" s="41">
-        <v>1528.8510000000001</v>
-      </c>
-      <c r="W5" s="41">
-        <v>1487.0239999999999</v>
-      </c>
-      <c r="X5" s="41">
-        <v>1574.0239999999999</v>
-      </c>
-      <c r="Y5" s="41">
-        <v>1508.1759999999999</v>
-      </c>
-      <c r="Z5" s="41">
-        <v>1571.9559999999999</v>
-      </c>
-      <c r="AA5" s="41">
-        <v>1608.6590000000001</v>
-      </c>
-      <c r="AB5" s="41">
-        <v>1543.9860000000001</v>
-      </c>
-      <c r="AC5" s="42">
-        <v>8.3844256345530388E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="43" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="44"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="45"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B7" s="46" t="s">
+      <c r="C7" s="43">
+        <v>467.392</v>
+      </c>
+      <c r="D7" s="43">
+        <v>465.78399999999999</v>
+      </c>
+      <c r="E7" s="43">
+        <v>476.04300000000001</v>
+      </c>
+      <c r="F7" s="43">
+        <v>476.67200000000003</v>
+      </c>
+      <c r="G7" s="43">
+        <v>478.375</v>
+      </c>
+      <c r="H7" s="43">
+        <v>473.798</v>
+      </c>
+      <c r="I7" s="43">
+        <v>486.88099999999997</v>
+      </c>
+      <c r="J7" s="43">
+        <v>484.137</v>
+      </c>
+      <c r="K7" s="43">
+        <v>465.52300000000002</v>
+      </c>
+      <c r="L7" s="43">
+        <v>479.77699999999999</v>
+      </c>
+      <c r="M7" s="43">
+        <v>497.577</v>
+      </c>
+      <c r="N7" s="43">
+        <v>504.786</v>
+      </c>
+      <c r="O7" s="43">
+        <v>517.428</v>
+      </c>
+      <c r="P7" s="43">
+        <v>532.76</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>543.52700000000004</v>
+      </c>
+      <c r="R7" s="43">
+        <v>543.55200000000002</v>
+      </c>
+      <c r="S7" s="43">
+        <v>530.35299999999995</v>
+      </c>
+      <c r="T7" s="43">
+        <v>568.23599999999999</v>
+      </c>
+      <c r="U7" s="43">
+        <v>576.16800000000001</v>
+      </c>
+      <c r="V7" s="43">
+        <v>580.70000000000005</v>
+      </c>
+      <c r="W7" s="43">
+        <v>578.35</v>
+      </c>
+      <c r="X7" s="43">
+        <v>598.67899999999997</v>
+      </c>
+      <c r="Y7" s="43">
+        <v>593.89400000000001</v>
+      </c>
+      <c r="Z7" s="43">
+        <v>620.00800000000004</v>
+      </c>
+      <c r="AA7" s="43">
+        <v>632.077</v>
+      </c>
+      <c r="AB7" s="43">
+        <v>608.45799999999997</v>
+      </c>
+      <c r="AC7" s="44">
+        <v>0.30181517869368757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="44">
-        <v>467.392</v>
-      </c>
-      <c r="D7" s="44">
-        <v>465.78399999999999</v>
-      </c>
-      <c r="E7" s="44">
-        <v>476.04300000000001</v>
-      </c>
-      <c r="F7" s="44">
-        <v>476.67200000000003</v>
-      </c>
-      <c r="G7" s="44">
-        <v>478.375</v>
-      </c>
-      <c r="H7" s="44">
-        <v>473.798</v>
-      </c>
-      <c r="I7" s="44">
-        <v>486.88099999999997</v>
-      </c>
-      <c r="J7" s="44">
-        <v>484.137</v>
-      </c>
-      <c r="K7" s="44">
-        <v>465.52300000000002</v>
-      </c>
-      <c r="L7" s="44">
-        <v>479.77699999999999</v>
-      </c>
-      <c r="M7" s="44">
-        <v>497.577</v>
-      </c>
-      <c r="N7" s="44">
-        <v>504.786</v>
-      </c>
-      <c r="O7" s="44">
-        <v>517.428</v>
-      </c>
-      <c r="P7" s="44">
-        <v>532.76</v>
-      </c>
-      <c r="Q7" s="44">
-        <v>543.52700000000004</v>
-      </c>
-      <c r="R7" s="44">
-        <v>543.55200000000002</v>
-      </c>
-      <c r="S7" s="44">
-        <v>530.35299999999995</v>
-      </c>
-      <c r="T7" s="44">
-        <v>568.23599999999999</v>
-      </c>
-      <c r="U7" s="44">
-        <v>576.16800000000001</v>
-      </c>
-      <c r="V7" s="44">
-        <v>580.70000000000005</v>
-      </c>
-      <c r="W7" s="44">
-        <v>578.35</v>
-      </c>
-      <c r="X7" s="44">
-        <v>598.67899999999997</v>
-      </c>
-      <c r="Y7" s="44">
-        <v>593.89400000000001</v>
-      </c>
-      <c r="Z7" s="44">
-        <v>620.00800000000004</v>
-      </c>
-      <c r="AA7" s="44">
-        <v>632.077</v>
-      </c>
-      <c r="AB7" s="44">
-        <v>608.45799999999997</v>
-      </c>
-      <c r="AC7" s="45">
-        <v>0.30181517869368757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B8" s="46" t="s">
+      <c r="C8" s="43">
+        <v>528.41200000000003</v>
+      </c>
+      <c r="D8" s="43">
+        <v>531.85</v>
+      </c>
+      <c r="E8" s="43">
+        <v>553.31799999999998</v>
+      </c>
+      <c r="F8" s="43">
+        <v>593.48599999999999</v>
+      </c>
+      <c r="G8" s="43">
+        <v>631.47400000000005</v>
+      </c>
+      <c r="H8" s="43">
+        <v>630.48400000000004</v>
+      </c>
+      <c r="I8" s="43">
+        <v>677.69600000000003</v>
+      </c>
+      <c r="J8" s="43">
+        <v>648.05999999999995</v>
+      </c>
+      <c r="K8" s="43">
+        <v>576.11400000000003</v>
+      </c>
+      <c r="L8" s="43">
+        <v>608.13599999999997</v>
+      </c>
+      <c r="M8" s="43">
+        <v>646.00599999999997</v>
+      </c>
+      <c r="N8" s="43">
+        <v>600.49599999999998</v>
+      </c>
+      <c r="O8" s="43">
+        <v>640.20699999999999</v>
+      </c>
+      <c r="P8" s="43">
+        <v>670.18</v>
+      </c>
+      <c r="Q8" s="43">
+        <v>651.07899999999995</v>
+      </c>
+      <c r="R8" s="43">
+        <v>646.60199999999998</v>
+      </c>
+      <c r="S8" s="43">
+        <v>618.72900000000004</v>
+      </c>
+      <c r="T8" s="43">
+        <v>686.08500000000004</v>
+      </c>
+      <c r="U8" s="43">
+        <v>691.74900000000002</v>
+      </c>
+      <c r="V8" s="43">
+        <v>660.38499999999999</v>
+      </c>
+      <c r="W8" s="43">
+        <v>615.18299999999999</v>
+      </c>
+      <c r="X8" s="43">
+        <v>682.21100000000001</v>
+      </c>
+      <c r="Y8" s="43">
+        <v>632.14300000000003</v>
+      </c>
+      <c r="Z8" s="43">
+        <v>685.60299999999995</v>
+      </c>
+      <c r="AA8" s="43">
+        <v>732.27200000000005</v>
+      </c>
+      <c r="AB8" s="43">
+        <v>689.77099999999996</v>
+      </c>
+      <c r="AC8" s="44">
+        <v>0.30536588873833281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="44">
-        <v>528.41200000000003</v>
-      </c>
-      <c r="D8" s="44">
-        <v>531.85</v>
-      </c>
-      <c r="E8" s="44">
-        <v>553.31799999999998</v>
-      </c>
-      <c r="F8" s="44">
-        <v>593.48599999999999</v>
-      </c>
-      <c r="G8" s="44">
-        <v>631.47400000000005</v>
-      </c>
-      <c r="H8" s="44">
-        <v>630.48400000000004</v>
-      </c>
-      <c r="I8" s="44">
-        <v>677.69600000000003</v>
-      </c>
-      <c r="J8" s="44">
-        <v>648.05999999999995</v>
-      </c>
-      <c r="K8" s="44">
-        <v>576.11400000000003</v>
-      </c>
-      <c r="L8" s="44">
-        <v>608.13599999999997</v>
-      </c>
-      <c r="M8" s="44">
-        <v>646.00599999999997</v>
-      </c>
-      <c r="N8" s="44">
-        <v>600.49599999999998</v>
-      </c>
-      <c r="O8" s="44">
-        <v>640.20699999999999</v>
-      </c>
-      <c r="P8" s="44">
-        <v>670.18</v>
-      </c>
-      <c r="Q8" s="44">
-        <v>651.07899999999995</v>
-      </c>
-      <c r="R8" s="44">
-        <v>646.60199999999998</v>
-      </c>
-      <c r="S8" s="44">
-        <v>618.72900000000004</v>
-      </c>
-      <c r="T8" s="44">
-        <v>686.08500000000004</v>
-      </c>
-      <c r="U8" s="44">
-        <v>691.74900000000002</v>
-      </c>
-      <c r="V8" s="44">
-        <v>660.38499999999999</v>
-      </c>
-      <c r="W8" s="44">
-        <v>615.18299999999999</v>
-      </c>
-      <c r="X8" s="44">
-        <v>682.21100000000001</v>
-      </c>
-      <c r="Y8" s="44">
-        <v>632.14300000000003</v>
-      </c>
-      <c r="Z8" s="44">
-        <v>685.60299999999995</v>
-      </c>
-      <c r="AA8" s="44">
-        <v>732.27200000000005</v>
-      </c>
-      <c r="AB8" s="44">
-        <v>689.77099999999996</v>
-      </c>
-      <c r="AC8" s="45">
-        <v>0.30536588873833281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B9" s="46" t="s">
+      <c r="C9" s="43">
+        <v>186.364</v>
+      </c>
+      <c r="D9" s="43">
+        <v>162.251</v>
+      </c>
+      <c r="E9" s="43">
+        <v>166.54499999999999</v>
+      </c>
+      <c r="F9" s="43">
+        <v>172.53</v>
+      </c>
+      <c r="G9" s="43">
+        <v>163.02500000000001</v>
+      </c>
+      <c r="H9" s="43">
+        <v>137.53399999999999</v>
+      </c>
+      <c r="I9" s="43">
+        <v>157.49700000000001</v>
+      </c>
+      <c r="J9" s="43">
+        <v>145.81800000000001</v>
+      </c>
+      <c r="K9" s="43">
+        <v>124.905</v>
+      </c>
+      <c r="L9" s="43">
+        <v>130.57</v>
+      </c>
+      <c r="M9" s="43">
+        <v>135.72</v>
+      </c>
+      <c r="N9" s="43">
+        <v>128.77699999999999</v>
+      </c>
+      <c r="O9" s="43">
+        <v>131.017</v>
+      </c>
+      <c r="P9" s="43">
+        <v>122.79</v>
+      </c>
+      <c r="Q9" s="43">
+        <v>135.03299999999999</v>
+      </c>
+      <c r="R9" s="43">
+        <v>125.83499999999999</v>
+      </c>
+      <c r="S9" s="43">
+        <v>116.801</v>
+      </c>
+      <c r="T9" s="43">
+        <v>128.089</v>
+      </c>
+      <c r="U9" s="43">
+        <v>114.74</v>
+      </c>
+      <c r="V9" s="43">
+        <v>111.446</v>
+      </c>
+      <c r="W9" s="43">
+        <v>104.91500000000001</v>
+      </c>
+      <c r="X9" s="43">
+        <v>101.233</v>
+      </c>
+      <c r="Y9" s="43">
+        <v>85.972999999999999</v>
+      </c>
+      <c r="Z9" s="43">
+        <v>75.988</v>
+      </c>
+      <c r="AA9" s="43">
+        <v>72.510999999999996</v>
+      </c>
+      <c r="AB9" s="43">
+        <v>69.447999999999993</v>
+      </c>
+      <c r="AC9" s="44">
+        <v>-0.62735292223820061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="44">
-        <v>186.364</v>
-      </c>
-      <c r="D9" s="44">
-        <v>162.251</v>
-      </c>
-      <c r="E9" s="44">
-        <v>166.54499999999999</v>
-      </c>
-      <c r="F9" s="44">
-        <v>172.53</v>
-      </c>
-      <c r="G9" s="44">
-        <v>163.02500000000001</v>
-      </c>
-      <c r="H9" s="44">
-        <v>137.53399999999999</v>
-      </c>
-      <c r="I9" s="44">
-        <v>157.49700000000001</v>
-      </c>
-      <c r="J9" s="44">
-        <v>145.81800000000001</v>
-      </c>
-      <c r="K9" s="44">
-        <v>124.905</v>
-      </c>
-      <c r="L9" s="44">
-        <v>130.57</v>
-      </c>
-      <c r="M9" s="44">
-        <v>135.72</v>
-      </c>
-      <c r="N9" s="44">
-        <v>128.77699999999999</v>
-      </c>
-      <c r="O9" s="44">
-        <v>131.017</v>
-      </c>
-      <c r="P9" s="44">
-        <v>122.79</v>
-      </c>
-      <c r="Q9" s="44">
-        <v>135.03299999999999</v>
-      </c>
-      <c r="R9" s="44">
-        <v>125.83499999999999</v>
-      </c>
-      <c r="S9" s="44">
-        <v>116.801</v>
-      </c>
-      <c r="T9" s="44">
-        <v>128.089</v>
-      </c>
-      <c r="U9" s="44">
-        <v>114.74</v>
-      </c>
-      <c r="V9" s="44">
-        <v>111.446</v>
-      </c>
-      <c r="W9" s="44">
-        <v>104.91500000000001</v>
-      </c>
-      <c r="X9" s="44">
-        <v>101.233</v>
-      </c>
-      <c r="Y9" s="44">
-        <v>85.972999999999999</v>
-      </c>
-      <c r="Z9" s="44">
-        <v>75.988</v>
-      </c>
-      <c r="AA9" s="44">
-        <v>72.510999999999996</v>
-      </c>
-      <c r="AB9" s="44">
-        <v>69.447999999999993</v>
-      </c>
-      <c r="AC9" s="45">
-        <v>-0.62735292223820061</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="46" t="s">
+      <c r="C10" s="43">
+        <v>21.878</v>
+      </c>
+      <c r="D10" s="43">
+        <v>23.254999999999999</v>
+      </c>
+      <c r="E10" s="43">
+        <v>20.350999999999999</v>
+      </c>
+      <c r="F10" s="43">
+        <v>13.978999999999999</v>
+      </c>
+      <c r="G10" s="43">
+        <v>13.836</v>
+      </c>
+      <c r="H10" s="43">
+        <v>14.9</v>
+      </c>
+      <c r="I10" s="43">
+        <v>14.676</v>
+      </c>
+      <c r="J10" s="43">
+        <v>14.493</v>
+      </c>
+      <c r="K10" s="43">
+        <v>13.079000000000001</v>
+      </c>
+      <c r="L10" s="43">
+        <v>11.321</v>
+      </c>
+      <c r="M10" s="43">
+        <v>12.015000000000001</v>
+      </c>
+      <c r="N10" s="43">
+        <v>12.842000000000001</v>
+      </c>
+      <c r="O10" s="43">
+        <v>12.391999999999999</v>
+      </c>
+      <c r="P10" s="43">
+        <v>12.4</v>
+      </c>
+      <c r="Q10" s="43">
+        <v>12.015000000000001</v>
+      </c>
+      <c r="R10" s="43">
+        <v>14.355</v>
+      </c>
+      <c r="S10" s="43">
+        <v>14.986000000000001</v>
+      </c>
+      <c r="T10" s="43">
+        <v>16.905999999999999</v>
+      </c>
+      <c r="U10" s="43">
+        <v>18.068999999999999</v>
+      </c>
+      <c r="V10" s="43">
+        <v>16.32</v>
+      </c>
+      <c r="W10" s="43">
+        <v>17.475999999999999</v>
+      </c>
+      <c r="X10" s="43">
+        <v>18.701000000000001</v>
+      </c>
+      <c r="Y10" s="43">
+        <v>20.765999999999998</v>
+      </c>
+      <c r="Z10" s="43">
+        <v>16.356999999999999</v>
+      </c>
+      <c r="AA10" s="43">
+        <v>14.699</v>
+      </c>
+      <c r="AB10" s="43">
+        <v>14.308999999999999</v>
+      </c>
+      <c r="AC10" s="44">
+        <v>-0.34596398208245727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="44">
-        <v>21.878</v>
-      </c>
-      <c r="D10" s="44">
-        <v>23.254999999999999</v>
-      </c>
-      <c r="E10" s="44">
-        <v>20.350999999999999</v>
-      </c>
-      <c r="F10" s="44">
-        <v>13.978999999999999</v>
-      </c>
-      <c r="G10" s="44">
-        <v>13.836</v>
-      </c>
-      <c r="H10" s="44">
-        <v>14.9</v>
-      </c>
-      <c r="I10" s="44">
-        <v>14.676</v>
-      </c>
-      <c r="J10" s="44">
-        <v>14.493</v>
-      </c>
-      <c r="K10" s="44">
-        <v>13.079000000000001</v>
-      </c>
-      <c r="L10" s="44">
-        <v>11.321</v>
-      </c>
-      <c r="M10" s="44">
-        <v>12.015000000000001</v>
-      </c>
-      <c r="N10" s="44">
-        <v>12.842000000000001</v>
-      </c>
-      <c r="O10" s="44">
-        <v>12.391999999999999</v>
-      </c>
-      <c r="P10" s="44">
-        <v>12.4</v>
-      </c>
-      <c r="Q10" s="44">
-        <v>12.015000000000001</v>
-      </c>
-      <c r="R10" s="44">
-        <v>14.355</v>
-      </c>
-      <c r="S10" s="44">
-        <v>14.986000000000001</v>
-      </c>
-      <c r="T10" s="44">
-        <v>16.905999999999999</v>
-      </c>
-      <c r="U10" s="44">
-        <v>18.068999999999999</v>
-      </c>
-      <c r="V10" s="44">
-        <v>16.32</v>
-      </c>
-      <c r="W10" s="44">
-        <v>17.475999999999999</v>
-      </c>
-      <c r="X10" s="44">
-        <v>18.701000000000001</v>
-      </c>
-      <c r="Y10" s="44">
-        <v>20.765999999999998</v>
-      </c>
-      <c r="Z10" s="44">
-        <v>16.356999999999999</v>
-      </c>
-      <c r="AA10" s="44">
-        <v>14.699</v>
-      </c>
-      <c r="AB10" s="44">
-        <v>14.308999999999999</v>
-      </c>
-      <c r="AC10" s="45">
-        <v>-0.34596398208245727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B11" s="46" t="s">
+      <c r="C11" s="43">
+        <v>220.5</v>
+      </c>
+      <c r="D11" s="43">
+        <v>217.4</v>
+      </c>
+      <c r="E11" s="43">
+        <v>208.1</v>
+      </c>
+      <c r="F11" s="43">
+        <v>217.7</v>
+      </c>
+      <c r="G11" s="43">
+        <v>221.8</v>
+      </c>
+      <c r="H11" s="43">
+        <v>211.6</v>
+      </c>
+      <c r="I11" s="43">
+        <v>209.3</v>
+      </c>
+      <c r="J11" s="43">
+        <v>200.9</v>
+      </c>
+      <c r="K11" s="43">
+        <v>214.3</v>
+      </c>
+      <c r="L11" s="43">
+        <v>205.4</v>
+      </c>
+      <c r="M11" s="43">
+        <v>199.8</v>
+      </c>
+      <c r="N11" s="43">
+        <v>186</v>
+      </c>
+      <c r="O11" s="43">
+        <v>203.2</v>
+      </c>
+      <c r="P11" s="43">
+        <v>176.4</v>
+      </c>
+      <c r="Q11" s="43">
+        <v>173.3</v>
+      </c>
+      <c r="R11" s="43">
+        <v>164.9</v>
+      </c>
+      <c r="S11" s="43">
+        <v>161.5</v>
+      </c>
+      <c r="T11" s="43">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="U11" s="43">
+        <v>165.1</v>
+      </c>
+      <c r="V11" s="43">
+        <v>160</v>
+      </c>
+      <c r="W11" s="43">
+        <v>171.1</v>
+      </c>
+      <c r="X11" s="43">
+        <v>173.2</v>
+      </c>
+      <c r="Y11" s="43">
+        <v>175.4</v>
+      </c>
+      <c r="Z11" s="43">
+        <v>174</v>
+      </c>
+      <c r="AA11" s="43">
+        <v>157.1</v>
+      </c>
+      <c r="AB11" s="43">
+        <v>162</v>
+      </c>
+      <c r="AC11" s="44">
+        <v>-0.26530612244897955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="44">
-        <v>220.5</v>
-      </c>
-      <c r="D11" s="44">
-        <v>217.4</v>
-      </c>
-      <c r="E11" s="44">
-        <v>208.1</v>
-      </c>
-      <c r="F11" s="44">
-        <v>217.7</v>
-      </c>
-      <c r="G11" s="44">
-        <v>221.8</v>
-      </c>
-      <c r="H11" s="44">
-        <v>211.6</v>
-      </c>
-      <c r="I11" s="44">
-        <v>209.3</v>
-      </c>
-      <c r="J11" s="44">
-        <v>200.9</v>
-      </c>
-      <c r="K11" s="44">
-        <v>214.3</v>
-      </c>
-      <c r="L11" s="44">
-        <v>205.4</v>
-      </c>
-      <c r="M11" s="44">
-        <v>199.8</v>
-      </c>
-      <c r="N11" s="44">
-        <v>186</v>
-      </c>
-      <c r="O11" s="44">
-        <v>203.2</v>
-      </c>
-      <c r="P11" s="44">
-        <v>176.4</v>
-      </c>
-      <c r="Q11" s="44">
-        <v>173.3</v>
-      </c>
-      <c r="R11" s="44">
-        <v>164.9</v>
-      </c>
-      <c r="S11" s="44">
-        <v>161.5</v>
-      </c>
-      <c r="T11" s="44">
-        <v>162.19999999999999</v>
-      </c>
-      <c r="U11" s="44">
-        <v>165.1</v>
-      </c>
-      <c r="V11" s="44">
-        <v>160</v>
-      </c>
-      <c r="W11" s="44">
-        <v>171.1</v>
-      </c>
-      <c r="X11" s="44">
-        <v>173.2</v>
-      </c>
-      <c r="Y11" s="44">
-        <v>175.4</v>
-      </c>
-      <c r="Z11" s="44">
-        <v>174</v>
-      </c>
-      <c r="AA11" s="44">
-        <v>157.1</v>
-      </c>
-      <c r="AB11" s="44">
-        <v>162</v>
-      </c>
-      <c r="AC11" s="45">
-        <v>-0.26530612244897955</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="43" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="44"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="45"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B13" s="46" t="s">
+      <c r="C13" s="43">
+        <v>957.47161500000004</v>
+      </c>
+      <c r="D13" s="43">
+        <v>937.93178699999999</v>
+      </c>
+      <c r="E13" s="43">
+        <v>967.23219099999994</v>
+      </c>
+      <c r="F13" s="43">
+        <v>1010.600104</v>
+      </c>
+      <c r="G13" s="43">
+        <v>1028.860565</v>
+      </c>
+      <c r="H13" s="43">
+        <v>989.38037499999996</v>
+      </c>
+      <c r="I13" s="43">
+        <v>1067.0687559999999</v>
+      </c>
+      <c r="J13" s="43">
+        <v>1006.629351</v>
+      </c>
+      <c r="K13" s="43">
+        <v>898.858656</v>
+      </c>
+      <c r="L13" s="43">
+        <v>930.02023099999997</v>
+      </c>
+      <c r="M13" s="43">
+        <v>985.91706999999997</v>
+      </c>
+      <c r="N13" s="43">
+        <v>909.04166399999997</v>
+      </c>
+      <c r="O13" s="43">
+        <v>979.59511199999997</v>
+      </c>
+      <c r="P13" s="43">
+        <v>983.90819299999998</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>976.62381600000003</v>
+      </c>
+      <c r="R13" s="43">
+        <v>938.61619599999995</v>
+      </c>
+      <c r="S13" s="43">
+        <v>881.60786599999994</v>
+      </c>
+      <c r="T13" s="43">
+        <v>970.03763000000004</v>
+      </c>
+      <c r="U13" s="43">
+        <v>974.37163299999997</v>
+      </c>
+      <c r="V13" s="43">
+        <v>955.47727599999996</v>
+      </c>
+      <c r="W13" s="43">
+        <v>905.91951200000005</v>
+      </c>
+      <c r="X13" s="43">
+        <v>965.79406500000005</v>
+      </c>
+      <c r="Y13" s="43">
+        <v>965.90394600000002</v>
+      </c>
+      <c r="Z13" s="43">
+        <v>1058.6143629999999</v>
+      </c>
+      <c r="AA13" s="43">
+        <v>1101.8604459999999</v>
+      </c>
+      <c r="AB13" s="43">
+        <v>1046.7996049999999</v>
+      </c>
+      <c r="AC13" s="44">
+        <v>9.3295705690449982E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="44">
-        <v>957.47161500000004</v>
-      </c>
-      <c r="D13" s="44">
-        <v>937.93178699999999</v>
-      </c>
-      <c r="E13" s="44">
-        <v>967.23219099999994</v>
-      </c>
-      <c r="F13" s="44">
-        <v>1010.600104</v>
-      </c>
-      <c r="G13" s="44">
-        <v>1028.860565</v>
-      </c>
-      <c r="H13" s="44">
-        <v>989.38037499999996</v>
-      </c>
-      <c r="I13" s="44">
-        <v>1067.0687559999999</v>
-      </c>
-      <c r="J13" s="44">
-        <v>1006.629351</v>
-      </c>
-      <c r="K13" s="44">
-        <v>898.858656</v>
-      </c>
-      <c r="L13" s="44">
-        <v>930.02023099999997</v>
-      </c>
-      <c r="M13" s="44">
-        <v>985.91706999999997</v>
-      </c>
-      <c r="N13" s="44">
-        <v>909.04166399999997</v>
-      </c>
-      <c r="O13" s="44">
-        <v>979.59511199999997</v>
-      </c>
-      <c r="P13" s="44">
-        <v>983.90819299999998</v>
-      </c>
-      <c r="Q13" s="44">
-        <v>976.62381600000003</v>
-      </c>
-      <c r="R13" s="44">
-        <v>938.61619599999995</v>
-      </c>
-      <c r="S13" s="44">
-        <v>881.60786599999994</v>
-      </c>
-      <c r="T13" s="44">
-        <v>970.03763000000004</v>
-      </c>
-      <c r="U13" s="44">
-        <v>974.37163299999997</v>
-      </c>
-      <c r="V13" s="44">
-        <v>955.47727599999996</v>
-      </c>
-      <c r="W13" s="44">
-        <v>905.91951200000005</v>
-      </c>
-      <c r="X13" s="44">
-        <v>965.79406500000005</v>
-      </c>
-      <c r="Y13" s="44">
-        <v>965.90394600000002</v>
-      </c>
-      <c r="Z13" s="44">
-        <v>1058.6143629999999</v>
-      </c>
-      <c r="AA13" s="44">
-        <v>1101.8604459999999</v>
-      </c>
-      <c r="AB13" s="44">
-        <v>1046.7996049999999</v>
-      </c>
-      <c r="AC13" s="45">
-        <v>9.3295705690449982E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B14" s="46" t="s">
+      <c r="C14" s="43">
+        <v>230.77636799999999</v>
+      </c>
+      <c r="D14" s="43">
+        <v>226.47645399999999</v>
+      </c>
+      <c r="E14" s="43">
+        <v>228.244573</v>
+      </c>
+      <c r="F14" s="43">
+        <v>234.11921799999999</v>
+      </c>
+      <c r="G14" s="43">
+        <v>247.38117199999999</v>
+      </c>
+      <c r="H14" s="43">
+        <v>245.044749</v>
+      </c>
+      <c r="I14" s="43">
+        <v>246.45484400000001</v>
+      </c>
+      <c r="J14" s="43">
+        <v>252.621869</v>
+      </c>
+      <c r="K14" s="43">
+        <v>253.748333</v>
+      </c>
+      <c r="L14" s="43">
+        <v>259.23315400000001</v>
+      </c>
+      <c r="M14" s="43">
+        <v>261.09022599999997</v>
+      </c>
+      <c r="N14" s="43">
+        <v>264.44429400000001</v>
+      </c>
+      <c r="O14" s="43">
+        <v>282.54614800000002</v>
+      </c>
+      <c r="P14" s="43">
+        <v>301.987572</v>
+      </c>
+      <c r="Q14" s="43">
+        <v>314.979782</v>
+      </c>
+      <c r="R14" s="43">
+        <v>328.85930300000001</v>
+      </c>
+      <c r="S14" s="43">
+        <v>339.90496899999999</v>
+      </c>
+      <c r="T14" s="43">
+        <v>368.33934799999997</v>
+      </c>
+      <c r="U14" s="43">
+        <v>375.010829</v>
+      </c>
+      <c r="V14" s="43">
+        <v>358.25056699999999</v>
+      </c>
+      <c r="W14" s="43">
+        <v>352.30563899999999</v>
+      </c>
+      <c r="X14" s="43">
+        <v>376.88279199999999</v>
+      </c>
+      <c r="Y14" s="43">
+        <v>327.14853399999998</v>
+      </c>
+      <c r="Z14" s="43">
+        <v>315.83987200000001</v>
+      </c>
+      <c r="AA14" s="43">
+        <v>315.04138799999998</v>
+      </c>
+      <c r="AB14" s="43">
+        <v>304.646345</v>
+      </c>
+      <c r="AC14" s="44">
+        <v>0.32009333382003824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B15" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="44">
-        <v>230.77636799999999</v>
-      </c>
-      <c r="D14" s="44">
-        <v>226.47645399999999</v>
-      </c>
-      <c r="E14" s="44">
-        <v>228.244573</v>
-      </c>
-      <c r="F14" s="44">
-        <v>234.11921799999999</v>
-      </c>
-      <c r="G14" s="44">
-        <v>247.38117199999999</v>
-      </c>
-      <c r="H14" s="44">
-        <v>245.044749</v>
-      </c>
-      <c r="I14" s="44">
-        <v>246.45484400000001</v>
-      </c>
-      <c r="J14" s="44">
-        <v>252.621869</v>
-      </c>
-      <c r="K14" s="44">
-        <v>253.748333</v>
-      </c>
-      <c r="L14" s="44">
-        <v>259.23315400000001</v>
-      </c>
-      <c r="M14" s="44">
-        <v>261.09022599999997</v>
-      </c>
-      <c r="N14" s="44">
-        <v>264.44429400000001</v>
-      </c>
-      <c r="O14" s="44">
-        <v>282.54614800000002</v>
-      </c>
-      <c r="P14" s="44">
-        <v>301.987572</v>
-      </c>
-      <c r="Q14" s="44">
-        <v>314.979782</v>
-      </c>
-      <c r="R14" s="44">
-        <v>328.85930300000001</v>
-      </c>
-      <c r="S14" s="44">
-        <v>339.90496899999999</v>
-      </c>
-      <c r="T14" s="44">
-        <v>368.33934799999997</v>
-      </c>
-      <c r="U14" s="44">
-        <v>375.010829</v>
-      </c>
-      <c r="V14" s="44">
-        <v>358.25056699999999</v>
-      </c>
-      <c r="W14" s="44">
-        <v>352.30563899999999</v>
-      </c>
-      <c r="X14" s="44">
-        <v>376.88279199999999</v>
-      </c>
-      <c r="Y14" s="44">
-        <v>327.14853399999998</v>
-      </c>
-      <c r="Z14" s="44">
-        <v>315.83987200000001</v>
-      </c>
-      <c r="AA14" s="44">
-        <v>315.04138799999998</v>
-      </c>
-      <c r="AB14" s="44">
-        <v>304.646345</v>
-      </c>
-      <c r="AC14" s="45">
-        <v>0.32009333382003824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B15" s="46" t="s">
+      <c r="C15" s="43">
+        <v>176.79410100000001</v>
+      </c>
+      <c r="D15" s="43">
+        <v>173.290762</v>
+      </c>
+      <c r="E15" s="43">
+        <v>174.99113600000001</v>
+      </c>
+      <c r="F15" s="43">
+        <v>171.37789100000001</v>
+      </c>
+      <c r="G15" s="43">
+        <v>172.89914300000001</v>
+      </c>
+      <c r="H15" s="43">
+        <v>170.99280200000001</v>
+      </c>
+      <c r="I15" s="43">
+        <v>171.74400600000001</v>
+      </c>
+      <c r="J15" s="43">
+        <v>172.159076</v>
+      </c>
+      <c r="K15" s="43">
+        <v>172.24861799999999</v>
+      </c>
+      <c r="L15" s="43">
+        <v>172.84220400000001</v>
+      </c>
+      <c r="M15" s="43">
+        <v>175.90840600000001</v>
+      </c>
+      <c r="N15" s="43">
+        <v>180.40856199999999</v>
+      </c>
+      <c r="O15" s="43">
+        <v>165.902804</v>
+      </c>
+      <c r="P15" s="43">
+        <v>160.40568999999999</v>
+      </c>
+      <c r="Q15" s="43">
+        <v>160.23369400000001</v>
+      </c>
+      <c r="R15" s="43">
+        <v>155.14941999999999</v>
+      </c>
+      <c r="S15" s="43">
+        <v>155.026374</v>
+      </c>
+      <c r="T15" s="43">
+        <v>158.072487</v>
+      </c>
+      <c r="U15" s="43">
+        <v>156.70811399999999</v>
+      </c>
+      <c r="V15" s="43">
+        <v>157.559178</v>
+      </c>
+      <c r="W15" s="43">
+        <v>159.30040399999999</v>
+      </c>
+      <c r="X15" s="43">
+        <v>161.704521</v>
+      </c>
+      <c r="Y15" s="43">
+        <v>146.96454700000001</v>
+      </c>
+      <c r="Z15" s="43">
+        <v>140.40627599999999</v>
+      </c>
+      <c r="AA15" s="43">
+        <v>137.814155</v>
+      </c>
+      <c r="AB15" s="43">
+        <v>133.868359</v>
+      </c>
+      <c r="AC15" s="44">
+        <v>-0.24280075951176683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="44">
-        <v>176.79410100000001</v>
-      </c>
-      <c r="D15" s="44">
-        <v>173.290762</v>
-      </c>
-      <c r="E15" s="44">
-        <v>174.99113600000001</v>
-      </c>
-      <c r="F15" s="44">
-        <v>171.37789100000001</v>
-      </c>
-      <c r="G15" s="44">
-        <v>172.89914300000001</v>
-      </c>
-      <c r="H15" s="44">
-        <v>170.99280200000001</v>
-      </c>
-      <c r="I15" s="44">
-        <v>171.74400600000001</v>
-      </c>
-      <c r="J15" s="44">
-        <v>172.159076</v>
-      </c>
-      <c r="K15" s="44">
-        <v>172.24861799999999</v>
-      </c>
-      <c r="L15" s="44">
-        <v>172.84220400000001</v>
-      </c>
-      <c r="M15" s="44">
-        <v>175.90840600000001</v>
-      </c>
-      <c r="N15" s="44">
-        <v>180.40856199999999</v>
-      </c>
-      <c r="O15" s="44">
-        <v>165.902804</v>
-      </c>
-      <c r="P15" s="44">
-        <v>160.40568999999999</v>
-      </c>
-      <c r="Q15" s="44">
-        <v>160.23369400000001</v>
-      </c>
-      <c r="R15" s="44">
-        <v>155.14941999999999</v>
-      </c>
-      <c r="S15" s="44">
-        <v>155.026374</v>
-      </c>
-      <c r="T15" s="44">
-        <v>158.072487</v>
-      </c>
-      <c r="U15" s="44">
-        <v>156.70811399999999</v>
-      </c>
-      <c r="V15" s="44">
-        <v>157.559178</v>
-      </c>
-      <c r="W15" s="44">
-        <v>159.30040399999999</v>
-      </c>
-      <c r="X15" s="44">
-        <v>161.704521</v>
-      </c>
-      <c r="Y15" s="44">
-        <v>146.96454700000001</v>
-      </c>
-      <c r="Z15" s="44">
-        <v>140.40627599999999</v>
-      </c>
-      <c r="AA15" s="44">
-        <v>137.814155</v>
-      </c>
-      <c r="AB15" s="44">
-        <v>133.868359</v>
-      </c>
-      <c r="AC15" s="45">
-        <v>-0.24280075951176683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48" t="s">
+      <c r="C16" s="48">
+        <v>148.51024699999999</v>
+      </c>
+      <c r="D16" s="48">
+        <v>144.14330000000001</v>
+      </c>
+      <c r="E16" s="48">
+        <v>144.33723800000001</v>
+      </c>
+      <c r="F16" s="48">
+        <v>140.32492300000001</v>
+      </c>
+      <c r="G16" s="48">
+        <v>140.161473</v>
+      </c>
+      <c r="H16" s="48">
+        <v>136.95940200000001</v>
+      </c>
+      <c r="I16" s="48">
+        <v>136.090091</v>
+      </c>
+      <c r="J16" s="48">
+        <v>133.942834</v>
+      </c>
+      <c r="K16" s="48">
+        <v>132.25843599999999</v>
+      </c>
+      <c r="L16" s="48">
+        <v>131.02200400000001</v>
+      </c>
+      <c r="M16" s="48">
+        <v>131.32546400000001</v>
+      </c>
+      <c r="N16" s="48">
+        <v>132.58945200000002</v>
+      </c>
+      <c r="O16" s="48">
+        <v>119.79000299999998</v>
+      </c>
+      <c r="P16" s="48">
+        <v>114.112931</v>
+      </c>
+      <c r="Q16" s="48">
+        <v>112.088712</v>
+      </c>
+      <c r="R16" s="48">
+        <v>107.21856700000001</v>
+      </c>
+      <c r="S16" s="48">
+        <v>105.44021499999999</v>
+      </c>
+      <c r="T16" s="48">
+        <v>106.024823</v>
+      </c>
+      <c r="U16" s="48">
+        <v>103.091902</v>
+      </c>
+      <c r="V16" s="48">
+        <v>101.414725</v>
+      </c>
+      <c r="W16" s="48">
+        <v>99.690170999999992</v>
+      </c>
+      <c r="X16" s="48">
+        <v>99.322428000000016</v>
+      </c>
+      <c r="Y16" s="48">
+        <v>88.187496999999993</v>
+      </c>
+      <c r="Z16" s="48">
+        <v>83.14618200000001</v>
+      </c>
+      <c r="AA16" s="48">
+        <v>80.057198</v>
+      </c>
+      <c r="AB16" s="48">
+        <v>76.831663999999989</v>
+      </c>
+      <c r="AC16" s="49">
+        <v>-0.48265075607880448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="49">
-        <v>148.51024699999999</v>
-      </c>
-      <c r="D16" s="49">
-        <v>144.14330000000001</v>
-      </c>
-      <c r="E16" s="49">
-        <v>144.33723800000001</v>
-      </c>
-      <c r="F16" s="49">
-        <v>140.32492300000001</v>
-      </c>
-      <c r="G16" s="49">
-        <v>140.161473</v>
-      </c>
-      <c r="H16" s="49">
-        <v>136.95940200000001</v>
-      </c>
-      <c r="I16" s="49">
-        <v>136.090091</v>
-      </c>
-      <c r="J16" s="49">
-        <v>133.942834</v>
-      </c>
-      <c r="K16" s="49">
-        <v>132.25843599999999</v>
-      </c>
-      <c r="L16" s="49">
-        <v>131.02200400000001</v>
-      </c>
-      <c r="M16" s="49">
-        <v>131.32546400000001</v>
-      </c>
-      <c r="N16" s="49">
-        <v>132.58945200000002</v>
-      </c>
-      <c r="O16" s="49">
-        <v>119.79000299999998</v>
-      </c>
-      <c r="P16" s="49">
-        <v>114.112931</v>
-      </c>
-      <c r="Q16" s="49">
-        <v>112.088712</v>
-      </c>
-      <c r="R16" s="49">
-        <v>107.21856700000001</v>
-      </c>
-      <c r="S16" s="49">
-        <v>105.44021499999999</v>
-      </c>
-      <c r="T16" s="49">
-        <v>106.024823</v>
-      </c>
-      <c r="U16" s="49">
-        <v>103.091902</v>
-      </c>
-      <c r="V16" s="49">
-        <v>101.414725</v>
-      </c>
-      <c r="W16" s="49">
-        <v>99.690170999999992</v>
-      </c>
-      <c r="X16" s="49">
-        <v>99.322428000000016</v>
-      </c>
-      <c r="Y16" s="49">
-        <v>88.187496999999993</v>
-      </c>
-      <c r="Z16" s="49">
-        <v>83.14618200000001</v>
-      </c>
-      <c r="AA16" s="49">
-        <v>80.057198</v>
-      </c>
-      <c r="AB16" s="49">
-        <v>76.831663999999989</v>
-      </c>
-      <c r="AC16" s="50">
-        <v>-0.48265075607880448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48" t="s">
+      <c r="C17" s="50">
+        <v>28.283854000000002</v>
+      </c>
+      <c r="D17" s="50">
+        <v>29.147462999999998</v>
+      </c>
+      <c r="E17" s="50">
+        <v>30.653898999999999</v>
+      </c>
+      <c r="F17" s="50">
+        <v>31.052969999999998</v>
+      </c>
+      <c r="G17" s="50">
+        <v>32.737667000000002</v>
+      </c>
+      <c r="H17" s="50">
+        <v>34.033397999999998</v>
+      </c>
+      <c r="I17" s="50">
+        <v>35.653913000000003</v>
+      </c>
+      <c r="J17" s="50">
+        <v>38.216245000000001</v>
+      </c>
+      <c r="K17" s="50">
+        <v>39.990183000000002</v>
+      </c>
+      <c r="L17" s="50">
+        <v>41.8202</v>
+      </c>
+      <c r="M17" s="50">
+        <v>44.582946</v>
+      </c>
+      <c r="N17" s="50">
+        <v>47.819108999999997</v>
+      </c>
+      <c r="O17" s="50">
+        <v>46.1128</v>
+      </c>
+      <c r="P17" s="50">
+        <v>46.292760000000001</v>
+      </c>
+      <c r="Q17" s="50">
+        <v>48.144981000000001</v>
+      </c>
+      <c r="R17" s="50">
+        <v>47.930850999999997</v>
+      </c>
+      <c r="S17" s="50">
+        <v>49.586157999999998</v>
+      </c>
+      <c r="T17" s="50">
+        <v>52.047663999999997</v>
+      </c>
+      <c r="U17" s="50">
+        <v>53.616211</v>
+      </c>
+      <c r="V17" s="50">
+        <v>56.144457000000003</v>
+      </c>
+      <c r="W17" s="50">
+        <v>59.610233000000001</v>
+      </c>
+      <c r="X17" s="50">
+        <v>62.382097999999999</v>
+      </c>
+      <c r="Y17" s="50">
+        <v>58.777053000000002</v>
+      </c>
+      <c r="Z17" s="50">
+        <v>57.260092</v>
+      </c>
+      <c r="AA17" s="50">
+        <v>57.756959000000002</v>
+      </c>
+      <c r="AB17" s="50">
+        <v>57.036693</v>
+      </c>
+      <c r="AC17" s="49">
+        <v>1.016581368295848</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B18" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="51">
-        <v>28.283854000000002</v>
-      </c>
-      <c r="D17" s="51">
-        <v>29.147462999999998</v>
-      </c>
-      <c r="E17" s="51">
-        <v>30.653898999999999</v>
-      </c>
-      <c r="F17" s="51">
-        <v>31.052969999999998</v>
-      </c>
-      <c r="G17" s="51">
-        <v>32.737667000000002</v>
-      </c>
-      <c r="H17" s="51">
-        <v>34.033397999999998</v>
-      </c>
-      <c r="I17" s="51">
-        <v>35.653913000000003</v>
-      </c>
-      <c r="J17" s="51">
-        <v>38.216245000000001</v>
-      </c>
-      <c r="K17" s="51">
-        <v>39.990183000000002</v>
-      </c>
-      <c r="L17" s="51">
-        <v>41.8202</v>
-      </c>
-      <c r="M17" s="51">
-        <v>44.582946</v>
-      </c>
-      <c r="N17" s="51">
-        <v>47.819108999999997</v>
-      </c>
-      <c r="O17" s="51">
-        <v>46.1128</v>
-      </c>
-      <c r="P17" s="51">
-        <v>46.292760000000001</v>
-      </c>
-      <c r="Q17" s="51">
-        <v>48.144981000000001</v>
-      </c>
-      <c r="R17" s="51">
-        <v>47.930850999999997</v>
-      </c>
-      <c r="S17" s="51">
-        <v>49.586157999999998</v>
-      </c>
-      <c r="T17" s="51">
-        <v>52.047663999999997</v>
-      </c>
-      <c r="U17" s="51">
-        <v>53.616211</v>
-      </c>
-      <c r="V17" s="51">
-        <v>56.144457000000003</v>
-      </c>
-      <c r="W17" s="51">
-        <v>59.610233000000001</v>
-      </c>
-      <c r="X17" s="51">
-        <v>62.382097999999999</v>
-      </c>
-      <c r="Y17" s="51">
-        <v>58.777053000000002</v>
-      </c>
-      <c r="Z17" s="51">
-        <v>57.260092</v>
-      </c>
-      <c r="AA17" s="51">
-        <v>57.756959000000002</v>
-      </c>
-      <c r="AB17" s="51">
-        <v>57.036693</v>
-      </c>
-      <c r="AC17" s="50">
-        <v>1.016581368295848</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B18" s="46" t="s">
+      <c r="C18" s="43">
+        <v>49.534745999999998</v>
+      </c>
+      <c r="D18" s="43">
+        <v>48.495793999999997</v>
+      </c>
+      <c r="E18" s="43">
+        <v>49.198559000000003</v>
+      </c>
+      <c r="F18" s="43">
+        <v>48.662399000000001</v>
+      </c>
+      <c r="G18" s="43">
+        <v>49.679948000000003</v>
+      </c>
+      <c r="H18" s="43">
+        <v>49.584781999999997</v>
+      </c>
+      <c r="I18" s="43">
+        <v>50.560597000000001</v>
+      </c>
+      <c r="J18" s="43">
+        <v>51.050915000000003</v>
+      </c>
+      <c r="K18" s="43">
+        <v>52.086551</v>
+      </c>
+      <c r="L18" s="43">
+        <v>53.250469000000002</v>
+      </c>
+      <c r="M18" s="43">
+        <v>55.018783999999997</v>
+      </c>
+      <c r="N18" s="43">
+        <v>57.228914000000003</v>
+      </c>
+      <c r="O18" s="43">
+        <v>52.297961000000001</v>
+      </c>
+      <c r="P18" s="43">
+        <v>51.035986000000001</v>
+      </c>
+      <c r="Q18" s="43">
+        <v>50.265427000000003</v>
+      </c>
+      <c r="R18" s="43">
+        <v>47.538702999999998</v>
+      </c>
+      <c r="S18" s="43">
+        <v>46.402361999999997</v>
+      </c>
+      <c r="T18" s="43">
+        <v>46.232588</v>
+      </c>
+      <c r="U18" s="43">
+        <v>45.234456000000002</v>
+      </c>
+      <c r="V18" s="43">
+        <v>45.293193000000002</v>
+      </c>
+      <c r="W18" s="43">
+        <v>46.027459</v>
+      </c>
+      <c r="X18" s="43">
+        <v>45.810949999999998</v>
+      </c>
+      <c r="Y18" s="43">
+        <v>40.834338000000002</v>
+      </c>
+      <c r="Z18" s="43">
+        <v>38.330396999999998</v>
+      </c>
+      <c r="AA18" s="43">
+        <v>36.670189999999998</v>
+      </c>
+      <c r="AB18" s="43">
+        <v>36.503010000000003</v>
+      </c>
+      <c r="AC18" s="44">
+        <v>-0.26308272581028269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B19" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="44">
-        <v>49.534745999999998</v>
-      </c>
-      <c r="D18" s="44">
-        <v>48.495793999999997</v>
-      </c>
-      <c r="E18" s="44">
-        <v>49.198559000000003</v>
-      </c>
-      <c r="F18" s="44">
-        <v>48.662399000000001</v>
-      </c>
-      <c r="G18" s="44">
-        <v>49.679948000000003</v>
-      </c>
-      <c r="H18" s="44">
-        <v>49.584781999999997</v>
-      </c>
-      <c r="I18" s="44">
-        <v>50.560597000000001</v>
-      </c>
-      <c r="J18" s="44">
-        <v>51.050915000000003</v>
-      </c>
-      <c r="K18" s="44">
-        <v>52.086551</v>
-      </c>
-      <c r="L18" s="44">
-        <v>53.250469000000002</v>
-      </c>
-      <c r="M18" s="44">
-        <v>55.018783999999997</v>
-      </c>
-      <c r="N18" s="44">
-        <v>57.228914000000003</v>
-      </c>
-      <c r="O18" s="44">
-        <v>52.297961000000001</v>
-      </c>
-      <c r="P18" s="44">
-        <v>51.035986000000001</v>
-      </c>
-      <c r="Q18" s="44">
-        <v>50.265427000000003</v>
-      </c>
-      <c r="R18" s="44">
-        <v>47.538702999999998</v>
-      </c>
-      <c r="S18" s="44">
-        <v>46.402361999999997</v>
-      </c>
-      <c r="T18" s="44">
-        <v>46.232588</v>
-      </c>
-      <c r="U18" s="44">
-        <v>45.234456000000002</v>
-      </c>
-      <c r="V18" s="44">
-        <v>45.293193000000002</v>
-      </c>
-      <c r="W18" s="44">
-        <v>46.027459</v>
-      </c>
-      <c r="X18" s="44">
-        <v>45.810949999999998</v>
-      </c>
-      <c r="Y18" s="44">
-        <v>40.834338000000002</v>
-      </c>
-      <c r="Z18" s="44">
-        <v>38.330396999999998</v>
-      </c>
-      <c r="AA18" s="44">
-        <v>36.670189999999998</v>
-      </c>
-      <c r="AB18" s="44">
-        <v>36.503010000000003</v>
-      </c>
-      <c r="AC18" s="45">
-        <v>-0.26308272581028269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B19" s="46" t="s">
+      <c r="C19" s="43">
+        <v>9.9691709999999993</v>
+      </c>
+      <c r="D19" s="43">
+        <v>14.345203</v>
+      </c>
+      <c r="E19" s="43">
+        <v>4.6905409999999996</v>
+      </c>
+      <c r="F19" s="43">
+        <v>9.6073880000000003</v>
+      </c>
+      <c r="G19" s="43">
+        <v>9.6891730000000003</v>
+      </c>
+      <c r="H19" s="43">
+        <v>13.313293</v>
+      </c>
+      <c r="I19" s="43">
+        <v>10.221798</v>
+      </c>
+      <c r="J19" s="43">
+        <v>10.946789000000001</v>
+      </c>
+      <c r="K19" s="43">
+        <v>16.978843000000001</v>
+      </c>
+      <c r="L19" s="43">
+        <v>19.857942000000001</v>
+      </c>
+      <c r="M19" s="43">
+        <v>13.183514000000001</v>
+      </c>
+      <c r="N19" s="43">
+        <v>21.777566</v>
+      </c>
+      <c r="O19" s="43">
+        <v>23.901975</v>
+      </c>
+      <c r="P19" s="43">
+        <v>17.192557999999998</v>
+      </c>
+      <c r="Q19" s="43">
+        <v>12.851281</v>
+      </c>
+      <c r="R19" s="43">
+        <v>25.080378</v>
+      </c>
+      <c r="S19" s="43">
+        <v>19.427430000000001</v>
+      </c>
+      <c r="T19" s="43">
+        <v>18.833946999999998</v>
+      </c>
+      <c r="U19" s="43">
+        <v>14.500968</v>
+      </c>
+      <c r="V19" s="43">
+        <v>12.270785999999999</v>
+      </c>
+      <c r="W19" s="43">
+        <v>23.470986</v>
+      </c>
+      <c r="X19" s="43">
+        <v>23.831672000000001</v>
+      </c>
+      <c r="Y19" s="43">
+        <v>27.324635000000001</v>
+      </c>
+      <c r="Z19" s="43">
+        <v>18.765091999999999</v>
+      </c>
+      <c r="AA19" s="43">
+        <v>17.272821</v>
+      </c>
+      <c r="AB19" s="43">
+        <v>22.168680999999999</v>
+      </c>
+      <c r="AC19" s="44">
+        <v>1.2237236175405157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B20" s="51"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="44"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B21" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="44">
-        <v>9.9691709999999993</v>
-      </c>
-      <c r="D19" s="44">
-        <v>14.345203</v>
-      </c>
-      <c r="E19" s="44">
-        <v>4.6905409999999996</v>
-      </c>
-      <c r="F19" s="44">
-        <v>9.6073880000000003</v>
-      </c>
-      <c r="G19" s="44">
-        <v>9.6891730000000003</v>
-      </c>
-      <c r="H19" s="44">
-        <v>13.313293</v>
-      </c>
-      <c r="I19" s="44">
-        <v>10.221798</v>
-      </c>
-      <c r="J19" s="44">
-        <v>10.946789000000001</v>
-      </c>
-      <c r="K19" s="44">
-        <v>16.978843000000001</v>
-      </c>
-      <c r="L19" s="44">
-        <v>19.857942000000001</v>
-      </c>
-      <c r="M19" s="44">
-        <v>13.183514000000001</v>
-      </c>
-      <c r="N19" s="44">
-        <v>21.777566</v>
-      </c>
-      <c r="O19" s="44">
-        <v>23.901975</v>
-      </c>
-      <c r="P19" s="44">
-        <v>17.192557999999998</v>
-      </c>
-      <c r="Q19" s="44">
-        <v>12.851281</v>
-      </c>
-      <c r="R19" s="44">
-        <v>25.080378</v>
-      </c>
-      <c r="S19" s="44">
-        <v>19.427430000000001</v>
-      </c>
-      <c r="T19" s="44">
-        <v>18.833946999999998</v>
-      </c>
-      <c r="U19" s="44">
-        <v>14.500968</v>
-      </c>
-      <c r="V19" s="44">
-        <v>12.270785999999999</v>
-      </c>
-      <c r="W19" s="44">
-        <v>23.470986</v>
-      </c>
-      <c r="X19" s="44">
-        <v>23.831672000000001</v>
-      </c>
-      <c r="Y19" s="44">
-        <v>27.324635000000001</v>
-      </c>
-      <c r="Z19" s="44">
-        <v>18.765091999999999</v>
-      </c>
-      <c r="AA19" s="44">
-        <v>17.272821</v>
-      </c>
-      <c r="AB19" s="44">
-        <v>22.168680999999999</v>
-      </c>
-      <c r="AC19" s="45">
-        <v>1.2237236175405157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B20" s="52"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="45"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B21" s="53" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="44"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B22" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="45"/>
-    </row>
-    <row r="22" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="54" t="s">
+      <c r="C22" s="54">
+        <v>1208.0340000000001</v>
+      </c>
+      <c r="D22" s="54">
+        <v>1251.5</v>
+      </c>
+      <c r="E22" s="54">
+        <v>1286.261</v>
+      </c>
+      <c r="F22" s="54">
+        <v>1319.55</v>
+      </c>
+      <c r="G22" s="54">
+        <v>1348.5409999999999</v>
+      </c>
+      <c r="H22" s="54">
+        <v>1379.298</v>
+      </c>
+      <c r="I22" s="54">
+        <v>1405.527</v>
+      </c>
+      <c r="J22" s="54">
+        <v>1427.7760000000001</v>
+      </c>
+      <c r="K22" s="54">
+        <v>1451.6659999999999</v>
+      </c>
+      <c r="L22" s="54">
+        <v>1475.7629999999999</v>
+      </c>
+      <c r="M22" s="54">
+        <v>1502.5609999999999</v>
+      </c>
+      <c r="N22" s="54">
+        <v>1529.931</v>
+      </c>
+      <c r="O22" s="54">
+        <v>1562.0229999999999</v>
+      </c>
+      <c r="P22" s="54">
+        <v>1596.501</v>
+      </c>
+      <c r="Q22" s="54">
+        <v>1633.3820000000001</v>
+      </c>
+      <c r="R22" s="54">
+        <v>1669.4290000000001</v>
+      </c>
+      <c r="S22" s="54">
+        <v>1707.5930000000001</v>
+      </c>
+      <c r="T22" s="54">
+        <v>1745.3610000000001</v>
+      </c>
+      <c r="U22" s="54">
+        <v>1782.2170000000001</v>
+      </c>
+      <c r="V22" s="54">
+        <v>1816.037</v>
+      </c>
+      <c r="W22" s="54">
+        <v>1847.9480000000001</v>
+      </c>
+      <c r="X22" s="54">
+        <v>1880.5509999999999</v>
+      </c>
+      <c r="Y22" s="54">
+        <v>1909.6179999999999</v>
+      </c>
+      <c r="Z22" s="54">
+        <v>1967.306</v>
+      </c>
+      <c r="AA22" s="54">
+        <v>1997.1020000000001</v>
+      </c>
+      <c r="AB22" s="54">
+        <v>2026.2550000000001</v>
+      </c>
+      <c r="AC22" s="44">
+        <v>0.67731620136519322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="55">
-        <v>1208.0340000000001</v>
-      </c>
-      <c r="D22" s="55">
-        <v>1251.5</v>
-      </c>
-      <c r="E22" s="55">
-        <v>1286.261</v>
-      </c>
-      <c r="F22" s="55">
-        <v>1319.55</v>
-      </c>
-      <c r="G22" s="55">
-        <v>1348.5409999999999</v>
-      </c>
-      <c r="H22" s="55">
-        <v>1379.298</v>
-      </c>
-      <c r="I22" s="55">
-        <v>1405.527</v>
-      </c>
-      <c r="J22" s="55">
-        <v>1427.7760000000001</v>
-      </c>
-      <c r="K22" s="55">
-        <v>1451.6659999999999</v>
-      </c>
-      <c r="L22" s="55">
-        <v>1475.7629999999999</v>
-      </c>
-      <c r="M22" s="55">
-        <v>1502.5609999999999</v>
-      </c>
-      <c r="N22" s="55">
-        <v>1529.931</v>
-      </c>
-      <c r="O22" s="55">
-        <v>1562.0229999999999</v>
-      </c>
-      <c r="P22" s="55">
-        <v>1596.501</v>
-      </c>
-      <c r="Q22" s="55">
-        <v>1633.3820000000001</v>
-      </c>
-      <c r="R22" s="55">
-        <v>1669.4290000000001</v>
-      </c>
-      <c r="S22" s="55">
-        <v>1707.5930000000001</v>
-      </c>
-      <c r="T22" s="55">
-        <v>1745.3610000000001</v>
-      </c>
-      <c r="U22" s="55">
-        <v>1782.2170000000001</v>
-      </c>
-      <c r="V22" s="55">
-        <v>1816.037</v>
-      </c>
-      <c r="W22" s="55">
-        <v>1847.9480000000001</v>
-      </c>
-      <c r="X22" s="55">
-        <v>1880.5509999999999</v>
-      </c>
-      <c r="Y22" s="55">
-        <v>1909.6179999999999</v>
-      </c>
-      <c r="Z22" s="55">
-        <v>1967.306</v>
-      </c>
-      <c r="AA22" s="55">
-        <v>1997.1020000000001</v>
-      </c>
-      <c r="AB22" s="55">
-        <v>2026.2550000000001</v>
-      </c>
-      <c r="AC22" s="45">
-        <v>0.67731620136519322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="40"/>
-      <c r="B23" s="54" t="s">
+      <c r="C23" s="54">
+        <v>9895.1980000000003</v>
+      </c>
+      <c r="D23" s="54">
+        <v>10182.736999999999</v>
+      </c>
+      <c r="E23" s="54">
+        <v>10362.958000000001</v>
+      </c>
+      <c r="F23" s="54">
+        <v>10557.811</v>
+      </c>
+      <c r="G23" s="54">
+        <v>10716.39</v>
+      </c>
+      <c r="H23" s="54">
+        <v>10899.866</v>
+      </c>
+      <c r="I23" s="54">
+        <v>11068.782999999999</v>
+      </c>
+      <c r="J23" s="54">
+        <v>11179.55</v>
+      </c>
+      <c r="K23" s="54">
+        <v>11320.55</v>
+      </c>
+      <c r="L23" s="54">
+        <v>11474.81</v>
+      </c>
+      <c r="M23" s="54">
+        <v>11651.62</v>
+      </c>
+      <c r="N23" s="54">
+        <v>11837.12</v>
+      </c>
+      <c r="O23" s="54">
+        <v>12013.655000000001</v>
+      </c>
+      <c r="P23" s="54">
+        <v>12189.29</v>
+      </c>
+      <c r="Q23" s="54">
+        <v>12375.32</v>
+      </c>
+      <c r="R23" s="54">
+        <v>12586.78</v>
+      </c>
+      <c r="S23" s="54">
+        <v>12755.57</v>
+      </c>
+      <c r="T23" s="54">
+        <v>12985.12</v>
+      </c>
+      <c r="U23" s="54">
+        <v>13164.37</v>
+      </c>
+      <c r="V23" s="54">
+        <v>13416.99</v>
+      </c>
+      <c r="W23" s="54">
+        <v>13377.540999999999</v>
+      </c>
+      <c r="X23" s="54">
+        <v>13551.484</v>
+      </c>
+      <c r="Y23" s="54">
+        <v>13706.148999999999</v>
+      </c>
+      <c r="Z23" s="54">
+        <v>13857.835999999999</v>
+      </c>
+      <c r="AA23" s="54">
+        <v>13988.535</v>
+      </c>
+      <c r="AB23" s="54">
+        <v>14136.508</v>
+      </c>
+      <c r="AC23" s="44">
+        <v>0.42862305534462264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="44"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B25" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="55">
-        <v>9895.1980000000003</v>
-      </c>
-      <c r="D23" s="55">
-        <v>10182.736999999999</v>
-      </c>
-      <c r="E23" s="55">
-        <v>10362.958000000001</v>
-      </c>
-      <c r="F23" s="55">
-        <v>10557.811</v>
-      </c>
-      <c r="G23" s="55">
-        <v>10716.39</v>
-      </c>
-      <c r="H23" s="55">
-        <v>10899.866</v>
-      </c>
-      <c r="I23" s="55">
-        <v>11068.782999999999</v>
-      </c>
-      <c r="J23" s="55">
-        <v>11179.55</v>
-      </c>
-      <c r="K23" s="55">
-        <v>11320.55</v>
-      </c>
-      <c r="L23" s="55">
-        <v>11474.81</v>
-      </c>
-      <c r="M23" s="55">
-        <v>11651.62</v>
-      </c>
-      <c r="N23" s="55">
-        <v>11837.12</v>
-      </c>
-      <c r="O23" s="55">
-        <v>12013.655000000001</v>
-      </c>
-      <c r="P23" s="55">
-        <v>12189.29</v>
-      </c>
-      <c r="Q23" s="55">
-        <v>12375.32</v>
-      </c>
-      <c r="R23" s="55">
-        <v>12586.78</v>
-      </c>
-      <c r="S23" s="55">
-        <v>12755.57</v>
-      </c>
-      <c r="T23" s="55">
-        <v>12985.12</v>
-      </c>
-      <c r="U23" s="55">
-        <v>13164.37</v>
-      </c>
-      <c r="V23" s="55">
-        <v>13416.99</v>
-      </c>
-      <c r="W23" s="55">
-        <v>13377.540999999999</v>
-      </c>
-      <c r="X23" s="55">
-        <v>13551.484</v>
-      </c>
-      <c r="Y23" s="55">
-        <v>13706.148999999999</v>
-      </c>
-      <c r="Z23" s="55">
-        <v>13857.835999999999</v>
-      </c>
-      <c r="AA23" s="55">
-        <v>13988.535</v>
-      </c>
-      <c r="AB23" s="55">
-        <v>14136.508</v>
-      </c>
-      <c r="AC23" s="45">
-        <v>0.42862305534462264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A24" s="40"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="45"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="57" t="s">
+      <c r="C25" s="57">
+        <v>1.179227</v>
+      </c>
+      <c r="D25" s="57">
+        <v>1.119089</v>
+      </c>
+      <c r="E25" s="57">
+        <v>1.107362</v>
+      </c>
+      <c r="F25" s="57">
+        <v>1.117326</v>
+      </c>
+      <c r="G25" s="57">
+        <v>1.1186229999999999</v>
+      </c>
+      <c r="H25" s="57">
+        <v>1.064538</v>
+      </c>
+      <c r="I25" s="57">
+        <v>1.099979</v>
+      </c>
+      <c r="J25" s="57">
+        <v>1.045968</v>
+      </c>
+      <c r="K25" s="57">
+        <v>0.96022099999999999</v>
+      </c>
+      <c r="L25" s="57">
+        <v>0.97251600000000005</v>
+      </c>
+      <c r="M25" s="57">
+        <v>0.99238400000000004</v>
+      </c>
+      <c r="N25" s="57">
+        <v>0.93657900000000005</v>
+      </c>
+      <c r="O25" s="57">
+        <v>0.96301000000000003</v>
+      </c>
+      <c r="P25" s="57">
+        <v>0.94865600000000005</v>
+      </c>
+      <c r="Q25" s="57">
+        <v>0.92749499999999996</v>
+      </c>
+      <c r="R25" s="57">
+        <v>0.89566199999999996</v>
+      </c>
+      <c r="S25" s="57">
+        <v>0.84467999999999999</v>
+      </c>
+      <c r="T25" s="57">
+        <v>0.89466699999999999</v>
+      </c>
+      <c r="U25" s="57">
+        <v>0.878583</v>
+      </c>
+      <c r="V25" s="57">
+        <v>0.84186099999999997</v>
+      </c>
+      <c r="W25" s="57">
+        <v>0.80468899999999999</v>
+      </c>
+      <c r="X25" s="57">
+        <v>0.83700200000000002</v>
+      </c>
+      <c r="Y25" s="57">
+        <v>0.78977900000000001</v>
+      </c>
+      <c r="Z25" s="57">
+        <v>0.79903999999999997</v>
+      </c>
+      <c r="AA25" s="57">
+        <v>0.80549700000000002</v>
+      </c>
+      <c r="AB25" s="57">
+        <v>0.76198999999999995</v>
+      </c>
+      <c r="AC25" s="41">
+        <v>-0.35382246166344566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B26" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="58">
-        <v>1.179227</v>
-      </c>
-      <c r="D25" s="58">
-        <v>1.119089</v>
-      </c>
-      <c r="E25" s="58">
-        <v>1.107362</v>
-      </c>
-      <c r="F25" s="58">
-        <v>1.117326</v>
-      </c>
-      <c r="G25" s="58">
-        <v>1.1186229999999999</v>
-      </c>
-      <c r="H25" s="58">
-        <v>1.064538</v>
-      </c>
-      <c r="I25" s="58">
-        <v>1.099979</v>
-      </c>
-      <c r="J25" s="58">
-        <v>1.045968</v>
-      </c>
-      <c r="K25" s="58">
-        <v>0.96022099999999999</v>
-      </c>
-      <c r="L25" s="58">
-        <v>0.97251600000000005</v>
-      </c>
-      <c r="M25" s="58">
-        <v>0.99238400000000004</v>
-      </c>
-      <c r="N25" s="58">
-        <v>0.93657900000000005</v>
-      </c>
-      <c r="O25" s="58">
-        <v>0.96301000000000003</v>
-      </c>
-      <c r="P25" s="58">
-        <v>0.94865600000000005</v>
-      </c>
-      <c r="Q25" s="58">
-        <v>0.92749499999999996</v>
-      </c>
-      <c r="R25" s="58">
-        <v>0.89566199999999996</v>
-      </c>
-      <c r="S25" s="58">
-        <v>0.84467999999999999</v>
-      </c>
-      <c r="T25" s="58">
-        <v>0.89466699999999999</v>
-      </c>
-      <c r="U25" s="58">
-        <v>0.878583</v>
-      </c>
-      <c r="V25" s="58">
-        <v>0.84186099999999997</v>
-      </c>
-      <c r="W25" s="58">
-        <v>0.80468899999999999</v>
-      </c>
-      <c r="X25" s="58">
-        <v>0.83700200000000002</v>
-      </c>
-      <c r="Y25" s="58">
-        <v>0.78977900000000001</v>
-      </c>
-      <c r="Z25" s="58">
-        <v>0.79903999999999997</v>
-      </c>
-      <c r="AA25" s="58">
-        <v>0.80549700000000002</v>
-      </c>
-      <c r="AB25" s="58">
-        <v>0.76198999999999995</v>
-      </c>
-      <c r="AC25" s="42">
-        <v>-0.35382246166344566</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="57" t="s">
+      <c r="C26" s="40">
+        <v>143.96336500000001</v>
+      </c>
+      <c r="D26" s="40">
+        <v>137.540626</v>
+      </c>
+      <c r="E26" s="40">
+        <v>137.44695200000001</v>
+      </c>
+      <c r="F26" s="40">
+        <v>139.64704</v>
+      </c>
+      <c r="G26" s="40">
+        <v>140.766616</v>
+      </c>
+      <c r="H26" s="40">
+        <v>134.709551</v>
+      </c>
+      <c r="I26" s="40">
+        <v>139.676602</v>
+      </c>
+      <c r="J26" s="40">
+        <v>133.58391</v>
+      </c>
+      <c r="K26" s="40">
+        <v>123.13191500000001</v>
+      </c>
+      <c r="L26" s="40">
+        <v>125.074315</v>
+      </c>
+      <c r="M26" s="40">
+        <v>127.975166</v>
+      </c>
+      <c r="N26" s="40">
+        <v>121.051489</v>
+      </c>
+      <c r="O26" s="40">
+        <v>125.211187</v>
+      </c>
+      <c r="P26" s="40">
+        <v>124.250879</v>
+      </c>
+      <c r="Q26" s="40">
+        <v>122.41736</v>
+      </c>
+      <c r="R26" s="40">
+        <v>118.794799</v>
+      </c>
+      <c r="S26" s="40">
+        <v>113.077581</v>
+      </c>
+      <c r="T26" s="40">
+        <v>120.25426</v>
+      </c>
+      <c r="U26" s="40">
+        <v>118.94424100000001</v>
+      </c>
+      <c r="V26" s="40">
+        <v>113.948881</v>
+      </c>
+      <c r="W26" s="40">
+        <v>111.15824600000001</v>
+      </c>
+      <c r="X26" s="40">
+        <v>116.15141199999999</v>
+      </c>
+      <c r="Y26" s="40">
+        <v>110.036452</v>
+      </c>
+      <c r="Z26" s="40">
+        <v>113.43445</v>
+      </c>
+      <c r="AA26" s="40">
+        <v>114.99839</v>
+      </c>
+      <c r="AB26" s="40">
+        <v>109.219759</v>
+      </c>
+      <c r="AC26" s="41">
+        <v>-0.2413364400033301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B27" s="39"/>
+      <c r="AC27" s="44"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B28" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="41">
-        <v>143.96336500000001</v>
-      </c>
-      <c r="D26" s="41">
-        <v>137.540626</v>
-      </c>
-      <c r="E26" s="41">
-        <v>137.44695200000001</v>
-      </c>
-      <c r="F26" s="41">
-        <v>139.64704</v>
-      </c>
-      <c r="G26" s="41">
-        <v>140.766616</v>
-      </c>
-      <c r="H26" s="41">
-        <v>134.709551</v>
-      </c>
-      <c r="I26" s="41">
-        <v>139.676602</v>
-      </c>
-      <c r="J26" s="41">
-        <v>133.58391</v>
-      </c>
-      <c r="K26" s="41">
-        <v>123.13191500000001</v>
-      </c>
-      <c r="L26" s="41">
-        <v>125.074315</v>
-      </c>
-      <c r="M26" s="41">
-        <v>127.975166</v>
-      </c>
-      <c r="N26" s="41">
-        <v>121.051489</v>
-      </c>
-      <c r="O26" s="41">
-        <v>125.211187</v>
-      </c>
-      <c r="P26" s="41">
-        <v>124.250879</v>
-      </c>
-      <c r="Q26" s="41">
-        <v>122.41736</v>
-      </c>
-      <c r="R26" s="41">
-        <v>118.794799</v>
-      </c>
-      <c r="S26" s="41">
-        <v>113.077581</v>
-      </c>
-      <c r="T26" s="41">
-        <v>120.25426</v>
-      </c>
-      <c r="U26" s="41">
-        <v>118.94424100000001</v>
-      </c>
-      <c r="V26" s="41">
-        <v>113.948881</v>
-      </c>
-      <c r="W26" s="41">
-        <v>111.15824600000001</v>
-      </c>
-      <c r="X26" s="41">
-        <v>116.15141199999999</v>
-      </c>
-      <c r="Y26" s="41">
-        <v>110.036452</v>
-      </c>
-      <c r="Z26" s="41">
-        <v>113.43445</v>
-      </c>
-      <c r="AA26" s="41">
-        <v>114.99839</v>
-      </c>
-      <c r="AB26" s="41">
-        <v>109.219759</v>
-      </c>
-      <c r="AC26" s="42">
-        <v>-0.2413364400033301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B27" s="40"/>
-      <c r="AC27" s="45"/>
-    </row>
-    <row r="28" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="59" t="s">
+      <c r="C28" s="59">
+        <v>0.91815599999999997</v>
+      </c>
+      <c r="D28" s="59">
+        <v>0.92743600000000004</v>
+      </c>
+      <c r="E28" s="59">
+        <v>0.98507999999999996</v>
+      </c>
+      <c r="F28" s="59">
+        <v>1.006111</v>
+      </c>
+      <c r="G28" s="59">
+        <v>0.98334600000000005</v>
+      </c>
+      <c r="H28" s="59">
+        <v>0.98384099999999997</v>
+      </c>
+      <c r="I28" s="59">
+        <v>1.0361039999999999</v>
+      </c>
+      <c r="J28" s="59">
+        <v>0.979271</v>
+      </c>
+      <c r="K28" s="59">
+        <v>0.83733900000000006</v>
+      </c>
+      <c r="L28" s="59">
+        <v>0.87946199999999997</v>
+      </c>
+      <c r="M28" s="59">
+        <v>0.95839799999999997</v>
+      </c>
+      <c r="N28" s="59">
+        <v>0.87725799999999998</v>
+      </c>
+      <c r="O28" s="59">
+        <v>0.93399600000000005</v>
+      </c>
+      <c r="P28" s="59">
+        <v>0.96205700000000005</v>
+      </c>
+      <c r="Q28" s="59">
+        <v>0.94619900000000001</v>
+      </c>
+      <c r="R28" s="59">
+        <v>0.91654199999999997</v>
+      </c>
+      <c r="S28" s="59">
+        <v>0.85424199999999995</v>
+      </c>
+      <c r="T28" s="59">
+        <v>0.93201299999999998</v>
+      </c>
+      <c r="U28" s="59">
+        <v>0.94995700000000005</v>
+      </c>
+      <c r="V28" s="59">
+        <v>0.96110700000000004</v>
+      </c>
+      <c r="W28" s="59">
+        <v>0.86625099999999999</v>
+      </c>
+      <c r="X28" s="59">
+        <v>0.90264500000000003</v>
+      </c>
+      <c r="Y28" s="59">
+        <v>0.84199400000000002</v>
+      </c>
+      <c r="Z28" s="59">
+        <v>0.930751</v>
+      </c>
+      <c r="AA28" s="59">
+        <v>0.98091499999999998</v>
+      </c>
+      <c r="AB28" s="59">
+        <v>0.91595199999999999</v>
+      </c>
+      <c r="AC28" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="60">
-        <v>0.91815599999999997</v>
-      </c>
-      <c r="D28" s="60">
-        <v>0.92743600000000004</v>
-      </c>
-      <c r="E28" s="60">
-        <v>0.98507999999999996</v>
-      </c>
-      <c r="F28" s="60">
-        <v>1.006111</v>
-      </c>
-      <c r="G28" s="60">
-        <v>0.98334600000000005</v>
-      </c>
-      <c r="H28" s="60">
-        <v>0.98384099999999997</v>
-      </c>
-      <c r="I28" s="60">
-        <v>1.0361039999999999</v>
-      </c>
-      <c r="J28" s="60">
-        <v>0.979271</v>
-      </c>
-      <c r="K28" s="60">
-        <v>0.83733900000000006</v>
-      </c>
-      <c r="L28" s="60">
-        <v>0.87946199999999997</v>
-      </c>
-      <c r="M28" s="60">
-        <v>0.95839799999999997</v>
-      </c>
-      <c r="N28" s="60">
-        <v>0.87725799999999998</v>
-      </c>
-      <c r="O28" s="60">
-        <v>0.93399600000000005</v>
-      </c>
-      <c r="P28" s="60">
-        <v>0.96205700000000005</v>
-      </c>
-      <c r="Q28" s="60">
-        <v>0.94619900000000001</v>
-      </c>
-      <c r="R28" s="60">
-        <v>0.91654199999999997</v>
-      </c>
-      <c r="S28" s="60">
-        <v>0.85424199999999995</v>
-      </c>
-      <c r="T28" s="60">
-        <v>0.93201299999999998</v>
-      </c>
-      <c r="U28" s="60">
-        <v>0.94995700000000005</v>
-      </c>
-      <c r="V28" s="60">
-        <v>0.96110700000000004</v>
-      </c>
-      <c r="W28" s="60">
-        <v>0.86625099999999999</v>
-      </c>
-      <c r="X28" s="60">
-        <v>0.90264500000000003</v>
-      </c>
-      <c r="Y28" s="60">
-        <v>0.84199400000000002</v>
-      </c>
-      <c r="Z28" s="60">
-        <v>0.930751</v>
-      </c>
-      <c r="AA28" s="60">
-        <v>0.98091499999999998</v>
-      </c>
-      <c r="AB28" s="60">
-        <v>0.91595199999999999</v>
-      </c>
-      <c r="AC28" s="42" t="s">
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B29" s="58" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="59" t="s">
+      <c r="C29" s="59">
+        <v>1.048443</v>
+      </c>
+      <c r="D29" s="59">
+        <v>1.3633379999999999</v>
+      </c>
+      <c r="E29" s="59">
+        <v>0.53538300000000005</v>
+      </c>
+      <c r="F29" s="59">
+        <v>0.99930699999999995</v>
+      </c>
+      <c r="G29" s="59">
+        <v>0.98805299999999996</v>
+      </c>
+      <c r="H29" s="59">
+        <v>1.184863</v>
+      </c>
+      <c r="I29" s="59">
+        <v>0.94162500000000005</v>
+      </c>
+      <c r="J29" s="59">
+        <v>0.92748699999999995</v>
+      </c>
+      <c r="K29" s="59">
+        <v>1.3057049999999999</v>
+      </c>
+      <c r="L29" s="59">
+        <v>1.5418620000000001</v>
+      </c>
+      <c r="M29" s="59">
+        <v>0.90646199999999999</v>
+      </c>
+      <c r="N29" s="59">
+        <v>1.4322699999999999</v>
+      </c>
+      <c r="O29" s="59">
+        <v>1.7330159999999999</v>
+      </c>
+      <c r="P29" s="59">
+        <v>1.315766</v>
+      </c>
+      <c r="Q29" s="59">
+        <v>0.94718100000000005</v>
+      </c>
+      <c r="R29" s="59">
+        <v>1.786475</v>
+      </c>
+      <c r="S29" s="59">
+        <v>1.381327</v>
+      </c>
+      <c r="T29" s="59">
+        <v>1.4463490000000001</v>
+      </c>
+      <c r="U29" s="59">
+        <v>1.081699</v>
+      </c>
+      <c r="V29" s="59">
+        <v>0.92686000000000002</v>
+      </c>
+      <c r="W29" s="59">
+        <v>1.585504</v>
+      </c>
+      <c r="X29" s="59">
+        <v>1.505811</v>
+      </c>
+      <c r="Y29" s="59">
+        <v>1.701878</v>
+      </c>
+      <c r="Z29" s="59">
+        <v>1.1820600000000001</v>
+      </c>
+      <c r="AA29" s="59">
+        <v>1.1096969999999999</v>
+      </c>
+      <c r="AB29" s="59">
+        <v>1.372398</v>
+      </c>
+      <c r="AC29" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B30" s="58"/>
+      <c r="AC30" s="60"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="60">
-        <v>1.048443</v>
-      </c>
-      <c r="D29" s="60">
-        <v>1.3633379999999999</v>
-      </c>
-      <c r="E29" s="60">
-        <v>0.53538300000000005</v>
-      </c>
-      <c r="F29" s="60">
-        <v>0.99930699999999995</v>
-      </c>
-      <c r="G29" s="60">
-        <v>0.98805299999999996</v>
-      </c>
-      <c r="H29" s="60">
-        <v>1.184863</v>
-      </c>
-      <c r="I29" s="60">
-        <v>0.94162500000000005</v>
-      </c>
-      <c r="J29" s="60">
-        <v>0.92748699999999995</v>
-      </c>
-      <c r="K29" s="60">
-        <v>1.3057049999999999</v>
-      </c>
-      <c r="L29" s="60">
-        <v>1.5418620000000001</v>
-      </c>
-      <c r="M29" s="60">
-        <v>0.90646199999999999</v>
-      </c>
-      <c r="N29" s="60">
-        <v>1.4322699999999999</v>
-      </c>
-      <c r="O29" s="60">
-        <v>1.7330159999999999</v>
-      </c>
-      <c r="P29" s="60">
-        <v>1.315766</v>
-      </c>
-      <c r="Q29" s="60">
-        <v>0.94718100000000005</v>
-      </c>
-      <c r="R29" s="60">
-        <v>1.786475</v>
-      </c>
-      <c r="S29" s="60">
-        <v>1.381327</v>
-      </c>
-      <c r="T29" s="60">
-        <v>1.4463490000000001</v>
-      </c>
-      <c r="U29" s="60">
-        <v>1.081699</v>
-      </c>
-      <c r="V29" s="60">
-        <v>0.92686000000000002</v>
-      </c>
-      <c r="W29" s="60">
-        <v>1.585504</v>
-      </c>
-      <c r="X29" s="60">
-        <v>1.505811</v>
-      </c>
-      <c r="Y29" s="60">
-        <v>1.701878</v>
-      </c>
-      <c r="Z29" s="60">
-        <v>1.1820600000000001</v>
-      </c>
-      <c r="AA29" s="60">
-        <v>1.1096969999999999</v>
-      </c>
-      <c r="AB29" s="60">
-        <v>1.372398</v>
-      </c>
-      <c r="AC29" s="42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B30" s="59"/>
-      <c r="AC30" s="61"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A31" s="62" t="s">
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AC31" s="33"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="61"/>
-      <c r="AC31" s="34"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A32" s="63" t="s">
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AC32" s="33"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AC33" s="33"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="T32" s="61"/>
-      <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="61"/>
-      <c r="AC32" s="34"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A33" s="62"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="61"/>
-      <c r="V33" s="61"/>
-      <c r="W33" s="61"/>
-      <c r="X33" s="61"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="61"/>
-      <c r="AC33" s="34"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A34" s="64" t="s">
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AC34" s="33"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AC34" s="34"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A35" s="63" t="s">
+      <c r="AC35" s="33"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AC35" s="34"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A36" s="63" t="s">
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AC36" s="33"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AC36" s="34"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AC37" s="33"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AC37" s="34"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A38" s="34" t="s">
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AC38" s="33"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AC38" s="34"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A39" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AC39" s="34"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AC39" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9870,20 +9931,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2015</v>
       </c>
@@ -9993,7 +10054,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10142,7 +10203,7 @@
         <v>5620407403.5526171</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10291,7 +10352,7 @@
         <v>119026620.01806565</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10440,7 +10501,7 @@
         <v>28305845070.791767</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -10589,7 +10650,7 @@
         <v>1565300188.2465496</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10738,7 +10799,7 @@
         <v>1956625235.3081868</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10899,21 +10960,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="24.85546875" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="7">
         <v>2015</v>
       </c>
@@ -11023,7 +11084,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -11172,7 +11233,7 @@
         <v>1293246640.1092787</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -11321,7 +11382,7 @@
         <v>27387832.47716682</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -11470,7 +11531,7 @@
         <v>6513129103.4376955</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -11619,7 +11680,7 @@
         <v>360173037.97812146</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -11768,7 +11829,7 @@
         <v>450216297.47265178</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>

--- a/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
+++ b/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/bldgs/BASoBC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Canada\eps-canada\InputData\bldgs\BASoBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="630" documentId="8_{9F1D7AA2-A848-4647-953F-39DBD8EB23A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AB9B642-815D-4775-BB81-0E123FBE0663}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA35435F-63CF-4FF8-9B4D-5C633A114067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5" yWindow="5" windowWidth="19190" windowHeight="10070" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="162">
   <si>
     <t>BASoBC BAU Amount Spent on Building Components</t>
   </si>
@@ -872,6 +872,9 @@
   <si>
     <t>$</t>
   </si>
+  <si>
+    <t>insulation, windows and doors</t>
+  </si>
 </sst>
 </file>
 
@@ -888,7 +891,7 @@
     <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,6 +1163,14 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1451,7 +1462,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1552,7 +1563,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="93" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="93" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="92" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="93" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1560,8 +1570,6 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="94" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="92" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="9" borderId="0" xfId="92" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="92" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1569,19 +1577,17 @@
     <xf numFmtId="170" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="37" applyFill="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="91" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="91" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="95">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1709,7 +1715,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:colOff>720725</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>15824</xdr:rowOff>
     </xdr:to>
@@ -1748,7 +1754,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -1828,7 +1834,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -1895,7 +1901,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -2311,7 +2317,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="61">
+      <c r="B8" s="60">
         <v>44470</v>
       </c>
     </row>
@@ -2450,28 +2456,25 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="72" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="75">
+      <c r="A40" s="7">
         <f>1/1.02</f>
         <v>0.98039215686274506</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="72" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="66">
+      <c r="A42">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
     </row>
     <row r="44" spans="1:2" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
@@ -2537,7 +2540,7 @@
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,135 +2929,135 @@
       </c>
       <c r="B4" s="4">
         <f>'Canada residential'!C28</f>
-        <v>4747665771.2995367</v>
+        <v>1320082677.8735299</v>
       </c>
       <c r="C4" s="4">
         <f>'Canada residential'!D28</f>
-        <v>4636784313.9763374</v>
+        <v>1289252223.8861039</v>
       </c>
       <c r="D4" s="4">
         <f>'Canada residential'!E28</f>
-        <v>4742484768.4081812</v>
+        <v>1318642106.3378847</v>
       </c>
       <c r="E4" s="4">
         <f>'Canada residential'!F28</f>
-        <v>4793937016.0454311</v>
+        <v>1332948341.0467787</v>
       </c>
       <c r="F4" s="4">
         <f>'Canada residential'!G28</f>
-        <v>4845239001.5820131</v>
+        <v>1347212795.5618281</v>
       </c>
       <c r="G4" s="4">
         <f>'Canada residential'!H28</f>
-        <v>4896365681.3344822</v>
+        <v>1361428506.5173926</v>
       </c>
       <c r="H4" s="4">
         <f>'Canada residential'!I28</f>
-        <v>4947266967.9359474</v>
+        <v>1375581547.1821902</v>
       </c>
       <c r="I4" s="4">
         <f>'Canada residential'!J28</f>
-        <v>4997905295.8612423</v>
+        <v>1389661472.50776</v>
       </c>
       <c r="J4" s="4">
         <f>'Canada residential'!K28</f>
-        <v>5048205534.0600338</v>
+        <v>1403647392.3971806</v>
       </c>
       <c r="K4" s="4">
         <f>'Canada residential'!L28</f>
-        <v>5098130117.0071554</v>
+        <v>1417528861.8019896</v>
       </c>
       <c r="L4" s="4">
         <f>'Canada residential'!M28</f>
-        <v>5147628957.3357134</v>
+        <v>1431291953.990906</v>
       </c>
       <c r="M4" s="4">
         <f>'Canada residential'!N28</f>
-        <v>5196651967.6788225</v>
+        <v>1444922742.2326484</v>
       </c>
       <c r="N4" s="4">
         <f>'Canada residential'!O28</f>
-        <v>5245161582.5113144</v>
+        <v>1458410781.4787557</v>
       </c>
       <c r="O4" s="4">
         <f>'Canada residential'!P28</f>
-        <v>5293107714.4662991</v>
+        <v>1471742144.9979467</v>
       </c>
       <c r="P4" s="4">
         <f>'Canada residential'!Q28</f>
-        <v>5340477841.702054</v>
+        <v>1484913351.1074007</v>
       </c>
       <c r="Q4" s="4">
         <f>'Canada residential'!R28</f>
-        <v>5387246920.5351353</v>
+        <v>1497917436.4414766</v>
       </c>
       <c r="R4" s="4">
         <f>'Canada residential'!S28</f>
-        <v>5433414950.9655418</v>
+        <v>1510754401.000175</v>
       </c>
       <c r="S4" s="4">
         <f>'Canada residential'!T28</f>
-        <v>5478994454.8349953</v>
+        <v>1523427726.466316</v>
       </c>
       <c r="T4" s="4">
         <f>'Canada residential'!U28</f>
-        <v>5523972910.3017778</v>
+        <v>1535933931.1570797</v>
       </c>
       <c r="U4" s="4">
         <f>'Canada residential'!V28</f>
-        <v>5568387882.8910522</v>
+        <v>1548283460.1209266</v>
       </c>
       <c r="V4" s="4">
         <f>'Canada residential'!W28</f>
-        <v>5612226850.761097</v>
+        <v>1560472831.6750367</v>
       </c>
       <c r="W4" s="4">
         <f>'Canada residential'!X28</f>
-        <v>5655527379.4370785</v>
+        <v>1572512490.8678708</v>
       </c>
       <c r="X4" s="4">
         <f>'Canada residential'!Y28</f>
-        <v>5698289468.9189987</v>
+        <v>1584402437.6994293</v>
       </c>
       <c r="Y4" s="4">
         <f>'Canada residential'!Z28</f>
-        <v>5740500597.3651342</v>
+        <v>1596139190.486891</v>
       </c>
       <c r="Z4" s="4">
         <f>'Canada residential'!AA28</f>
-        <v>5782198330.3006516</v>
+        <v>1607733194.278718</v>
       </c>
       <c r="AA4" s="4">
         <f>'Canada residential'!AB28</f>
-        <v>5823357624.0421076</v>
+        <v>1619177485.7092693</v>
       </c>
       <c r="AB4" s="4">
         <f>'Canada residential'!AC28</f>
-        <v>5864203871.7405033</v>
+        <v>1630534735.0693109</v>
       </c>
       <c r="AC4" s="4">
         <f>'Canada residential'!AD28</f>
-        <v>5904824726.2878971</v>
+        <v>1641829314.1385863</v>
       </c>
       <c r="AD4" s="4">
         <f>'Canada residential'!AE28</f>
-        <v>5945257753.2094545</v>
+        <v>1653071667.9655559</v>
       </c>
       <c r="AE4" s="4">
         <f>'Canada residential'!AF28</f>
-        <v>5985540518.030344</v>
+        <v>1664272241.5986812</v>
       </c>
       <c r="AF4" s="4">
         <f>'Canada residential'!AG28</f>
-        <v>6025723108.1174545</v>
+        <v>1675444961.7692437</v>
       </c>
       <c r="AG4" s="4">
         <f>'Canada residential'!AH28</f>
-        <v>6065868132.6793976</v>
+        <v>1686607236.891345</v>
       </c>
       <c r="AH4" s="4">
         <f>'Canada residential'!AI28</f>
-        <v>6106038200.9247866</v>
+        <v>1697776475.3790872</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -3875,135 +3878,135 @@
       </c>
       <c r="B4" s="4">
         <f>'Canada non-residential'!B12</f>
-        <v>11427098050.386</v>
+        <v>3177290677.4244003</v>
       </c>
       <c r="C4" s="4">
         <f>'Canada non-residential'!C12</f>
-        <v>11755211726.535</v>
+        <v>3268522284.9390001</v>
       </c>
       <c r="D4" s="4">
         <f>'Canada non-residential'!D12</f>
-        <v>11401078507.107841</v>
+        <v>3170055975.1470585</v>
       </c>
       <c r="E4" s="4">
         <f>'Canada non-residential'!E12</f>
-        <v>11524771284.908018</v>
+        <v>3204448601.1695471</v>
       </c>
       <c r="F4" s="4">
         <f>'Canada non-residential'!F12</f>
-        <v>11648102828.020048</v>
+        <v>3238740786.3275256</v>
       </c>
       <c r="G4" s="4">
         <f>'Canada non-residential'!G12</f>
-        <v>11771012930.662571</v>
+        <v>3272915790.4769106</v>
       </c>
       <c r="H4" s="4">
         <f>'Canada non-residential'!H12</f>
-        <v>11893381181.272873</v>
+        <v>3306940133.3295307</v>
       </c>
       <c r="I4" s="4">
         <f>'Canada non-residential'!I12</f>
-        <v>12015117271.178911</v>
+        <v>3340788704.6692586</v>
       </c>
       <c r="J4" s="4">
         <f>'Canada non-residential'!J12</f>
-        <v>12136040583.036619</v>
+        <v>3374411284.0638409</v>
       </c>
       <c r="K4" s="4">
         <f>'Canada non-residential'!K12</f>
-        <v>12256060808.173956</v>
+        <v>3407782761.2971487</v>
       </c>
       <c r="L4" s="4">
         <f>'Canada non-residential'!L12</f>
-        <v>12375057535.028202</v>
+        <v>3440869656.0810127</v>
       </c>
       <c r="M4" s="4">
         <f>'Canada non-residential'!M12</f>
-        <v>12492910352.036648</v>
+        <v>3473638488.1272631</v>
       </c>
       <c r="N4" s="4">
         <f>'Canada non-residential'!N12</f>
-        <v>12609528950.527252</v>
+        <v>3506064147.2197728</v>
       </c>
       <c r="O4" s="4">
         <f>'Canada non-residential'!O12</f>
-        <v>12724792918.9373</v>
+        <v>3538113153.0703716</v>
       </c>
       <c r="P4" s="4">
         <f>'Canada non-residential'!P12</f>
-        <v>12838672154.37611</v>
+        <v>3569777135.6070166</v>
       </c>
       <c r="Q4" s="4">
         <f>'Canada non-residential'!Q12</f>
-        <v>12951106451.062328</v>
+        <v>3601039354.6856232</v>
       </c>
       <c r="R4" s="4">
         <f>'Canada non-residential'!R12</f>
-        <v>13062095808.995951</v>
+        <v>3631899810.3061914</v>
       </c>
       <c r="S4" s="4">
         <f>'Canada non-residential'!S12</f>
-        <v>13171670331.067657</v>
+        <v>3662366872.5407639</v>
       </c>
       <c r="T4" s="4">
         <f>'Canada non-residential'!T12</f>
-        <v>13279799914.386774</v>
+        <v>3692432171.3172984</v>
       </c>
       <c r="U4" s="4">
         <f>'Canada non-residential'!U12</f>
-        <v>13386574867.625332</v>
+        <v>3722120816.851922</v>
       </c>
       <c r="V4" s="4">
         <f>'Canada non-residential'!V12</f>
-        <v>13491965087.892654</v>
+        <v>3751424439.0725923</v>
       </c>
       <c r="W4" s="4">
         <f>'Canada non-residential'!W12</f>
-        <v>13596060883.860777</v>
+        <v>3780368148.1954355</v>
       </c>
       <c r="X4" s="4">
         <f>'Canada non-residential'!X12</f>
-        <v>13698862255.529701</v>
+        <v>3808951944.2204537</v>
       </c>
       <c r="Y4" s="4">
         <f>'Canada non-residential'!Y12</f>
-        <v>13800339100.008747</v>
+        <v>3837167457.0756035</v>
       </c>
       <c r="Z4" s="4">
         <f>'Canada non-residential'!Z12</f>
-        <v>13900581725.969952</v>
+        <v>3865039796.9770117</v>
       </c>
       <c r="AA4" s="4">
         <f>'Canada non-residential'!AA12</f>
-        <v>13999529927.63196</v>
+        <v>3892552223.7805939</v>
       </c>
       <c r="AB4" s="4">
         <f>'Canada non-residential'!AB12</f>
-        <v>14097725557.026989</v>
+        <v>3919855398.7831144</v>
       </c>
       <c r="AC4" s="4">
         <f>'Canada non-residential'!AC12</f>
-        <v>14195379334.389797</v>
+        <v>3947007912.4888711</v>
       </c>
       <c r="AD4" s="4">
         <f>'Canada non-residential'!AD12</f>
-        <v>14292581568.392418</v>
+        <v>3974034875.1139898</v>
       </c>
       <c r="AE4" s="4">
         <f>'Canada non-residential'!AE12</f>
-        <v>14389422567.706892</v>
+        <v>4000961396.8745999</v>
       </c>
       <c r="AF4" s="4">
         <f>'Canada non-residential'!AF12</f>
-        <v>14486022743.895935</v>
+        <v>4027820958.0588703</v>
       </c>
       <c r="AG4" s="4">
         <f>'Canada non-residential'!AG12</f>
-        <v>14582532611.412943</v>
+        <v>4054655409.0270133</v>
       </c>
       <c r="AH4" s="4">
         <f>'Canada non-residential'!AH12</f>
-        <v>14679102684.711302</v>
+        <v>4081506600.1392403</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -4598,107 +4601,107 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
+    <row r="14" spans="1:34" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B14" s="73">
         <v>37058.9</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="73">
         <v>37466.800000000003</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="73">
         <v>37873.699999999997</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="73">
         <v>38284.6</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="73">
         <v>38694.300000000003</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="73">
         <v>39102.6</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="73">
         <v>39509.1</v>
       </c>
-      <c r="I14" s="77">
+      <c r="I14" s="73">
         <v>39913.5</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="73">
         <v>40315.199999999997</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="73">
         <v>40713.9</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="73">
         <v>41109.199999999997</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="73">
         <v>41500.699999999997</v>
       </c>
-      <c r="N14" s="77">
+      <c r="N14" s="73">
         <v>41888.1</v>
       </c>
-      <c r="O14" s="77">
+      <c r="O14" s="73">
         <v>42271</v>
       </c>
-      <c r="P14" s="77">
+      <c r="P14" s="73">
         <v>42649.3</v>
       </c>
-      <c r="Q14" s="77">
+      <c r="Q14" s="73">
         <v>43022.8</v>
       </c>
-      <c r="R14" s="77">
+      <c r="R14" s="73">
         <v>43391.5</v>
       </c>
-      <c r="S14" s="77">
+      <c r="S14" s="73">
         <v>43755.5</v>
       </c>
-      <c r="T14" s="77">
+      <c r="T14" s="73">
         <v>44114.7</v>
       </c>
-      <c r="U14" s="77">
+      <c r="U14" s="73">
         <v>44469.4</v>
       </c>
-      <c r="V14" s="77">
+      <c r="V14" s="73">
         <v>44819.5</v>
       </c>
-      <c r="W14" s="77">
+      <c r="W14" s="73">
         <v>45165.3</v>
       </c>
-      <c r="X14" s="77">
+      <c r="X14" s="73">
         <v>45506.8</v>
       </c>
-      <c r="Y14" s="77">
+      <c r="Y14" s="73">
         <v>45843.9</v>
       </c>
-      <c r="Z14" s="77">
+      <c r="Z14" s="73">
         <v>46176.9</v>
       </c>
-      <c r="AA14" s="77">
+      <c r="AA14" s="73">
         <v>46505.599999999999</v>
       </c>
-      <c r="AB14" s="77">
+      <c r="AB14" s="73">
         <v>46831.8</v>
       </c>
-      <c r="AC14" s="77">
+      <c r="AC14" s="73">
         <v>47156.2</v>
       </c>
-      <c r="AD14" s="77">
+      <c r="AD14" s="73">
         <v>47479.1</v>
       </c>
-      <c r="AE14" s="77">
+      <c r="AE14" s="73">
         <v>47800.800000000003</v>
       </c>
-      <c r="AF14" s="77">
+      <c r="AF14" s="73">
         <v>48121.7</v>
       </c>
-      <c r="AG14" s="77">
+      <c r="AG14" s="73">
         <v>48442.3</v>
       </c>
-      <c r="AH14" s="77">
+      <c r="AH14" s="73">
         <v>48763.1</v>
       </c>
     </row>
@@ -4748,10 +4751,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4861,7 +4864,7 @@
         <v>1.6954745730998477E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -4869,11 +4872,14 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <f>(14.1+1.7+3.6+1.1)/100</f>
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <f>(1.7+4)/100</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -4885,7 +4891,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4897,7 +4903,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -4907,8 +4913,8 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{61E669B4-5E1B-2249-9AD6-D0FDCF31AC04}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4950,14 +4956,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="85">
+      <c r="B2" s="78">
         <v>2011</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78">
         <v>2016</v>
       </c>
-      <c r="E2" s="85"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="12" t="s">
         <v>48</v>
       </c>
@@ -9654,7 +9660,7 @@
       </c>
     </row>
     <row r="20" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="D20" s="60">
+      <c r="D20" s="54">
         <v>2014</v>
       </c>
       <c r="E20" s="57"/>
@@ -9668,7 +9674,7 @@
       <c r="M20" s="57"/>
       <c r="N20" s="57"/>
       <c r="O20" s="57"/>
-      <c r="P20" s="60">
+      <c r="P20" s="54">
         <v>2015</v>
       </c>
       <c r="Q20" s="57"/>
@@ -9682,7 +9688,7 @@
       <c r="Y20" s="57"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="57"/>
-      <c r="AB20" s="60">
+      <c r="AB20" s="54">
         <v>2016</v>
       </c>
       <c r="AC20" s="57"/>
@@ -9763,7 +9769,7 @@
       <c r="C21" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="62">
         <f>SUM(D13:O13)</f>
         <v>100195124313</v>
       </c>
@@ -9800,7 +9806,7 @@
       <c r="C22" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="63">
         <f>SUM(D16:O16)</f>
         <v>51734685791</v>
       </c>
@@ -9906,7 +9912,7 @@
   <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9923,265 +9929,265 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="67">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
         <v>2018</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="1">
         <v>2019</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="1">
         <v>2020</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="1">
         <v>2021</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="1">
         <v>2022</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="1">
         <v>2023</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="1">
         <v>2024</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="1">
         <v>2025</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="1">
         <v>2026</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="1">
         <v>2027</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="1">
         <v>2028</v>
       </c>
-      <c r="N2" s="67">
+      <c r="N2" s="1">
         <v>2029</v>
       </c>
-      <c r="O2" s="67">
+      <c r="O2" s="1">
         <v>2030</v>
       </c>
-      <c r="P2" s="67">
+      <c r="P2" s="1">
         <v>2031</v>
       </c>
-      <c r="Q2" s="67">
+      <c r="Q2" s="1">
         <v>2032</v>
       </c>
-      <c r="R2" s="67">
+      <c r="R2" s="1">
         <v>2033</v>
       </c>
-      <c r="S2" s="67">
+      <c r="S2" s="1">
         <v>2034</v>
       </c>
-      <c r="T2" s="67">
+      <c r="T2" s="1">
         <v>2035</v>
       </c>
-      <c r="U2" s="67">
+      <c r="U2" s="1">
         <v>2036</v>
       </c>
-      <c r="V2" s="67">
+      <c r="V2" s="1">
         <v>2037</v>
       </c>
-      <c r="W2" s="67">
+      <c r="W2" s="1">
         <v>2038</v>
       </c>
-      <c r="X2" s="67">
+      <c r="X2" s="1">
         <v>2039</v>
       </c>
-      <c r="Y2" s="67">
+      <c r="Y2" s="1">
         <v>2040</v>
       </c>
-      <c r="Z2" s="67">
+      <c r="Z2" s="1">
         <v>2041</v>
       </c>
-      <c r="AA2" s="67">
+      <c r="AA2" s="1">
         <v>2042</v>
       </c>
-      <c r="AB2" s="67">
+      <c r="AB2" s="1">
         <v>2043</v>
       </c>
-      <c r="AC2" s="67">
+      <c r="AC2" s="1">
         <v>2044</v>
       </c>
-      <c r="AD2" s="67">
+      <c r="AD2" s="1">
         <v>2045</v>
       </c>
-      <c r="AE2" s="67">
+      <c r="AE2" s="1">
         <v>2046</v>
       </c>
-      <c r="AF2" s="67">
+      <c r="AF2" s="1">
         <v>2047</v>
       </c>
-      <c r="AG2" s="67">
+      <c r="AG2" s="1">
         <v>2048</v>
       </c>
-      <c r="AH2" s="67">
+      <c r="AH2" s="1">
         <v>2049</v>
       </c>
-      <c r="AI2" s="67">
+      <c r="AI2" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+    <row r="3" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="67">
         <f>'Investment in Bldg Construction'!AZ21</f>
         <v>121381469208</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="67">
         <f>'Investment in Bldg Construction'!BL21</f>
         <v>120917544312</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="67">
         <f>'Investment in Bldg Construction'!BX21</f>
         <v>126147468756</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="65">
         <f>C3*About!$A$42</f>
         <v>123809098592.16</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="69">
         <f>D3</f>
         <v>120917544312</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="71">
         <f>E3*About!$A$40</f>
         <v>123673988976.47058</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80" t="s">
+    <row r="5" spans="1:35" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68">
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65">
         <f>E4*F7</f>
         <v>125015754953.13597</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="65">
         <f t="shared" ref="G5:AI5" si="0">F5*G7</f>
         <v>126353602411.49519</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="65">
         <f t="shared" si="0"/>
         <v>127686878265.16393</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="65">
         <f t="shared" si="0"/>
         <v>129014276341.37341</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="65">
         <f t="shared" si="0"/>
         <v>130334817010.54712</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="65">
         <f t="shared" si="0"/>
         <v>131646541013.53201</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="65">
         <f t="shared" si="0"/>
         <v>132948468720.75151</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="65">
         <f t="shared" si="0"/>
         <v>134239293959.43689</v>
       </c>
-      <c r="N5" s="68">
+      <c r="N5" s="65">
         <f t="shared" si="0"/>
         <v>135517710556.81946</v>
       </c>
-      <c r="O5" s="68">
+      <c r="O5" s="65">
         <f t="shared" si="0"/>
         <v>136782738883.32268</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="65">
         <f t="shared" si="0"/>
         <v>138033072766.17783</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="65">
         <f t="shared" si="0"/>
         <v>139268385662.19272</v>
       </c>
-      <c r="R5" s="68">
+      <c r="R5" s="65">
         <f t="shared" si="0"/>
         <v>140488024484.98297</v>
       </c>
-      <c r="S5" s="68">
+      <c r="S5" s="65">
         <f t="shared" si="0"/>
         <v>141691989234.54861</v>
       </c>
-      <c r="T5" s="68">
+      <c r="T5" s="65">
         <f t="shared" si="0"/>
         <v>142880606454.08182</v>
       </c>
-      <c r="U5" s="68">
+      <c r="U5" s="65">
         <f t="shared" si="0"/>
         <v>144053549600.39044</v>
       </c>
-      <c r="V5" s="68">
+      <c r="V5" s="65">
         <f t="shared" si="0"/>
         <v>145211798303.05099</v>
       </c>
-      <c r="W5" s="68">
+      <c r="W5" s="65">
         <f t="shared" si="0"/>
         <v>146355026018.87128</v>
       </c>
-      <c r="X5" s="68">
+      <c r="X5" s="65">
         <f t="shared" si="0"/>
         <v>147484212377.42783</v>
       </c>
-      <c r="Y5" s="68">
+      <c r="Y5" s="65">
         <f t="shared" si="0"/>
         <v>148599357378.72067</v>
       </c>
-      <c r="Z5" s="68">
+      <c r="Z5" s="65">
         <f t="shared" si="0"/>
         <v>149700134479.55762</v>
       </c>
-      <c r="AA5" s="68">
+      <c r="AA5" s="65">
         <f t="shared" si="0"/>
         <v>150787523309.5152</v>
       </c>
-      <c r="AB5" s="68">
+      <c r="AB5" s="65">
         <f t="shared" si="0"/>
         <v>151860870782.20908</v>
       </c>
-      <c r="AC5" s="68">
+      <c r="AC5" s="65">
         <f t="shared" si="0"/>
         <v>152926054675.09845</v>
       </c>
-      <c r="AD5" s="68">
+      <c r="AD5" s="65">
         <f t="shared" si="0"/>
         <v>153985360790.52863</v>
       </c>
-      <c r="AE5" s="68">
+      <c r="AE5" s="65">
         <f t="shared" si="0"/>
         <v>155039768758.07608</v>
       </c>
-      <c r="AF5" s="68">
+      <c r="AF5" s="65">
         <f t="shared" si="0"/>
         <v>156090258207.31738</v>
       </c>
-      <c r="AG5" s="68">
+      <c r="AG5" s="65">
         <f t="shared" si="0"/>
         <v>157138135311.02127</v>
       </c>
-      <c r="AH5" s="68">
+      <c r="AH5" s="65">
         <f t="shared" si="0"/>
         <v>158185032785.14862</v>
       </c>
-      <c r="AI5" s="68">
+      <c r="AI5" s="65">
         <f t="shared" si="0"/>
         <v>159232583345.66031</v>
       </c>
@@ -10190,135 +10196,135 @@
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="64">
         <f>'Population for scaling'!B14*1000</f>
         <v>37058900</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="64">
         <f>'Population for scaling'!C14*1000</f>
         <v>37466800</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="64">
         <f>'Population for scaling'!D14*1000</f>
         <v>37873700</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="64">
         <f>'Population for scaling'!E14*1000</f>
         <v>38284600</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="64">
         <f>'Population for scaling'!F14*1000</f>
         <v>38694300</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="64">
         <f>'Population for scaling'!G14*1000</f>
         <v>39102600</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="64">
         <f>'Population for scaling'!H14*1000</f>
         <v>39509100</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="64">
         <f>'Population for scaling'!I14*1000</f>
         <v>39913500</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="64">
         <f>'Population for scaling'!J14*1000</f>
         <v>40315200</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="64">
         <f>'Population for scaling'!K14*1000</f>
         <v>40713900</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="64">
         <f>'Population for scaling'!L14*1000</f>
         <v>41109200</v>
       </c>
-      <c r="N6" s="65">
+      <c r="N6" s="64">
         <f>'Population for scaling'!M14*1000</f>
         <v>41500700</v>
       </c>
-      <c r="O6" s="65">
+      <c r="O6" s="64">
         <f>'Population for scaling'!N14*1000</f>
         <v>41888100</v>
       </c>
-      <c r="P6" s="65">
+      <c r="P6" s="64">
         <f>'Population for scaling'!O14*1000</f>
         <v>42271000</v>
       </c>
-      <c r="Q6" s="65">
+      <c r="Q6" s="64">
         <f>'Population for scaling'!P14*1000</f>
         <v>42649300</v>
       </c>
-      <c r="R6" s="65">
+      <c r="R6" s="64">
         <f>'Population for scaling'!Q14*1000</f>
         <v>43022800</v>
       </c>
-      <c r="S6" s="65">
+      <c r="S6" s="64">
         <f>'Population for scaling'!R14*1000</f>
         <v>43391500</v>
       </c>
-      <c r="T6" s="65">
+      <c r="T6" s="64">
         <f>'Population for scaling'!S14*1000</f>
         <v>43755500</v>
       </c>
-      <c r="U6" s="65">
+      <c r="U6" s="64">
         <f>'Population for scaling'!T14*1000</f>
         <v>44114700</v>
       </c>
-      <c r="V6" s="65">
+      <c r="V6" s="64">
         <f>'Population for scaling'!U14*1000</f>
         <v>44469400</v>
       </c>
-      <c r="W6" s="65">
+      <c r="W6" s="64">
         <f>'Population for scaling'!V14*1000</f>
         <v>44819500</v>
       </c>
-      <c r="X6" s="65">
+      <c r="X6" s="64">
         <f>'Population for scaling'!W14*1000</f>
         <v>45165300</v>
       </c>
-      <c r="Y6" s="65">
+      <c r="Y6" s="64">
         <f>'Population for scaling'!X14*1000</f>
         <v>45506800</v>
       </c>
-      <c r="Z6" s="65">
+      <c r="Z6" s="64">
         <f>'Population for scaling'!Y14*1000</f>
         <v>45843900</v>
       </c>
-      <c r="AA6" s="65">
+      <c r="AA6" s="64">
         <f>'Population for scaling'!Z14*1000</f>
         <v>46176900</v>
       </c>
-      <c r="AB6" s="65">
+      <c r="AB6" s="64">
         <f>'Population for scaling'!AA14*1000</f>
         <v>46505600</v>
       </c>
-      <c r="AC6" s="65">
+      <c r="AC6" s="64">
         <f>'Population for scaling'!AB14*1000</f>
         <v>46831800</v>
       </c>
-      <c r="AD6" s="65">
+      <c r="AD6" s="64">
         <f>'Population for scaling'!AC14*1000</f>
         <v>47156200</v>
       </c>
-      <c r="AE6" s="65">
+      <c r="AE6" s="64">
         <f>'Population for scaling'!AD14*1000</f>
         <v>47479100</v>
       </c>
-      <c r="AF6" s="65">
+      <c r="AF6" s="64">
         <f>'Population for scaling'!AE14*1000</f>
         <v>47800800</v>
       </c>
-      <c r="AG6" s="65">
+      <c r="AG6" s="64">
         <f>'Population for scaling'!AF14*1000</f>
         <v>48121700</v>
       </c>
-      <c r="AH6" s="65">
+      <c r="AH6" s="64">
         <f>'Population for scaling'!AG14*1000</f>
         <v>48442300</v>
       </c>
-      <c r="AI6" s="65">
+      <c r="AI6" s="64">
         <f>'Population for scaling'!AH14*1000</f>
         <v>48763100</v>
       </c>
@@ -10469,135 +10475,135 @@
         <f>'Component percentages'!A15</f>
         <v>heating</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="74">
         <f>C$4*'Component percentages'!$C15</f>
         <v>5732921553.8422604</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="74">
         <f>D$4*'Component percentages'!$C15</f>
         <v>5599029505.1533289</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="74">
         <f>E$4*'Component percentages'!$C15</f>
         <v>5726665367.2071505</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="61">
         <f>F$5*'Component percentages'!$C15</f>
         <v>5788795203.9906025</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="61">
         <f>G$5*'Component percentages'!$C15</f>
         <v>5850743595.6435108</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="61">
         <f>H$5*'Component percentages'!$C15</f>
         <v>5912480301.3107862</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="61">
         <f>I$5*'Component percentages'!$C15</f>
         <v>5973944839.2822475</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="61">
         <f>J$5*'Component percentages'!$C15</f>
         <v>6035091848.2752571</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="61">
         <f>K$5*'Component percentages'!$C15</f>
         <v>6095830605.7245464</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="61">
         <f>L$5*'Component percentages'!$C15</f>
         <v>6156115750.347477</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="61">
         <f>M$5*'Component percentages'!$C15</f>
         <v>6215886800.4338684</v>
       </c>
-      <c r="N10" s="62">
+      <c r="N10" s="61">
         <f>N$5*'Component percentages'!$C15</f>
         <v>6275083274.2735415</v>
       </c>
-      <c r="O10" s="62">
+      <c r="O10" s="61">
         <f>O$5*'Component percentages'!$C15</f>
         <v>6333659810.5838585</v>
       </c>
-      <c r="P10" s="62">
+      <c r="P10" s="61">
         <f>P$5*'Component percentages'!$C15</f>
         <v>6391555927.6546392</v>
       </c>
-      <c r="Q10" s="62">
+      <c r="Q10" s="61">
         <f>Q$5*'Component percentages'!$C15</f>
         <v>6448756505.0583382</v>
       </c>
-      <c r="R10" s="62">
+      <c r="R10" s="61">
         <f>R$5*'Component percentages'!$C15</f>
         <v>6505231301.9398642</v>
       </c>
-      <c r="S10" s="62">
+      <c r="S10" s="61">
         <f>S$5*'Component percentages'!$C15</f>
         <v>6560980318.2992182</v>
       </c>
-      <c r="T10" s="62">
+      <c r="T10" s="61">
         <f>T$5*'Component percentages'!$C15</f>
         <v>6616018674.5639448</v>
       </c>
-      <c r="U10" s="62">
+      <c r="U10" s="61">
         <f>U$5*'Component percentages'!$C15</f>
         <v>6670331250.3065004</v>
       </c>
-      <c r="V10" s="62">
+      <c r="V10" s="61">
         <f>V$5*'Component percentages'!$C15</f>
         <v>6723963406.8095207</v>
       </c>
-      <c r="W10" s="62">
+      <c r="W10" s="61">
         <f>W$5*'Component percentages'!$C15</f>
         <v>6776900023.6454573</v>
       </c>
-      <c r="X10" s="62">
+      <c r="X10" s="61">
         <f>X$5*'Component percentages'!$C15</f>
         <v>6829186462.0969477</v>
       </c>
-      <c r="Y10" s="62">
+      <c r="Y10" s="61">
         <f>Y$5*'Component percentages'!$C15</f>
         <v>6880822722.1639929</v>
       </c>
-      <c r="Z10" s="62">
+      <c r="Z10" s="61">
         <f>Z$5*'Component percentages'!$C15</f>
         <v>6931793683.4190474</v>
       </c>
-      <c r="AA10" s="62">
+      <c r="AA10" s="61">
         <f>AA$5*'Component percentages'!$C15</f>
         <v>6982144707.1447449</v>
       </c>
-      <c r="AB10" s="62">
+      <c r="AB10" s="61">
         <f>AB$5*'Component percentages'!$C15</f>
         <v>7031845552.4859972</v>
       </c>
-      <c r="AC10" s="62">
+      <c r="AC10" s="61">
         <f>AC$5*'Component percentages'!$C15</f>
         <v>7081168387.1386185</v>
       </c>
-      <c r="AD10" s="62">
+      <c r="AD10" s="61">
         <f>AD$5*'Component percentages'!$C15</f>
         <v>7130219054.0954256</v>
       </c>
-      <c r="AE10" s="62">
+      <c r="AE10" s="61">
         <f>AE$5*'Component percentages'!$C15</f>
         <v>7179042914.6390524</v>
       </c>
-      <c r="AF10" s="62">
+      <c r="AF10" s="61">
         <f>AF$5*'Component percentages'!$C15</f>
         <v>7227685330.0521374</v>
       </c>
-      <c r="AG10" s="62">
+      <c r="AG10" s="61">
         <f>AG$5*'Component percentages'!$C15</f>
         <v>7276206782.0448599</v>
       </c>
-      <c r="AH10" s="62">
+      <c r="AH10" s="61">
         <f>AH$5*'Component percentages'!$C15</f>
         <v>7324682872.7549477</v>
       </c>
-      <c r="AI10" s="62">
+      <c r="AI10" s="61">
         <f>AI$5*'Component percentages'!$C15</f>
         <v>7373189204.3201246</v>
       </c>
@@ -10607,135 +10613,135 @@
         <f>'Component percentages'!A16</f>
         <v>cooling and ventilation</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="74">
         <f>C$4*'Component percentages'!$C16</f>
         <v>209915178.58141944</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="74">
         <f>D$4*'Component percentages'!$C16</f>
         <v>205012621.82267013</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="74">
         <f>E$4*'Component percentages'!$C16</f>
         <v>209686103.66343674</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="61">
         <f>F$5*'Component percentages'!$C16</f>
         <v>211961033.7599234</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="61">
         <f>G$5*'Component percentages'!$C16</f>
         <v>214229320.10825771</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="61">
         <f>H$5*'Component percentages'!$C16</f>
         <v>216489855.41708103</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="61">
         <f>I$5*'Component percentages'!$C16</f>
         <v>218740425.10367587</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="61">
         <f>J$5*'Component percentages'!$C16</f>
         <v>220979368.23100415</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="61">
         <f>K$5*'Component percentages'!$C16</f>
         <v>223203362.92498979</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="61">
         <f>L$5*'Component percentages'!$C16</f>
         <v>225410748.24859461</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="61">
         <f>M$5*'Component percentages'!$C16</f>
         <v>227599309.61910123</v>
       </c>
-      <c r="N11" s="62">
+      <c r="N11" s="61">
         <f>N$5*'Component percentages'!$C16</f>
         <v>229766832.45379218</v>
       </c>
-      <c r="O11" s="62">
+      <c r="O11" s="61">
         <f>O$5*'Component percentages'!$C16</f>
         <v>231911655.81562945</v>
       </c>
-      <c r="P11" s="62">
+      <c r="P11" s="61">
         <f>P$5*'Component percentages'!$C16</f>
         <v>234031565.12189558</v>
       </c>
-      <c r="Q11" s="62">
+      <c r="Q11" s="61">
         <f>Q$5*'Component percentages'!$C16</f>
         <v>236126006.72691116</v>
       </c>
-      <c r="R11" s="62">
+      <c r="R11" s="61">
         <f>R$5*'Component percentages'!$C16</f>
         <v>238193873.33931747</v>
       </c>
-      <c r="S11" s="62">
+      <c r="S11" s="61">
         <f>S$5*'Component percentages'!$C16</f>
         <v>240235164.95911452</v>
       </c>
-      <c r="T11" s="62">
+      <c r="T11" s="61">
         <f>T$5*'Component percentages'!$C16</f>
         <v>242250435.23198172</v>
       </c>
-      <c r="U11" s="62">
+      <c r="U11" s="61">
         <f>U$5*'Component percentages'!$C16</f>
         <v>244239130.51223972</v>
       </c>
-      <c r="V11" s="62">
+      <c r="V11" s="61">
         <f>V$5*'Component percentages'!$C16</f>
         <v>246202911.73692659</v>
       </c>
-      <c r="W11" s="62">
+      <c r="W11" s="61">
         <f>W$5*'Component percentages'!$C16</f>
         <v>248141225.26036289</v>
       </c>
-      <c r="X11" s="62">
+      <c r="X11" s="61">
         <f>X$5*'Component percentages'!$C16</f>
         <v>250055732.01958671</v>
       </c>
-      <c r="Y11" s="62">
+      <c r="Y11" s="61">
         <f>Y$5*'Component percentages'!$C16</f>
         <v>251946432.01459813</v>
       </c>
-      <c r="Z11" s="62">
+      <c r="Z11" s="61">
         <f>Z$5*'Component percentages'!$C16</f>
         <v>253812771.59971774</v>
       </c>
-      <c r="AA11" s="62">
+      <c r="AA11" s="61">
         <f>AA$5*'Component percentages'!$C16</f>
         <v>255656411.71198362</v>
       </c>
-      <c r="AB11" s="62">
+      <c r="AB11" s="61">
         <f>AB$5*'Component percentages'!$C16</f>
         <v>257476245.06003708</v>
       </c>
-      <c r="AC11" s="62">
+      <c r="AC11" s="61">
         <f>AC$5*'Component percentages'!$C16</f>
         <v>259282237.26610652</v>
       </c>
-      <c r="AD11" s="62">
+      <c r="AD11" s="61">
         <f>AD$5*'Component percentages'!$C16</f>
         <v>261078263.84994754</v>
       </c>
-      <c r="AE11" s="62">
+      <c r="AE11" s="61">
         <f>AE$5*'Component percentages'!$C16</f>
         <v>262865985.74859816</v>
       </c>
-      <c r="AF11" s="62">
+      <c r="AF11" s="61">
         <f>AF$5*'Component percentages'!$C16</f>
         <v>264647063.89909643</v>
       </c>
-      <c r="AG11" s="62">
+      <c r="AG11" s="61">
         <f>AG$5*'Component percentages'!$C16</f>
         <v>266423712.88415989</v>
       </c>
-      <c r="AH11" s="62">
+      <c r="AH11" s="61">
         <f>AH$5*'Component percentages'!$C16</f>
         <v>268198700.93218526</v>
       </c>
-      <c r="AI11" s="62">
+      <c r="AI11" s="61">
         <f>AI$5*'Component percentages'!$C16</f>
         <v>269974796.27156931</v>
       </c>
@@ -10745,137 +10751,137 @@
         <f>'Component percentages'!A17</f>
         <v>envelope</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="74">
         <f>C$4*'Component percentages'!$C17</f>
-        <v>25380865211.392799</v>
-      </c>
-      <c r="D12" s="78">
+        <v>7057118619.7531204</v>
+      </c>
+      <c r="D12" s="74">
         <f>D$4*'Component percentages'!$C17</f>
-        <v>24788096583.959999</v>
-      </c>
-      <c r="E12" s="78">
+        <v>6892300025.7840004</v>
+      </c>
+      <c r="E12" s="74">
         <f>E$4*'Component percentages'!$C17</f>
-        <v>25353167740.176468</v>
-      </c>
-      <c r="F12" s="62">
+        <v>7049417371.658823</v>
+      </c>
+      <c r="F12" s="61">
         <f>F$5*'Component percentages'!$C17</f>
-        <v>25628229765.392872</v>
-      </c>
-      <c r="G12" s="62">
+        <v>7125898032.3287506</v>
+      </c>
+      <c r="G12" s="61">
         <f>G$5*'Component percentages'!$C17</f>
-        <v>25902488494.356514</v>
-      </c>
-      <c r="H12" s="62">
+        <v>7202155337.4552259</v>
+      </c>
+      <c r="H12" s="61">
         <f>H$5*'Component percentages'!$C17</f>
-        <v>26175810044.358604</v>
-      </c>
-      <c r="I12" s="62">
+        <v>7278152061.1143436</v>
+      </c>
+      <c r="I12" s="61">
         <f>I$5*'Component percentages'!$C17</f>
-        <v>26447926649.981548</v>
-      </c>
-      <c r="J12" s="62">
+        <v>7353813751.4582844</v>
+      </c>
+      <c r="J12" s="61">
         <f>J$5*'Component percentages'!$C17</f>
-        <v>26718637487.162159</v>
-      </c>
-      <c r="K12" s="62">
+        <v>7429084569.6011858</v>
+      </c>
+      <c r="K12" s="61">
         <f>K$5*'Component percentages'!$C17</f>
-        <v>26987540907.774059</v>
-      </c>
-      <c r="L12" s="62">
+        <v>7503852837.7713251</v>
+      </c>
+      <c r="L12" s="61">
         <f>L$5*'Component percentages'!$C17</f>
-        <v>27254436087.754059</v>
-      </c>
-      <c r="M12" s="62">
+        <v>7578062717.0828362</v>
+      </c>
+      <c r="M12" s="61">
         <f>M$5*'Component percentages'!$C17</f>
-        <v>27519055261.684559</v>
-      </c>
-      <c r="N12" s="62">
+        <v>7651639755.6879034</v>
+      </c>
+      <c r="N12" s="61">
         <f>N$5*'Component percentages'!$C17</f>
-        <v>27781130664.147987</v>
-      </c>
-      <c r="O12" s="62">
+        <v>7724509501.7387094</v>
+      </c>
+      <c r="O12" s="61">
         <f>O$5*'Component percentages'!$C17</f>
-        <v>28040461471.081146</v>
-      </c>
-      <c r="P12" s="62">
+        <v>7796616116.3493929</v>
+      </c>
+      <c r="P12" s="61">
         <f>P$5*'Component percentages'!$C17</f>
-        <v>28296779917.066452</v>
-      </c>
-      <c r="Q12" s="62">
+        <v>7867885147.6721363</v>
+      </c>
+      <c r="Q12" s="61">
         <f>Q$5*'Component percentages'!$C17</f>
-        <v>28550019060.749504</v>
-      </c>
-      <c r="R12" s="62">
+        <v>7938297982.7449856</v>
+      </c>
+      <c r="R12" s="61">
         <f>R$5*'Component percentages'!$C17</f>
-        <v>28800045019.421509</v>
-      </c>
-      <c r="S12" s="62">
+        <v>8007817395.6440296</v>
+      </c>
+      <c r="S12" s="61">
         <f>S$5*'Component percentages'!$C17</f>
-        <v>29046857793.082466</v>
-      </c>
-      <c r="T12" s="62">
+        <v>8076443386.3692713</v>
+      </c>
+      <c r="T12" s="61">
         <f>T$5*'Component percentages'!$C17</f>
-        <v>29290524323.086769</v>
-      </c>
-      <c r="U12" s="62">
+        <v>8144194567.8826637</v>
+      </c>
+      <c r="U12" s="61">
         <f>U$5*'Component percentages'!$C17</f>
-        <v>29530977668.08004</v>
-      </c>
-      <c r="V12" s="62">
+        <v>8211052327.2222557</v>
+      </c>
+      <c r="V12" s="61">
         <f>V$5*'Component percentages'!$C17</f>
-        <v>29768418652.125454</v>
-      </c>
-      <c r="W12" s="62">
+        <v>8277072503.2739067</v>
+      </c>
+      <c r="W12" s="61">
         <f>W$5*'Component percentages'!$C17</f>
-        <v>30002780333.86861</v>
-      </c>
-      <c r="X12" s="62">
+        <v>8342236483.0756626</v>
+      </c>
+      <c r="X12" s="61">
         <f>X$5*'Component percentages'!$C17</f>
-        <v>30234263537.372704</v>
-      </c>
-      <c r="Y12" s="62">
+        <v>8406600105.5133867</v>
+      </c>
+      <c r="Y12" s="61">
         <f>Y$5*'Component percentages'!$C17</f>
-        <v>30462868262.637737</v>
-      </c>
-      <c r="Z12" s="62">
+        <v>8470163370.587079</v>
+      </c>
+      <c r="Z12" s="61">
         <f>Z$5*'Component percentages'!$C17</f>
-        <v>30688527568.309311</v>
-      </c>
-      <c r="AA12" s="62">
+        <v>8532907665.3347845</v>
+      </c>
+      <c r="AA12" s="61">
         <f>AA$5*'Component percentages'!$C17</f>
-        <v>30911442278.450615</v>
-      </c>
-      <c r="AB12" s="62">
+        <v>8594888828.6423664</v>
+      </c>
+      <c r="AB12" s="61">
         <f>AB$5*'Component percentages'!$C17</f>
-        <v>31131478510.352859</v>
-      </c>
-      <c r="AC12" s="62">
+        <v>8656069634.5859184</v>
+      </c>
+      <c r="AC12" s="61">
         <f>AC$5*'Component percentages'!$C17</f>
-        <v>31349841208.39518</v>
-      </c>
-      <c r="AD12" s="62">
+        <v>8716785116.4806118</v>
+      </c>
+      <c r="AD12" s="61">
         <f>AD$5*'Component percentages'!$C17</f>
-        <v>31566998962.058365</v>
-      </c>
-      <c r="AE12" s="62">
+        <v>8777165565.0601311</v>
+      </c>
+      <c r="AE12" s="61">
         <f>AE$5*'Component percentages'!$C17</f>
-        <v>31783152595.405594</v>
-      </c>
-      <c r="AF12" s="62">
+        <v>8837266819.2103367</v>
+      </c>
+      <c r="AF12" s="61">
         <f>AF$5*'Component percentages'!$C17</f>
-        <v>31998502932.500061</v>
-      </c>
-      <c r="AG12" s="62">
+        <v>8897144717.817091</v>
+      </c>
+      <c r="AG12" s="61">
         <f>AG$5*'Component percentages'!$C17</f>
-        <v>32213317738.759357</v>
-      </c>
-      <c r="AH12" s="62">
+        <v>8956873712.7282124</v>
+      </c>
+      <c r="AH12" s="61">
         <f>AH$5*'Component percentages'!$C17</f>
-        <v>32427931720.955463</v>
-      </c>
-      <c r="AI12" s="62">
+        <v>9016546868.7534714</v>
+      </c>
+      <c r="AI12" s="61">
         <f>AI$5*'Component percentages'!$C17</f>
-        <v>32642679585.860363</v>
+        <v>9076257250.7026386</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -10883,135 +10889,135 @@
         <f>'Component percentages'!A18</f>
         <v>lighting</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="74">
         <f>C$4*'Component percentages'!$C18</f>
         <v>1485709183.1059201</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="74">
         <f>D$4*'Component percentages'!$C18</f>
         <v>1451010531.744</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="74">
         <f>E$4*'Component percentages'!$C18</f>
         <v>1484087867.7176471</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="61">
         <f>F$5*'Component percentages'!$C18</f>
         <v>1500189059.4376316</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="61">
         <f>G$5*'Component percentages'!$C18</f>
         <v>1516243228.9379423</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="61">
         <f>H$5*'Component percentages'!$C18</f>
         <v>1532242539.181967</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="61">
         <f>I$5*'Component percentages'!$C18</f>
         <v>1548171316.0964811</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="61">
         <f>J$5*'Component percentages'!$C18</f>
         <v>1564017804.1265655</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="61">
         <f>K$5*'Component percentages'!$C18</f>
         <v>1579758492.1623843</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="61">
         <f>L$5*'Component percentages'!$C18</f>
         <v>1595381624.649018</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="61">
         <f>M$5*'Component percentages'!$C18</f>
         <v>1610871527.5132427</v>
       </c>
-      <c r="N13" s="62">
+      <c r="N13" s="61">
         <f>N$5*'Component percentages'!$C18</f>
         <v>1626212526.6818335</v>
       </c>
-      <c r="O13" s="62">
+      <c r="O13" s="61">
         <f>O$5*'Component percentages'!$C18</f>
         <v>1641392866.5998721</v>
       </c>
-      <c r="P13" s="62">
+      <c r="P13" s="61">
         <f>P$5*'Component percentages'!$C18</f>
         <v>1656396873.194134</v>
       </c>
-      <c r="Q13" s="62">
+      <c r="Q13" s="61">
         <f>Q$5*'Component percentages'!$C18</f>
         <v>1671220627.9463127</v>
       </c>
-      <c r="R13" s="62">
+      <c r="R13" s="61">
         <f>R$5*'Component percentages'!$C18</f>
         <v>1685856293.8197956</v>
       </c>
-      <c r="S13" s="62">
+      <c r="S13" s="61">
         <f>S$5*'Component percentages'!$C18</f>
         <v>1700303870.8145833</v>
       </c>
-      <c r="T13" s="62">
+      <c r="T13" s="61">
         <f>T$5*'Component percentages'!$C18</f>
         <v>1714567277.4489818</v>
       </c>
-      <c r="U13" s="62">
+      <c r="U13" s="61">
         <f>U$5*'Component percentages'!$C18</f>
         <v>1728642595.2046854</v>
       </c>
-      <c r="V13" s="62">
+      <c r="V13" s="61">
         <f>V$5*'Component percentages'!$C18</f>
         <v>1742541579.6366119</v>
       </c>
-      <c r="W13" s="62">
+      <c r="W13" s="61">
         <f>W$5*'Component percentages'!$C18</f>
         <v>1756260312.2264555</v>
       </c>
-      <c r="X13" s="62">
+      <c r="X13" s="61">
         <f>X$5*'Component percentages'!$C18</f>
         <v>1769810548.529134</v>
       </c>
-      <c r="Y13" s="62">
+      <c r="Y13" s="61">
         <f>Y$5*'Component percentages'!$C18</f>
         <v>1783192288.5446482</v>
       </c>
-      <c r="Z13" s="62">
+      <c r="Z13" s="61">
         <f>Z$5*'Component percentages'!$C18</f>
         <v>1796401613.7546914</v>
       </c>
-      <c r="AA13" s="62">
+      <c r="AA13" s="61">
         <f>AA$5*'Component percentages'!$C18</f>
         <v>1809450279.7141824</v>
       </c>
-      <c r="AB13" s="62">
+      <c r="AB13" s="61">
         <f>AB$5*'Component percentages'!$C18</f>
         <v>1822330449.3865089</v>
       </c>
-      <c r="AC13" s="62">
+      <c r="AC13" s="61">
         <f>AC$5*'Component percentages'!$C18</f>
         <v>1835112656.1011815</v>
       </c>
-      <c r="AD13" s="62">
+      <c r="AD13" s="61">
         <f>AD$5*'Component percentages'!$C18</f>
         <v>1847824329.4863436</v>
       </c>
-      <c r="AE13" s="62">
+      <c r="AE13" s="61">
         <f>AE$5*'Component percentages'!$C18</f>
         <v>1860477225.0969131</v>
       </c>
-      <c r="AF13" s="62">
+      <c r="AF13" s="61">
         <f>AF$5*'Component percentages'!$C18</f>
         <v>1873083098.4878087</v>
       </c>
-      <c r="AG13" s="62">
+      <c r="AG13" s="61">
         <f>AG$5*'Component percentages'!$C18</f>
         <v>1885657623.7322552</v>
       </c>
-      <c r="AH13" s="62">
+      <c r="AH13" s="61">
         <f>AH$5*'Component percentages'!$C18</f>
         <v>1898220393.4217834</v>
       </c>
-      <c r="AI13" s="62">
+      <c r="AI13" s="61">
         <f>AI$5*'Component percentages'!$C18</f>
         <v>1910791000.1479237</v>
       </c>
@@ -11021,135 +11027,135 @@
         <f>'Component percentages'!A19</f>
         <v>appliances</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="74">
         <f>C$4*'Component percentages'!$C19</f>
         <v>1980945577.47456</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="74">
         <f>D$4*'Component percentages'!$C19</f>
         <v>1934680708.9920001</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="74">
         <f>E$4*'Component percentages'!$C19</f>
         <v>1978783823.6235294</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="61">
         <f>F$5*'Component percentages'!$C19</f>
         <v>2000252079.2501755</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="61">
         <f>G$5*'Component percentages'!$C19</f>
         <v>2021657638.5839231</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="61">
         <f>H$5*'Component percentages'!$C19</f>
         <v>2042990052.2426229</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="61">
         <f>I$5*'Component percentages'!$C19</f>
         <v>2064228421.4619746</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="61">
         <f>J$5*'Component percentages'!$C19</f>
         <v>2085357072.1687539</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="61">
         <f>K$5*'Component percentages'!$C19</f>
         <v>2106344656.2165122</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="61">
         <f>L$5*'Component percentages'!$C19</f>
         <v>2127175499.5320241</v>
       </c>
-      <c r="M14" s="62">
+      <c r="M14" s="61">
         <f>M$5*'Component percentages'!$C19</f>
         <v>2147828703.3509903</v>
       </c>
-      <c r="N14" s="62">
+      <c r="N14" s="61">
         <f>N$5*'Component percentages'!$C19</f>
         <v>2168283368.9091115</v>
       </c>
-      <c r="O14" s="62">
+      <c r="O14" s="61">
         <f>O$5*'Component percentages'!$C19</f>
         <v>2188523822.133163</v>
       </c>
-      <c r="P14" s="62">
+      <c r="P14" s="61">
         <f>P$5*'Component percentages'!$C19</f>
         <v>2208529164.2588453</v>
       </c>
-      <c r="Q14" s="62">
+      <c r="Q14" s="61">
         <f>Q$5*'Component percentages'!$C19</f>
         <v>2228294170.5950837</v>
       </c>
-      <c r="R14" s="62">
+      <c r="R14" s="61">
         <f>R$5*'Component percentages'!$C19</f>
         <v>2247808391.7597275</v>
       </c>
-      <c r="S14" s="62">
+      <c r="S14" s="61">
         <f>S$5*'Component percentages'!$C19</f>
         <v>2267071827.7527781</v>
       </c>
-      <c r="T14" s="62">
+      <c r="T14" s="61">
         <f>T$5*'Component percentages'!$C19</f>
         <v>2286089703.2653093</v>
       </c>
-      <c r="U14" s="62">
+      <c r="U14" s="61">
         <f>U$5*'Component percentages'!$C19</f>
         <v>2304856793.6062469</v>
       </c>
-      <c r="V14" s="62">
+      <c r="V14" s="61">
         <f>V$5*'Component percentages'!$C19</f>
         <v>2323388772.8488159</v>
       </c>
-      <c r="W14" s="62">
+      <c r="W14" s="61">
         <f>W$5*'Component percentages'!$C19</f>
         <v>2341680416.3019404</v>
       </c>
-      <c r="X14" s="62">
+      <c r="X14" s="61">
         <f>X$5*'Component percentages'!$C19</f>
         <v>2359747398.0388451</v>
       </c>
-      <c r="Y14" s="62">
+      <c r="Y14" s="61">
         <f>Y$5*'Component percentages'!$C19</f>
         <v>2377589718.0595307</v>
       </c>
-      <c r="Z14" s="62">
+      <c r="Z14" s="61">
         <f>Z$5*'Component percentages'!$C19</f>
         <v>2395202151.6729221</v>
       </c>
-      <c r="AA14" s="62">
+      <c r="AA14" s="61">
         <f>AA$5*'Component percentages'!$C19</f>
         <v>2412600372.9522433</v>
       </c>
-      <c r="AB14" s="62">
+      <c r="AB14" s="61">
         <f>AB$5*'Component percentages'!$C19</f>
         <v>2429773932.5153451</v>
       </c>
-      <c r="AC14" s="62">
+      <c r="AC14" s="61">
         <f>AC$5*'Component percentages'!$C19</f>
         <v>2446816874.8015752</v>
       </c>
-      <c r="AD14" s="62">
+      <c r="AD14" s="61">
         <f>AD$5*'Component percentages'!$C19</f>
         <v>2463765772.648458</v>
       </c>
-      <c r="AE14" s="62">
+      <c r="AE14" s="61">
         <f>AE$5*'Component percentages'!$C19</f>
         <v>2480636300.1292171</v>
       </c>
-      <c r="AF14" s="62">
+      <c r="AF14" s="61">
         <f>AF$5*'Component percentages'!$C19</f>
         <v>2497444131.3170781</v>
       </c>
-      <c r="AG14" s="62">
+      <c r="AG14" s="61">
         <f>AG$5*'Component percentages'!$C19</f>
         <v>2514210164.9763403</v>
       </c>
-      <c r="AH14" s="62">
+      <c r="AH14" s="61">
         <f>AH$5*'Component percentages'!$C19</f>
         <v>2530960524.5623779</v>
       </c>
-      <c r="AI14" s="62">
+      <c r="AI14" s="61">
         <f>AI$5*'Component percentages'!$C19</f>
         <v>2547721333.5305648</v>
       </c>
@@ -11159,141 +11165,141 @@
         <f>'Component percentages'!A20</f>
         <v>other</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="74">
         <f>C$4*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="74">
         <f>D$4*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="74">
         <f>E$4*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="61">
         <f>F$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="61">
         <f>G$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="61">
         <f>H$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="61">
         <f>I$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="61">
         <f>J$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="61">
         <f>K$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="61">
         <f>L$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="M15" s="62">
+      <c r="M15" s="61">
         <f>M$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="N15" s="62">
+      <c r="N15" s="61">
         <f>N$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="O15" s="62">
+      <c r="O15" s="61">
         <f>O$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="P15" s="62">
+      <c r="P15" s="61">
         <f>P$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="62">
+      <c r="Q15" s="61">
         <f>Q$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="R15" s="62">
+      <c r="R15" s="61">
         <f>R$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="S15" s="62">
+      <c r="S15" s="61">
         <f>S$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="T15" s="62">
+      <c r="T15" s="61">
         <f>T$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="U15" s="62">
+      <c r="U15" s="61">
         <f>U$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="V15" s="62">
+      <c r="V15" s="61">
         <f>V$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="W15" s="62">
+      <c r="W15" s="61">
         <f>W$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="X15" s="62">
+      <c r="X15" s="61">
         <f>X$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="62">
+      <c r="Y15" s="61">
         <f>Y$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="62">
+      <c r="Z15" s="61">
         <f>Z$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="62">
+      <c r="AA15" s="61">
         <f>AA$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="62">
+      <c r="AB15" s="61">
         <f>AB$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="62">
+      <c r="AC15" s="61">
         <f>AC$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="62">
+      <c r="AD15" s="61">
         <f>AD$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="62">
+      <c r="AE15" s="61">
         <f>AE$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="62">
+      <c r="AF15" s="61">
         <f>AF$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="62">
+      <c r="AG15" s="61">
         <f>AG$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="62">
+      <c r="AH15" s="61">
         <f>AH$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="62">
+      <c r="AI15" s="61">
         <f>AI$5*'Component percentages'!$C20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:35" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="73" t="s">
+    <row r="17" spans="2:35" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="70" t="s">
         <v>155</v>
       </c>
     </row>
@@ -11302,135 +11308,135 @@
         <f>B10</f>
         <v>heating</v>
       </c>
-      <c r="C18" s="79">
+      <c r="C18" s="75">
         <f>C$10*Urbanrural!$E10</f>
         <v>4660539063.9614658</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="75">
         <f>D10*Urbanrural!$E$10</f>
         <v>4551692445.8090897</v>
       </c>
-      <c r="E18" s="79">
+      <c r="E18" s="75">
         <f>E10*Urbanrural!$E$10</f>
         <v>4655453140.156208</v>
       </c>
-      <c r="F18" s="79">
+      <c r="F18" s="75">
         <f>F10*Urbanrural!$E$10</f>
         <v>4705961162.7494631</v>
       </c>
-      <c r="G18" s="79">
+      <c r="G18" s="75">
         <f>G10*Urbanrural!$E$10</f>
         <v>4756321680.7744246</v>
       </c>
-      <c r="H18" s="79">
+      <c r="H18" s="75">
         <f>H10*Urbanrural!$E$10</f>
         <v>4806510110.1363773</v>
       </c>
-      <c r="I18" s="79">
+      <c r="I18" s="75">
         <f>I10*Urbanrural!$E$10</f>
         <v>4856477282.6458902</v>
       </c>
-      <c r="J18" s="79">
+      <c r="J18" s="75">
         <f>J10*Urbanrural!$E$10</f>
         <v>4906186322.1608877</v>
       </c>
-      <c r="K18" s="79">
+      <c r="K18" s="75">
         <f>K10*Urbanrural!$E$10</f>
         <v>4955563476.3972244</v>
       </c>
-      <c r="L18" s="79">
+      <c r="L18" s="75">
         <f>L10*Urbanrural!$E$10</f>
         <v>5004571869.2128267</v>
       </c>
-      <c r="M18" s="79">
+      <c r="M18" s="75">
         <f>M10*Urbanrural!$E$10</f>
         <v>5053162332.4182634</v>
       </c>
-      <c r="N18" s="79">
+      <c r="N18" s="75">
         <f>N10*Urbanrural!$E$10</f>
         <v>5101285697.8241034</v>
       </c>
-      <c r="O18" s="79">
+      <c r="O18" s="75">
         <f>O10*Urbanrural!$E$10</f>
         <v>5148905089.2882729</v>
       </c>
-      <c r="P18" s="79">
+      <c r="P18" s="75">
         <f>P10*Urbanrural!$E$10</f>
         <v>5195971338.6213417</v>
       </c>
-      <c r="Q18" s="79">
+      <c r="Q18" s="75">
         <f>Q10*Urbanrural!$E$10</f>
         <v>5242472153.7759495</v>
       </c>
-      <c r="R18" s="79">
+      <c r="R18" s="75">
         <f>R10*Urbanrural!$E$10</f>
         <v>5288382950.657383</v>
       </c>
-      <c r="S18" s="79">
+      <c r="S18" s="75">
         <f>S10*Urbanrural!$E$10</f>
         <v>5333703729.2656412</v>
       </c>
-      <c r="T18" s="79">
+      <c r="T18" s="75">
         <f>T10*Urbanrural!$E$10</f>
         <v>5378446781.6480818</v>
       </c>
-      <c r="U18" s="79">
+      <c r="U18" s="75">
         <f>U10*Urbanrural!$E$10</f>
         <v>5422599815.7573481</v>
       </c>
-      <c r="V18" s="79">
+      <c r="V18" s="75">
         <f>V10*Urbanrural!$E$10</f>
         <v>5466199707.7355137</v>
       </c>
-      <c r="W18" s="79">
+      <c r="W18" s="75">
         <f>W10*Urbanrural!$E$10</f>
         <v>5509234165.5352182</v>
       </c>
-      <c r="X18" s="79">
+      <c r="X18" s="75">
         <f>X10*Urbanrural!$E$10</f>
         <v>5551740065.2985373</v>
       </c>
-      <c r="Y18" s="79">
+      <c r="Y18" s="75">
         <f>Y10*Urbanrural!$E$10</f>
         <v>5593717407.0254707</v>
       </c>
-      <c r="Z18" s="79">
+      <c r="Z18" s="75">
         <f>Z10*Urbanrural!$E$10</f>
         <v>5635153898.6686602</v>
       </c>
-      <c r="AA18" s="79">
+      <c r="AA18" s="75">
         <f>AA10*Urbanrural!$E$10</f>
         <v>5676086416.3701782</v>
       </c>
-      <c r="AB18" s="79">
+      <c r="AB18" s="75">
         <f>AB10*Urbanrural!$E$10</f>
         <v>5716490376.0353117</v>
       </c>
-      <c r="AC18" s="79">
+      <c r="AC18" s="75">
         <f>AC10*Urbanrural!$E$10</f>
         <v>5756587034.5164995</v>
       </c>
-      <c r="AD18" s="79">
+      <c r="AD18" s="75">
         <f>AD10*Urbanrural!$E$10</f>
         <v>5796462436.1452465</v>
       </c>
-      <c r="AE18" s="79">
+      <c r="AE18" s="75">
         <f>AE10*Urbanrural!$E$10</f>
         <v>5836153457.0636253</v>
       </c>
-      <c r="AF18" s="79">
+      <c r="AF18" s="75">
         <f>AF10*Urbanrural!$E$10</f>
         <v>5875696973.4137125</v>
       </c>
-      <c r="AG18" s="79">
+      <c r="AG18" s="75">
         <f>AG10*Urbanrural!$E$10</f>
         <v>5915142153.3849354</v>
       </c>
-      <c r="AH18" s="79">
+      <c r="AH18" s="75">
         <f>AH10*Urbanrural!$E$10</f>
         <v>5954550457.2140865</v>
       </c>
-      <c r="AI18" s="79">
+      <c r="AI18" s="75">
         <f>AI10*Urbanrural!$E$10</f>
         <v>5993983345.1379519</v>
       </c>
@@ -11440,135 +11446,135 @@
         <f t="shared" ref="B19:B31" si="2">B11</f>
         <v>cooling and ventilation</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="75">
         <f>C11*Urbanrural!$E$10</f>
         <v>170649097.62134704</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="75">
         <f>D11*Urbanrural!$E$10</f>
         <v>166663597.89440134</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="75">
         <f>E11*Urbanrural!$E$10</f>
         <v>170462872.74563482</v>
       </c>
-      <c r="F19" s="79">
+      <c r="F19" s="75">
         <f>F11*Urbanrural!$E$10</f>
         <v>172312261.48798591</v>
       </c>
-      <c r="G19" s="79">
+      <c r="G19" s="75">
         <f>G11*Urbanrural!$E$10</f>
         <v>174156249.2410675</v>
       </c>
-      <c r="H19" s="79">
+      <c r="H19" s="75">
         <f>H11*Urbanrural!$E$10</f>
         <v>175993935.8400014</v>
       </c>
-      <c r="I19" s="79">
+      <c r="I19" s="75">
         <f>I11*Urbanrural!$E$10</f>
         <v>177823520.9550311</v>
       </c>
-      <c r="J19" s="79">
+      <c r="J19" s="75">
         <f>J11*Urbanrural!$E$10</f>
         <v>179643654.33883923</v>
       </c>
-      <c r="K19" s="79">
+      <c r="K19" s="75">
         <f>K11*Urbanrural!$E$10</f>
         <v>181451635.49679112</v>
       </c>
-      <c r="L19" s="79">
+      <c r="L19" s="75">
         <f>L11*Urbanrural!$E$10</f>
         <v>183246114.18156934</v>
       </c>
-      <c r="M19" s="79">
+      <c r="M19" s="75">
         <f>M11*Urbanrural!$E$10</f>
         <v>185025290.0634174</v>
       </c>
-      <c r="N19" s="79">
+      <c r="N19" s="75">
         <f>N11*Urbanrural!$E$10</f>
         <v>186787362.81257883</v>
       </c>
-      <c r="O19" s="79">
+      <c r="O19" s="75">
         <f>O11*Urbanrural!$E$10</f>
         <v>188530982.18173632</v>
       </c>
-      <c r="P19" s="79">
+      <c r="P19" s="75">
         <f>P11*Urbanrural!$E$10</f>
         <v>190254347.84113333</v>
       </c>
-      <c r="Q19" s="79">
+      <c r="Q19" s="75">
         <f>Q11*Urbanrural!$E$10</f>
         <v>191957009.70833072</v>
       </c>
-      <c r="R19" s="79">
+      <c r="R19" s="75">
         <f>R11*Urbanrural!$E$10</f>
         <v>193638067.61845025</v>
       </c>
-      <c r="S19" s="79">
+      <c r="S19" s="75">
         <f>S11*Urbanrural!$E$10</f>
         <v>195297521.57149193</v>
       </c>
-      <c r="T19" s="79">
+      <c r="T19" s="75">
         <f>T11*Urbanrural!$E$10</f>
         <v>196935821.64989489</v>
       </c>
-      <c r="U19" s="79">
+      <c r="U19" s="75">
         <f>U11*Urbanrural!$E$10</f>
         <v>198552517.77122006</v>
       </c>
-      <c r="V19" s="79">
+      <c r="V19" s="75">
         <f>V11*Urbanrural!$E$10</f>
         <v>200148960.18278477</v>
       </c>
-      <c r="W19" s="79">
+      <c r="W19" s="75">
         <f>W11*Urbanrural!$E$10</f>
         <v>201724698.80214986</v>
       </c>
-      <c r="X19" s="79">
+      <c r="X19" s="75">
         <f>X11*Urbanrural!$E$10</f>
         <v>203281083.87663266</v>
       </c>
-      <c r="Y19" s="79">
+      <c r="Y19" s="75">
         <f>Y11*Urbanrural!$E$10</f>
         <v>204818115.40623325</v>
       </c>
-      <c r="Z19" s="79">
+      <c r="Z19" s="75">
         <f>Z11*Urbanrural!$E$10</f>
         <v>206335343.30851251</v>
       </c>
-      <c r="AA19" s="79">
+      <c r="AA19" s="75">
         <f>AA11*Urbanrural!$E$10</f>
         <v>207834117.83078778</v>
       </c>
-      <c r="AB19" s="79">
+      <c r="AB19" s="75">
         <f>AB11*Urbanrural!$E$10</f>
         <v>209313538.80818081</v>
       </c>
-      <c r="AC19" s="79">
+      <c r="AC19" s="75">
         <f>AC11*Urbanrural!$E$10</f>
         <v>210781707.72459576</v>
       </c>
-      <c r="AD19" s="79">
+      <c r="AD19" s="75">
         <f>AD11*Urbanrural!$E$10</f>
         <v>212241775.15710658</v>
       </c>
-      <c r="AE19" s="79">
+      <c r="AE19" s="75">
         <f>AE11*Urbanrural!$E$10</f>
         <v>213695091.35303053</v>
       </c>
-      <c r="AF19" s="79">
+      <c r="AF19" s="75">
         <f>AF11*Urbanrural!$E$10</f>
         <v>215143006.55968502</v>
       </c>
-      <c r="AG19" s="79">
+      <c r="AG19" s="75">
         <f>AG11*Urbanrural!$E$10</f>
         <v>216587321.10682657</v>
       </c>
-      <c r="AH19" s="79">
+      <c r="AH19" s="75">
         <f>AH11*Urbanrural!$E$10</f>
         <v>218030285.40665075</v>
       </c>
-      <c r="AI19" s="79">
+      <c r="AI19" s="75">
         <f>AI11*Urbanrural!$E$10</f>
         <v>219474149.87135315</v>
       </c>
@@ -11578,137 +11584,137 @@
         <f t="shared" si="2"/>
         <v>envelope</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="75">
         <f>C12*Urbanrural!$E$10</f>
-        <v>20633199440.093262</v>
-      </c>
-      <c r="D20" s="79">
+        <v>5737035941.879591</v>
+      </c>
+      <c r="D20" s="75">
         <f>D12*Urbanrural!$E$10</f>
-        <v>20151312269.983662</v>
-      </c>
-      <c r="E20" s="79">
+        <v>5603047801.8978968</v>
+      </c>
+      <c r="E20" s="75">
         <f>E12*Urbanrural!$E$10</f>
-        <v>20610682971.768288</v>
-      </c>
-      <c r="F20" s="79">
+        <v>5730775265.3209381</v>
+      </c>
+      <c r="F20" s="75">
         <f>F12*Urbanrural!$E$10</f>
-        <v>20834292749.347439</v>
-      </c>
-      <c r="G20" s="79">
+        <v>5792949691.2819719</v>
+      </c>
+      <c r="G20" s="75">
         <f>G12*Urbanrural!$E$10</f>
-        <v>21057249492.774502</v>
-      </c>
-      <c r="H20" s="79">
+        <v>5854942541.8933983</v>
+      </c>
+      <c r="H20" s="75">
         <f>H12*Urbanrural!$E$10</f>
-        <v>21279444363.024124</v>
-      </c>
-      <c r="I20" s="79">
+        <v>5916723554.5969515</v>
+      </c>
+      <c r="I20" s="75">
         <f>I12*Urbanrural!$E$10</f>
-        <v>21500659682.045601</v>
-      </c>
-      <c r="J20" s="79">
+        <v>5978232204.2760944</v>
+      </c>
+      <c r="J20" s="75">
         <f>J12*Urbanrural!$E$10</f>
-        <v>21720732191.300915</v>
-      </c>
-      <c r="K20" s="79">
+        <v>6039423097.0934258</v>
+      </c>
+      <c r="K20" s="75">
         <f>K12*Urbanrural!$E$10</f>
-        <v>21939335373.714024</v>
-      </c>
-      <c r="L20" s="79">
+        <v>6100205445.3741446</v>
+      </c>
+      <c r="L20" s="75">
         <f>L12*Urbanrural!$E$10</f>
-        <v>22156305970.746902</v>
-      </c>
-      <c r="M20" s="79">
+        <v>6160533855.2808466</v>
+      </c>
+      <c r="M20" s="75">
         <f>M12*Urbanrural!$E$10</f>
-        <v>22371426304.348846</v>
-      </c>
-      <c r="N20" s="79">
+        <v>6220347801.6969976</v>
+      </c>
+      <c r="N20" s="75">
         <f>N12*Urbanrural!$E$10</f>
-        <v>22584478696.469166</v>
-      </c>
-      <c r="O20" s="79">
+        <v>6279586759.5060606</v>
+      </c>
+      <c r="O20" s="75">
         <f>O12*Urbanrural!$E$10</f>
-        <v>22795299888.569832</v>
-      </c>
-      <c r="P20" s="79">
+        <v>6338205334.8706369</v>
+      </c>
+      <c r="P20" s="75">
         <f>P12*Urbanrural!$E$10</f>
-        <v>23003672202.600155</v>
-      </c>
-      <c r="Q20" s="79">
+        <v>6396143002.6741896</v>
+      </c>
+      <c r="Q20" s="75">
         <f>Q12*Urbanrural!$E$10</f>
-        <v>23209541219.047451</v>
-      </c>
-      <c r="R20" s="79">
+        <v>6453384631.6375847</v>
+      </c>
+      <c r="R20" s="75">
         <f>R12*Urbanrural!$E$10</f>
-        <v>23412798098.886375</v>
-      </c>
-      <c r="S20" s="79">
+        <v>6509899959.2025528</v>
+      </c>
+      <c r="S20" s="75">
         <f>S12*Urbanrural!$E$10</f>
-        <v>23613442842.116924</v>
-      </c>
-      <c r="T20" s="79">
+        <v>6565688985.3690958</v>
+      </c>
+      <c r="T20" s="75">
         <f>T12*Urbanrural!$E$10</f>
-        <v>23811529868.251774</v>
-      </c>
-      <c r="U20" s="79">
+        <v>6620766841.4163475</v>
+      </c>
+      <c r="U20" s="75">
         <f>U12*Urbanrural!$E$10</f>
-        <v>24007004757.778263</v>
-      </c>
-      <c r="V20" s="79">
+        <v>6675118396.065176</v>
+      </c>
+      <c r="V20" s="75">
         <f>V12*Urbanrural!$E$10</f>
-        <v>24200030769.234402</v>
-      </c>
-      <c r="W20" s="79">
+        <v>6728789043.1529799</v>
+      </c>
+      <c r="W20" s="75">
         <f>W12*Urbanrural!$E$10</f>
-        <v>24390553483.107513</v>
-      </c>
-      <c r="X20" s="79">
+        <v>6781763651.4006262</v>
+      </c>
+      <c r="X20" s="75">
         <f>X12*Urbanrural!$E$10</f>
-        <v>24578736157.935623</v>
-      </c>
-      <c r="Y20" s="79">
+        <v>6834087614.6455154</v>
+      </c>
+      <c r="Y20" s="75">
         <f>Y12*Urbanrural!$E$10</f>
-        <v>24764578793.718739</v>
-      </c>
-      <c r="Z20" s="79">
+        <v>6885760932.8876495</v>
+      </c>
+      <c r="Z20" s="75">
         <f>Z12*Urbanrural!$E$10</f>
-        <v>24948026970.944176</v>
-      </c>
-      <c r="AA20" s="79">
+        <v>6936768474.8478937</v>
+      </c>
+      <c r="AA20" s="75">
         <f>AA12*Urbanrural!$E$10</f>
-        <v>25129243948.149963</v>
-      </c>
-      <c r="AB20" s="79">
+        <v>6987155634.3636484</v>
+      </c>
+      <c r="AB20" s="75">
         <f>AB12*Urbanrural!$E$10</f>
-        <v>25308120886.310753</v>
-      </c>
-      <c r="AC20" s="79">
+        <v>7036892148.8766489</v>
+      </c>
+      <c r="AC20" s="75">
         <f>AC12*Urbanrural!$E$10</f>
-        <v>25485637336.654675</v>
-      </c>
-      <c r="AD20" s="79">
+        <v>7086250381.4113007</v>
+      </c>
+      <c r="AD20" s="75">
         <f>AD12*Urbanrural!$E$10</f>
-        <v>25662174235.770466</v>
-      </c>
-      <c r="AE20" s="79">
+        <v>7135336250.921545</v>
+      </c>
+      <c r="AE20" s="75">
         <f>AE12*Urbanrural!$E$10</f>
-        <v>25837894842.19614</v>
-      </c>
-      <c r="AF20" s="79">
+        <v>7184195151.2447805</v>
+      </c>
+      <c r="AF20" s="75">
         <f>AF12*Urbanrural!$E$10</f>
-        <v>26012962414.469719</v>
-      </c>
-      <c r="AG20" s="79">
+        <v>7232872476.2184095</v>
+      </c>
+      <c r="AG20" s="75">
         <f>AG12*Urbanrural!$E$10</f>
-        <v>26187594630.641903</v>
-      </c>
-      <c r="AH20" s="79">
+        <v>7281428750.9589691</v>
+      </c>
+      <c r="AH20" s="75">
         <f>AH12*Urbanrural!$E$10</f>
-        <v>26362063588.276066</v>
-      </c>
-      <c r="AI20" s="79">
+        <v>7329939631.8621264</v>
+      </c>
+      <c r="AI20" s="75">
         <f>AI12*Urbanrural!$E$10</f>
-        <v>26536641384.935577</v>
+        <v>7378480775.3235512</v>
       </c>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.25">
@@ -11716,135 +11722,135 @@
         <f t="shared" si="2"/>
         <v>lighting</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="75">
         <f>C13*Urbanrural!$E$10</f>
         <v>1207797040.3957033</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="75">
         <f>D13*Urbanrural!$E$10</f>
         <v>1179589010.9258728</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="75">
         <f>E13*Urbanrural!$E$10</f>
         <v>1206479003.2254608</v>
       </c>
-      <c r="F21" s="79">
+      <c r="F21" s="75">
         <f>F13*Urbanrural!$E$10</f>
         <v>1219568356.0593624</v>
       </c>
-      <c r="G21" s="79">
+      <c r="G21" s="75">
         <f>G13*Urbanrural!$E$10</f>
         <v>1232619482.5038731</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="75">
         <f>H13*Urbanrural!$E$10</f>
         <v>1245626011.4940948</v>
       </c>
-      <c r="I21" s="79">
+      <c r="I21" s="75">
         <f>I13*Urbanrural!$E$10</f>
         <v>1258575200.9002304</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="75">
         <f>J13*Urbanrural!$E$10</f>
         <v>1271457494.1249318</v>
       </c>
-      <c r="K21" s="79">
+      <c r="K21" s="75">
         <f>K13*Urbanrural!$E$10</f>
         <v>1284253777.9735041</v>
       </c>
-      <c r="L21" s="79">
+      <c r="L21" s="75">
         <f>L13*Urbanrural!$E$10</f>
         <v>1296954495.8485992</v>
       </c>
-      <c r="M21" s="79">
+      <c r="M21" s="75">
         <f>M13*Urbanrural!$E$10</f>
         <v>1309546905.6204205</v>
       </c>
-      <c r="N21" s="79">
+      <c r="N21" s="75">
         <f>N13*Urbanrural!$E$10</f>
         <v>1322018265.1591706</v>
       </c>
-      <c r="O21" s="79">
+      <c r="O21" s="75">
         <f>O13*Urbanrural!$E$10</f>
         <v>1334359017.8675025</v>
       </c>
-      <c r="P21" s="79">
+      <c r="P21" s="75">
         <f>P13*Urbanrural!$E$10</f>
         <v>1346556421.6156189</v>
       </c>
-      <c r="Q21" s="79">
+      <c r="Q21" s="75">
         <f>Q13*Urbanrural!$E$10</f>
         <v>1358607290.8710704</v>
       </c>
-      <c r="R21" s="79">
+      <c r="R21" s="75">
         <f>R13*Urbanrural!$E$10</f>
         <v>1370505254.5689585</v>
       </c>
-      <c r="S21" s="79">
+      <c r="S21" s="75">
         <f>S13*Urbanrural!$E$10</f>
         <v>1382250312.7092834</v>
       </c>
-      <c r="T21" s="79">
+      <c r="T21" s="75">
         <f>T13*Urbanrural!$E$10</f>
         <v>1393845650.8244941</v>
       </c>
-      <c r="U21" s="79">
+      <c r="U21" s="75">
         <f>U13*Urbanrural!$E$10</f>
         <v>1405288083.3821423</v>
       </c>
-      <c r="V21" s="79">
+      <c r="V21" s="75">
         <f>V13*Urbanrural!$E$10</f>
         <v>1416587166.9795747</v>
       </c>
-      <c r="W21" s="79">
+      <c r="W21" s="75">
         <f>W13*Urbanrural!$E$10</f>
         <v>1427739716.0843425</v>
       </c>
-      <c r="X21" s="79">
+      <c r="X21" s="75">
         <f>X13*Urbanrural!$E$10</f>
         <v>1438755287.2937927</v>
       </c>
-      <c r="Y21" s="79">
+      <c r="Y21" s="75">
         <f>Y13*Urbanrural!$E$10</f>
         <v>1449633880.6079264</v>
       </c>
-      <c r="Z21" s="79">
+      <c r="Z21" s="75">
         <f>Z13*Urbanrural!$E$10</f>
         <v>1460372310.4942932</v>
       </c>
-      <c r="AA21" s="79">
+      <c r="AA21" s="75">
         <f>AA13*Urbanrural!$E$10</f>
         <v>1470980133.5502417</v>
       </c>
-      <c r="AB21" s="79">
+      <c r="AB21" s="75">
         <f>AB13*Urbanrural!$E$10</f>
         <v>1481450978.7108734</v>
       </c>
-      <c r="AC21" s="79">
+      <c r="AC21" s="75">
         <f>AC13*Urbanrural!$E$10</f>
         <v>1491842185.5602739</v>
       </c>
-      <c r="AD21" s="79">
+      <c r="AD21" s="75">
         <f>AD13*Urbanrural!$E$10</f>
         <v>1502176052.8255887</v>
       </c>
-      <c r="AE21" s="79">
+      <c r="AE21" s="75">
         <f>AE13*Urbanrural!$E$10</f>
         <v>1512462137.1041644</v>
       </c>
-      <c r="AF21" s="79">
+      <c r="AF21" s="75">
         <f>AF13*Urbanrural!$E$10</f>
         <v>1522709994.9933496</v>
       </c>
-      <c r="AG21" s="79">
+      <c r="AG21" s="75">
         <f>AG13*Urbanrural!$E$10</f>
         <v>1532932368.6229408</v>
       </c>
-      <c r="AH21" s="79">
+      <c r="AH21" s="75">
         <f>AH13*Urbanrural!$E$10</f>
         <v>1543145185.6551845</v>
       </c>
-      <c r="AI21" s="79">
+      <c r="AI21" s="75">
         <f>AI13*Urbanrural!$E$10</f>
         <v>1553364373.7523265</v>
       </c>
@@ -11854,135 +11860,135 @@
         <f t="shared" si="2"/>
         <v>appliances</v>
       </c>
-      <c r="C22" s="79">
+      <c r="C22" s="75">
         <f>C14*Urbanrural!$E$10</f>
         <v>1610396053.8609376</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="75">
         <f>D14*Urbanrural!$E$10</f>
         <v>1572785347.9011641</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="75">
         <f>E14*Urbanrural!$E$10</f>
         <v>1608638670.9672811</v>
       </c>
-      <c r="F22" s="79">
+      <c r="F22" s="75">
         <f>F14*Urbanrural!$E$10</f>
         <v>1626091141.4124832</v>
       </c>
-      <c r="G22" s="79">
+      <c r="G22" s="75">
         <f>G14*Urbanrural!$E$10</f>
         <v>1643492643.3384976</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="75">
         <f>H14*Urbanrural!$E$10</f>
         <v>1660834681.9921267</v>
       </c>
-      <c r="I22" s="79">
+      <c r="I22" s="75">
         <f>I14*Urbanrural!$E$10</f>
         <v>1678100267.8669739</v>
       </c>
-      <c r="J22" s="79">
+      <c r="J22" s="75">
         <f>J14*Urbanrural!$E$10</f>
         <v>1695276658.8332422</v>
       </c>
-      <c r="K22" s="79">
+      <c r="K22" s="75">
         <f>K14*Urbanrural!$E$10</f>
         <v>1712338370.6313388</v>
       </c>
-      <c r="L22" s="79">
+      <c r="L22" s="75">
         <f>L14*Urbanrural!$E$10</f>
         <v>1729272661.1314657</v>
       </c>
-      <c r="M22" s="79">
+      <c r="M22" s="75">
         <f>M14*Urbanrural!$E$10</f>
         <v>1746062540.8272274</v>
       </c>
-      <c r="N22" s="79">
+      <c r="N22" s="75">
         <f>N14*Urbanrural!$E$10</f>
         <v>1762691020.2122278</v>
       </c>
-      <c r="O22" s="79">
+      <c r="O22" s="75">
         <f>O14*Urbanrural!$E$10</f>
         <v>1779145357.1566701</v>
       </c>
-      <c r="P22" s="79">
+      <c r="P22" s="75">
         <f>P14*Urbanrural!$E$10</f>
         <v>1795408562.1541586</v>
       </c>
-      <c r="Q22" s="79">
+      <c r="Q22" s="75">
         <f>Q14*Urbanrural!$E$10</f>
         <v>1811476387.828094</v>
       </c>
-      <c r="R22" s="79">
+      <c r="R22" s="75">
         <f>R14*Urbanrural!$E$10</f>
         <v>1827340339.4252779</v>
       </c>
-      <c r="S22" s="79">
+      <c r="S22" s="75">
         <f>S14*Urbanrural!$E$10</f>
         <v>1843000416.9457114</v>
       </c>
-      <c r="T22" s="79">
+      <c r="T22" s="75">
         <f>T14*Urbanrural!$E$10</f>
         <v>1858460867.7659926</v>
       </c>
-      <c r="U22" s="79">
+      <c r="U22" s="75">
         <f>U14*Urbanrural!$E$10</f>
         <v>1873717444.5095229</v>
       </c>
-      <c r="V22" s="79">
+      <c r="V22" s="75">
         <f>V14*Urbanrural!$E$10</f>
         <v>1888782889.3060997</v>
       </c>
-      <c r="W22" s="79">
+      <c r="W22" s="75">
         <f>W14*Urbanrural!$E$10</f>
         <v>1903652954.7791231</v>
       </c>
-      <c r="X22" s="79">
+      <c r="X22" s="75">
         <f>X14*Urbanrural!$E$10</f>
         <v>1918340383.0583901</v>
       </c>
-      <c r="Y22" s="79">
+      <c r="Y22" s="75">
         <f>Y14*Urbanrural!$E$10</f>
         <v>1932845174.1439016</v>
       </c>
-      <c r="Z22" s="79">
+      <c r="Z22" s="75">
         <f>Z14*Urbanrural!$E$10</f>
         <v>1947163080.6590579</v>
       </c>
-      <c r="AA22" s="79">
+      <c r="AA22" s="75">
         <f>AA14*Urbanrural!$E$10</f>
         <v>1961306844.7336559</v>
       </c>
-      <c r="AB22" s="79">
+      <c r="AB22" s="75">
         <f>AB14*Urbanrural!$E$10</f>
         <v>1975267971.6144977</v>
       </c>
-      <c r="AC22" s="79">
+      <c r="AC22" s="75">
         <f>AC14*Urbanrural!$E$10</f>
         <v>1989122914.0803652</v>
       </c>
-      <c r="AD22" s="79">
+      <c r="AD22" s="75">
         <f>AD14*Urbanrural!$E$10</f>
         <v>2002901403.7674513</v>
       </c>
-      <c r="AE22" s="79">
+      <c r="AE22" s="75">
         <f>AE14*Urbanrural!$E$10</f>
         <v>2016616182.8055522</v>
       </c>
-      <c r="AF22" s="79">
+      <c r="AF22" s="75">
         <f>AF14*Urbanrural!$E$10</f>
         <v>2030279993.3244658</v>
       </c>
-      <c r="AG22" s="79">
+      <c r="AG22" s="75">
         <f>AG14*Urbanrural!$E$10</f>
         <v>2043909824.8305876</v>
       </c>
-      <c r="AH22" s="79">
+      <c r="AH22" s="75">
         <f>AH14*Urbanrural!$E$10</f>
         <v>2057526914.2069128</v>
       </c>
-      <c r="AI22" s="79">
+      <c r="AI22" s="75">
         <f>AI14*Urbanrural!$E$10</f>
         <v>2071152498.3364351</v>
       </c>
@@ -11992,141 +11998,141 @@
         <f t="shared" si="2"/>
         <v>other</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="75">
         <f>C15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="75">
         <f>D15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="75">
         <f>E15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="F23" s="79">
+      <c r="F23" s="75">
         <f>F15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="G23" s="79">
+      <c r="G23" s="75">
         <f>G15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="H23" s="79">
+      <c r="H23" s="75">
         <f>H15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="I23" s="79">
+      <c r="I23" s="75">
         <f>I15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="J23" s="79">
+      <c r="J23" s="75">
         <f>J15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="K23" s="79">
+      <c r="K23" s="75">
         <f>K15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="L23" s="79">
+      <c r="L23" s="75">
         <f>L15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="M23" s="79">
+      <c r="M23" s="75">
         <f>M15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="N23" s="79">
+      <c r="N23" s="75">
         <f>N15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="O23" s="79">
+      <c r="O23" s="75">
         <f>O15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="P23" s="79">
+      <c r="P23" s="75">
         <f>P15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="79">
+      <c r="Q23" s="75">
         <f>Q15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="R23" s="79">
+      <c r="R23" s="75">
         <f>R15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="S23" s="79">
+      <c r="S23" s="75">
         <f>S15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="T23" s="79">
+      <c r="T23" s="75">
         <f>T15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="U23" s="79">
+      <c r="U23" s="75">
         <f>U15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="V23" s="79">
+      <c r="V23" s="75">
         <f>V15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="W23" s="79">
+      <c r="W23" s="75">
         <f>W15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="X23" s="79">
+      <c r="X23" s="75">
         <f>X15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="79">
+      <c r="Y23" s="75">
         <f>Y15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="79">
+      <c r="Z23" s="75">
         <f>Z15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="79">
+      <c r="AA23" s="75">
         <f>AA15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="79">
+      <c r="AB23" s="75">
         <f>AB15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="79">
+      <c r="AC23" s="75">
         <f>AC15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="79">
+      <c r="AD23" s="75">
         <f>AD15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="79">
+      <c r="AE23" s="75">
         <f>AE15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="79">
+      <c r="AF23" s="75">
         <f>AF15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="79">
+      <c r="AG23" s="75">
         <f>AG15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="79">
+      <c r="AH23" s="75">
         <f>AH15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
-      <c r="AI23" s="79">
+      <c r="AI23" s="75">
         <f>AI15*Urbanrural!$E$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:35" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="69" t="s">
+    <row r="25" spans="2:35" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="66" t="s">
         <v>156</v>
       </c>
     </row>
@@ -12135,135 +12141,135 @@
         <f>B18</f>
         <v>heating</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="75">
         <f>C10*Urbanrural!$E$11</f>
         <v>1072382489.8807948</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="75">
         <f>D10*Urbanrural!$E$11</f>
         <v>1047337059.3442395</v>
       </c>
-      <c r="E26" s="79">
+      <c r="E26" s="75">
         <f>E10*Urbanrural!$E$11</f>
         <v>1071212227.0509429</v>
       </c>
-      <c r="F26" s="79">
+      <c r="F26" s="75">
         <f>F10*Urbanrural!$E$11</f>
         <v>1082834041.2411392</v>
       </c>
-      <c r="G26" s="79">
+      <c r="G26" s="75">
         <f>G10*Urbanrural!$E$11</f>
         <v>1094421914.8690858</v>
       </c>
-      <c r="H26" s="79">
+      <c r="H26" s="75">
         <f>H10*Urbanrural!$E$11</f>
         <v>1105970191.1744087</v>
       </c>
-      <c r="I26" s="79">
+      <c r="I26" s="75">
         <f>I10*Urbanrural!$E$11</f>
         <v>1117467556.6363575</v>
       </c>
-      <c r="J26" s="79">
+      <c r="J26" s="75">
         <f>J10*Urbanrural!$E$11</f>
         <v>1128905526.1143699</v>
       </c>
-      <c r="K26" s="79">
+      <c r="K26" s="75">
         <f>K10*Urbanrural!$E$11</f>
         <v>1140267129.3273215</v>
       </c>
-      <c r="L26" s="79">
+      <c r="L26" s="75">
         <f>L10*Urbanrural!$E$11</f>
         <v>1151543881.13465</v>
       </c>
-      <c r="M26" s="79">
+      <c r="M26" s="75">
         <f>M10*Urbanrural!$E$11</f>
         <v>1162724468.0156052</v>
       </c>
-      <c r="N26" s="79">
+      <c r="N26" s="75">
         <f>N10*Urbanrural!$E$11</f>
         <v>1173797576.4494379</v>
       </c>
-      <c r="O26" s="79">
+      <c r="O26" s="75">
         <f>O10*Urbanrural!$E$11</f>
         <v>1184754721.2955854</v>
       </c>
-      <c r="P26" s="79">
+      <c r="P26" s="75">
         <f>P10*Urbanrural!$E$11</f>
         <v>1195584589.033298</v>
       </c>
-      <c r="Q26" s="79">
+      <c r="Q26" s="75">
         <f>Q10*Urbanrural!$E$11</f>
         <v>1206284351.2823882</v>
       </c>
-      <c r="R26" s="79">
+      <c r="R26" s="75">
         <f>R10*Urbanrural!$E$11</f>
         <v>1216848351.2824814</v>
       </c>
-      <c r="S26" s="79">
+      <c r="S26" s="75">
         <f>S10*Urbanrural!$E$11</f>
         <v>1227276589.0335772</v>
       </c>
-      <c r="T26" s="79">
+      <c r="T26" s="75">
         <f>T10*Urbanrural!$E$11</f>
         <v>1237571892.9158633</v>
       </c>
-      <c r="U26" s="79">
+      <c r="U26" s="75">
         <f>U10*Urbanrural!$E$11</f>
         <v>1247731434.5491524</v>
       </c>
-      <c r="V26" s="79">
+      <c r="V26" s="75">
         <f>V10*Urbanrural!$E$11</f>
         <v>1257763699.074007</v>
       </c>
-      <c r="W26" s="79">
+      <c r="W26" s="75">
         <f>W10*Urbanrural!$E$11</f>
         <v>1267665858.1102388</v>
       </c>
-      <c r="X26" s="79">
+      <c r="X26" s="75">
         <f>X10*Urbanrural!$E$11</f>
         <v>1277446396.7984104</v>
       </c>
-      <c r="Y26" s="79">
+      <c r="Y26" s="75">
         <f>Y10*Urbanrural!$E$11</f>
         <v>1287105315.1385224</v>
       </c>
-      <c r="Z26" s="79">
+      <c r="Z26" s="75">
         <f>Z10*Urbanrural!$E$11</f>
         <v>1296639784.7503872</v>
       </c>
-      <c r="AA26" s="79">
+      <c r="AA26" s="75">
         <f>AA10*Urbanrural!$E$11</f>
         <v>1306058290.7745664</v>
       </c>
-      <c r="AB26" s="79">
+      <c r="AB26" s="75">
         <f>AB10*Urbanrural!$E$11</f>
         <v>1315355176.4506857</v>
       </c>
-      <c r="AC26" s="79">
+      <c r="AC26" s="75">
         <f>AC10*Urbanrural!$E$11</f>
         <v>1324581352.6221192</v>
       </c>
-      <c r="AD26" s="79">
+      <c r="AD26" s="75">
         <f>AD10*Urbanrural!$E$11</f>
         <v>1333756617.9501789</v>
       </c>
-      <c r="AE26" s="79">
+      <c r="AE26" s="75">
         <f>AE10*Urbanrural!$E$11</f>
         <v>1342889457.5754266</v>
       </c>
-      <c r="AF26" s="79">
+      <c r="AF26" s="75">
         <f>AF10*Urbanrural!$E$11</f>
         <v>1351988356.6384251</v>
       </c>
-      <c r="AG26" s="79">
+      <c r="AG26" s="75">
         <f>AG10*Urbanrural!$E$11</f>
         <v>1361064628.6599243</v>
       </c>
-      <c r="AH26" s="79">
+      <c r="AH26" s="75">
         <f>AH10*Urbanrural!$E$11</f>
         <v>1370132415.5408611</v>
       </c>
-      <c r="AI26" s="79">
+      <c r="AI26" s="75">
         <f>AI10*Urbanrural!$E$11</f>
         <v>1379205859.1821728</v>
       </c>
@@ -12273,135 +12279,135 @@
         <f t="shared" si="2"/>
         <v>cooling and ventilation</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="75">
         <f>C11*Urbanrural!$E$11</f>
         <v>39266080.960072398</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="75">
         <f>D11*Urbanrural!$E$11</f>
         <v>38349023.92826879</v>
       </c>
-      <c r="E27" s="79">
+      <c r="E27" s="75">
         <f>E11*Urbanrural!$E$11</f>
         <v>39223230.917801909</v>
       </c>
-      <c r="F27" s="79">
+      <c r="F27" s="75">
         <f>F11*Urbanrural!$E$11</f>
         <v>39648772.271937497</v>
       </c>
-      <c r="G27" s="79">
+      <c r="G27" s="75">
         <f>G11*Urbanrural!$E$11</f>
         <v>40073070.867190227</v>
       </c>
-      <c r="H27" s="79">
+      <c r="H27" s="75">
         <f>H11*Urbanrural!$E$11</f>
         <v>40495919.577079639</v>
       </c>
-      <c r="I27" s="79">
+      <c r="I27" s="75">
         <f>I11*Urbanrural!$E$11</f>
         <v>40916904.148644775</v>
       </c>
-      <c r="J27" s="79">
+      <c r="J27" s="75">
         <f>J11*Urbanrural!$E$11</f>
         <v>41335713.892164923</v>
       </c>
-      <c r="K27" s="79">
+      <c r="K27" s="75">
         <f>K11*Urbanrural!$E$11</f>
         <v>41751727.428198665</v>
       </c>
-      <c r="L27" s="79">
+      <c r="L27" s="75">
         <f>L11*Urbanrural!$E$11</f>
         <v>42164634.067025281</v>
       </c>
-      <c r="M27" s="79">
+      <c r="M27" s="75">
         <f>M11*Urbanrural!$E$11</f>
         <v>42574019.555683821</v>
       </c>
-      <c r="N27" s="79">
+      <c r="N27" s="75">
         <f>N11*Urbanrural!$E$11</f>
         <v>42979469.641213343</v>
       </c>
-      <c r="O27" s="79">
+      <c r="O27" s="75">
         <f>O11*Urbanrural!$E$11</f>
         <v>43380673.633893132</v>
       </c>
-      <c r="P27" s="79">
+      <c r="P27" s="75">
         <f>P11*Urbanrural!$E$11</f>
         <v>43777217.280762248</v>
       </c>
-      <c r="Q27" s="79">
+      <c r="Q27" s="75">
         <f>Q11*Urbanrural!$E$11</f>
         <v>44168997.018580429</v>
       </c>
-      <c r="R27" s="79">
+      <c r="R27" s="75">
         <f>R11*Urbanrural!$E$11</f>
         <v>44555805.720867209</v>
       </c>
-      <c r="S27" s="79">
+      <c r="S27" s="75">
         <f>S11*Urbanrural!$E$11</f>
         <v>44937643.387622595</v>
       </c>
-      <c r="T27" s="79">
+      <c r="T27" s="75">
         <f>T11*Urbanrural!$E$11</f>
         <v>45314613.582086816</v>
       </c>
-      <c r="U27" s="79">
+      <c r="U27" s="75">
         <f>U11*Urbanrural!$E$11</f>
         <v>45686612.741019659</v>
       </c>
-      <c r="V27" s="79">
+      <c r="V27" s="75">
         <f>V11*Urbanrural!$E$11</f>
         <v>46053951.554141812</v>
       </c>
-      <c r="W27" s="79">
+      <c r="W27" s="75">
         <f>W11*Urbanrural!$E$11</f>
         <v>46416526.458213046</v>
       </c>
-      <c r="X27" s="79">
+      <c r="X27" s="75">
         <f>X11*Urbanrural!$E$11</f>
         <v>46774648.142954059</v>
       </c>
-      <c r="Y27" s="79">
+      <c r="Y27" s="75">
         <f>Y11*Urbanrural!$E$11</f>
         <v>47128316.608364865</v>
       </c>
-      <c r="Z27" s="79">
+      <c r="Z27" s="75">
         <f>Z11*Urbanrural!$E$11</f>
         <v>47477428.291205227</v>
       </c>
-      <c r="AA27" s="79">
+      <c r="AA27" s="75">
         <f>AA11*Urbanrural!$E$11</f>
         <v>47822293.881195858</v>
       </c>
-      <c r="AB27" s="79">
+      <c r="AB27" s="75">
         <f>AB11*Urbanrural!$E$11</f>
         <v>48162706.251856275</v>
       </c>
-      <c r="AC27" s="79">
+      <c r="AC27" s="75">
         <f>AC11*Urbanrural!$E$11</f>
         <v>48500529.541510753</v>
       </c>
-      <c r="AD27" s="79">
+      <c r="AD27" s="75">
         <f>AD11*Urbanrural!$E$11</f>
         <v>48836488.692840971</v>
       </c>
-      <c r="AE27" s="79">
+      <c r="AE27" s="75">
         <f>AE11*Urbanrural!$E$11</f>
         <v>49170894.395567618</v>
       </c>
-      <c r="AF27" s="79">
+      <c r="AF27" s="75">
         <f>AF11*Urbanrural!$E$11</f>
         <v>49504057.339411408</v>
       </c>
-      <c r="AG27" s="79">
+      <c r="AG27" s="75">
         <f>AG11*Urbanrural!$E$11</f>
         <v>49836391.777333319</v>
       </c>
-      <c r="AH27" s="79">
+      <c r="AH27" s="75">
         <f>AH11*Urbanrural!$E$11</f>
         <v>50168415.525534503</v>
       </c>
-      <c r="AI27" s="79">
+      <c r="AI27" s="75">
         <f>AI11*Urbanrural!$E$11</f>
         <v>50500646.400216162</v>
       </c>
@@ -12411,137 +12417,137 @@
         <f t="shared" si="2"/>
         <v>envelope</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="75">
         <f>C12*Urbanrural!$E$11</f>
-        <v>4747665771.2995367</v>
-      </c>
-      <c r="D28" s="79">
+        <v>1320082677.8735299</v>
+      </c>
+      <c r="D28" s="75">
         <f>D12*Urbanrural!$E$11</f>
-        <v>4636784313.9763374</v>
-      </c>
-      <c r="E28" s="79">
+        <v>1289252223.8861039</v>
+      </c>
+      <c r="E28" s="75">
         <f>E12*Urbanrural!$E$11</f>
-        <v>4742484768.4081812</v>
-      </c>
-      <c r="F28" s="79">
+        <v>1318642106.3378847</v>
+      </c>
+      <c r="F28" s="75">
         <f>F12*Urbanrural!$E$11</f>
-        <v>4793937016.0454311</v>
-      </c>
-      <c r="G28" s="79">
+        <v>1332948341.0467787</v>
+      </c>
+      <c r="G28" s="75">
         <f>G12*Urbanrural!$E$11</f>
-        <v>4845239001.5820131</v>
-      </c>
-      <c r="H28" s="79">
+        <v>1347212795.5618281</v>
+      </c>
+      <c r="H28" s="75">
         <f>H12*Urbanrural!$E$11</f>
-        <v>4896365681.3344822</v>
-      </c>
-      <c r="I28" s="79">
+        <v>1361428506.5173926</v>
+      </c>
+      <c r="I28" s="75">
         <f>I12*Urbanrural!$E$11</f>
-        <v>4947266967.9359474</v>
-      </c>
-      <c r="J28" s="79">
+        <v>1375581547.1821902</v>
+      </c>
+      <c r="J28" s="75">
         <f>J12*Urbanrural!$E$11</f>
-        <v>4997905295.8612423</v>
-      </c>
-      <c r="K28" s="79">
+        <v>1389661472.50776</v>
+      </c>
+      <c r="K28" s="75">
         <f>K12*Urbanrural!$E$11</f>
-        <v>5048205534.0600338</v>
-      </c>
-      <c r="L28" s="79">
+        <v>1403647392.3971806</v>
+      </c>
+      <c r="L28" s="75">
         <f>L12*Urbanrural!$E$11</f>
-        <v>5098130117.0071554</v>
-      </c>
-      <c r="M28" s="79">
+        <v>1417528861.8019896</v>
+      </c>
+      <c r="M28" s="75">
         <f>M12*Urbanrural!$E$11</f>
-        <v>5147628957.3357134</v>
-      </c>
-      <c r="N28" s="79">
+        <v>1431291953.990906</v>
+      </c>
+      <c r="N28" s="75">
         <f>N12*Urbanrural!$E$11</f>
-        <v>5196651967.6788225</v>
-      </c>
-      <c r="O28" s="79">
+        <v>1444922742.2326484</v>
+      </c>
+      <c r="O28" s="75">
         <f>O12*Urbanrural!$E$11</f>
-        <v>5245161582.5113144</v>
-      </c>
-      <c r="P28" s="79">
+        <v>1458410781.4787557</v>
+      </c>
+      <c r="P28" s="75">
         <f>P12*Urbanrural!$E$11</f>
-        <v>5293107714.4662991</v>
-      </c>
-      <c r="Q28" s="79">
+        <v>1471742144.9979467</v>
+      </c>
+      <c r="Q28" s="75">
         <f>Q12*Urbanrural!$E$11</f>
-        <v>5340477841.702054</v>
-      </c>
-      <c r="R28" s="79">
+        <v>1484913351.1074007</v>
+      </c>
+      <c r="R28" s="75">
         <f>R12*Urbanrural!$E$11</f>
-        <v>5387246920.5351353</v>
-      </c>
-      <c r="S28" s="79">
+        <v>1497917436.4414766</v>
+      </c>
+      <c r="S28" s="75">
         <f>S12*Urbanrural!$E$11</f>
-        <v>5433414950.9655418</v>
-      </c>
-      <c r="T28" s="79">
+        <v>1510754401.000175</v>
+      </c>
+      <c r="T28" s="75">
         <f>T12*Urbanrural!$E$11</f>
-        <v>5478994454.8349953</v>
-      </c>
-      <c r="U28" s="79">
+        <v>1523427726.466316</v>
+      </c>
+      <c r="U28" s="75">
         <f>U12*Urbanrural!$E$11</f>
-        <v>5523972910.3017778</v>
-      </c>
-      <c r="V28" s="79">
+        <v>1535933931.1570797</v>
+      </c>
+      <c r="V28" s="75">
         <f>V12*Urbanrural!$E$11</f>
-        <v>5568387882.8910522</v>
-      </c>
-      <c r="W28" s="79">
+        <v>1548283460.1209266</v>
+      </c>
+      <c r="W28" s="75">
         <f>W12*Urbanrural!$E$11</f>
-        <v>5612226850.761097</v>
-      </c>
-      <c r="X28" s="79">
+        <v>1560472831.6750367</v>
+      </c>
+      <c r="X28" s="75">
         <f>X12*Urbanrural!$E$11</f>
-        <v>5655527379.4370785</v>
-      </c>
-      <c r="Y28" s="79">
+        <v>1572512490.8678708</v>
+      </c>
+      <c r="Y28" s="75">
         <f>Y12*Urbanrural!$E$11</f>
-        <v>5698289468.9189987</v>
-      </c>
-      <c r="Z28" s="79">
+        <v>1584402437.6994293</v>
+      </c>
+      <c r="Z28" s="75">
         <f>Z12*Urbanrural!$E$11</f>
-        <v>5740500597.3651342</v>
-      </c>
-      <c r="AA28" s="79">
+        <v>1596139190.486891</v>
+      </c>
+      <c r="AA28" s="75">
         <f>AA12*Urbanrural!$E$11</f>
-        <v>5782198330.3006516</v>
-      </c>
-      <c r="AB28" s="79">
+        <v>1607733194.278718</v>
+      </c>
+      <c r="AB28" s="75">
         <f>AB12*Urbanrural!$E$11</f>
-        <v>5823357624.0421076</v>
-      </c>
-      <c r="AC28" s="79">
+        <v>1619177485.7092693</v>
+      </c>
+      <c r="AC28" s="75">
         <f>AC12*Urbanrural!$E$11</f>
-        <v>5864203871.7405033</v>
-      </c>
-      <c r="AD28" s="79">
+        <v>1630534735.0693109</v>
+      </c>
+      <c r="AD28" s="75">
         <f>AD12*Urbanrural!$E$11</f>
-        <v>5904824726.2878971</v>
-      </c>
-      <c r="AE28" s="79">
+        <v>1641829314.1385863</v>
+      </c>
+      <c r="AE28" s="75">
         <f>AE12*Urbanrural!$E$11</f>
-        <v>5945257753.2094545</v>
-      </c>
-      <c r="AF28" s="79">
+        <v>1653071667.9655559</v>
+      </c>
+      <c r="AF28" s="75">
         <f>AF12*Urbanrural!$E$11</f>
-        <v>5985540518.030344</v>
-      </c>
-      <c r="AG28" s="79">
+        <v>1664272241.5986812</v>
+      </c>
+      <c r="AG28" s="75">
         <f>AG12*Urbanrural!$E$11</f>
-        <v>6025723108.1174545</v>
-      </c>
-      <c r="AH28" s="79">
+        <v>1675444961.7692437</v>
+      </c>
+      <c r="AH28" s="75">
         <f>AH12*Urbanrural!$E$11</f>
-        <v>6065868132.6793976</v>
-      </c>
-      <c r="AI28" s="79">
+        <v>1686607236.891345</v>
+      </c>
+      <c r="AI28" s="75">
         <f>AI12*Urbanrural!$E$11</f>
-        <v>6106038200.9247866</v>
+        <v>1697776475.3790872</v>
       </c>
     </row>
     <row r="29" spans="2:35" x14ac:dyDescent="0.25">
@@ -12549,135 +12555,135 @@
         <f t="shared" si="2"/>
         <v>lighting</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="75">
         <f>C13*Urbanrural!$E$11</f>
         <v>277912142.71021682</v>
       </c>
-      <c r="D29" s="79">
+      <c r="D29" s="75">
         <f>D13*Urbanrural!$E$11</f>
         <v>271421520.8181271</v>
       </c>
-      <c r="E29" s="79">
+      <c r="E29" s="75">
         <f>E13*Urbanrural!$E$11</f>
         <v>277608864.49218625</v>
       </c>
-      <c r="F29" s="79">
+      <c r="F29" s="75">
         <f>F13*Urbanrural!$E$11</f>
         <v>280620703.3782692</v>
       </c>
-      <c r="G29" s="79">
+      <c r="G29" s="75">
         <f>G13*Urbanrural!$E$11</f>
         <v>283623746.43406904</v>
       </c>
-      <c r="H29" s="79">
+      <c r="H29" s="75">
         <f>H13*Urbanrural!$E$11</f>
         <v>286616527.68787211</v>
       </c>
-      <c r="I29" s="79">
+      <c r="I29" s="75">
         <f>I13*Urbanrural!$E$11</f>
         <v>289596115.19625062</v>
       </c>
-      <c r="J29" s="79">
+      <c r="J29" s="75">
         <f>J13*Urbanrural!$E$11</f>
         <v>292560310.0016337</v>
       </c>
-      <c r="K29" s="79">
+      <c r="K29" s="75">
         <f>K13*Urbanrural!$E$11</f>
         <v>295504714.18888009</v>
       </c>
-      <c r="L29" s="79">
+      <c r="L29" s="75">
         <f>L13*Urbanrural!$E$11</f>
         <v>298427128.80041885</v>
       </c>
-      <c r="M29" s="79">
+      <c r="M29" s="75">
         <f>M13*Urbanrural!$E$11</f>
         <v>301324621.89282227</v>
       </c>
-      <c r="N29" s="79">
+      <c r="N29" s="75">
         <f>N13*Urbanrural!$E$11</f>
         <v>304194261.52266282</v>
       </c>
-      <c r="O29" s="79">
+      <c r="O29" s="75">
         <f>O13*Urbanrural!$E$11</f>
         <v>307033848.7323696</v>
       </c>
-      <c r="P29" s="79">
+      <c r="P29" s="75">
         <f>P13*Urbanrural!$E$11</f>
         <v>309840451.57851511</v>
       </c>
-      <c r="Q29" s="79">
+      <c r="Q29" s="75">
         <f>Q13*Urbanrural!$E$11</f>
         <v>312613337.07524222</v>
       </c>
-      <c r="R29" s="79">
+      <c r="R29" s="75">
         <f>R13*Urbanrural!$E$11</f>
         <v>315351039.25083715</v>
       </c>
-      <c r="S29" s="79">
+      <c r="S29" s="75">
         <f>S13*Urbanrural!$E$11</f>
         <v>318053558.10530001</v>
       </c>
-      <c r="T29" s="79">
+      <c r="T29" s="75">
         <f>T13*Urbanrural!$E$11</f>
         <v>320721626.62448758</v>
       </c>
-      <c r="U29" s="79">
+      <c r="U29" s="75">
         <f>U13*Urbanrural!$E$11</f>
         <v>323354511.82254308</v>
       </c>
-      <c r="V29" s="79">
+      <c r="V29" s="75">
         <f>V13*Urbanrural!$E$11</f>
         <v>325954412.6570372</v>
       </c>
-      <c r="W29" s="79">
+      <c r="W29" s="75">
         <f>W13*Urbanrural!$E$11</f>
         <v>328520596.14211303</v>
       </c>
-      <c r="X29" s="79">
+      <c r="X29" s="75">
         <f>X13*Urbanrural!$E$11</f>
         <v>331055261.23534125</v>
       </c>
-      <c r="Y29" s="79">
+      <c r="Y29" s="75">
         <f>Y13*Urbanrural!$E$11</f>
         <v>333558407.93672192</v>
       </c>
-      <c r="Z29" s="79">
+      <c r="Z29" s="75">
         <f>Z13*Urbanrural!$E$11</f>
         <v>336029303.26039809</v>
       </c>
-      <c r="AA29" s="79">
+      <c r="AA29" s="75">
         <f>AA13*Urbanrural!$E$11</f>
         <v>338470146.16394061</v>
       </c>
-      <c r="AB29" s="79">
+      <c r="AB29" s="75">
         <f>AB13*Urbanrural!$E$11</f>
         <v>340879470.67563558</v>
       </c>
-      <c r="AC29" s="79">
+      <c r="AC29" s="75">
         <f>AC13*Urbanrural!$E$11</f>
         <v>343270470.54090756</v>
       </c>
-      <c r="AD29" s="79">
+      <c r="AD29" s="75">
         <f>AD13*Urbanrural!$E$11</f>
         <v>345648276.66075504</v>
       </c>
-      <c r="AE29" s="79">
+      <c r="AE29" s="75">
         <f>AE13*Urbanrural!$E$11</f>
         <v>348015087.99274862</v>
       </c>
-      <c r="AF29" s="79">
+      <c r="AF29" s="75">
         <f>AF13*Urbanrural!$E$11</f>
         <v>350373103.49445921</v>
       </c>
-      <c r="AG29" s="79">
+      <c r="AG29" s="75">
         <f>AG13*Urbanrural!$E$11</f>
         <v>352725255.10931444</v>
       </c>
-      <c r="AH29" s="79">
+      <c r="AH29" s="75">
         <f>AH13*Urbanrural!$E$11</f>
         <v>355075207.76659894</v>
       </c>
-      <c r="AI29" s="79">
+      <c r="AI29" s="75">
         <f>AI13*Urbanrural!$E$11</f>
         <v>357426626.39559722</v>
       </c>
@@ -12687,135 +12693,135 @@
         <f t="shared" si="2"/>
         <v>appliances</v>
       </c>
-      <c r="C30" s="79">
+      <c r="C30" s="75">
         <f>C14*Urbanrural!$E$11</f>
         <v>370549523.61362237</v>
       </c>
-      <c r="D30" s="79">
+      <c r="D30" s="75">
         <f>D14*Urbanrural!$E$11</f>
         <v>361895361.09083617</v>
       </c>
-      <c r="E30" s="79">
+      <c r="E30" s="75">
         <f>E14*Urbanrural!$E$11</f>
         <v>370145152.65624833</v>
       </c>
-      <c r="F30" s="79">
+      <c r="F30" s="75">
         <f>F14*Urbanrural!$E$11</f>
         <v>374160937.83769226</v>
       </c>
-      <c r="G30" s="79">
+      <c r="G30" s="75">
         <f>G14*Urbanrural!$E$11</f>
         <v>378164995.2454254</v>
       </c>
-      <c r="H30" s="79">
+      <c r="H30" s="75">
         <f>H14*Urbanrural!$E$11</f>
         <v>382155370.25049615</v>
       </c>
-      <c r="I30" s="79">
+      <c r="I30" s="75">
         <f>I14*Urbanrural!$E$11</f>
         <v>386128153.5950008</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J30" s="75">
         <f>J14*Urbanrural!$E$11</f>
         <v>390080413.33551162</v>
       </c>
-      <c r="K30" s="79">
+      <c r="K30" s="75">
         <f>K14*Urbanrural!$E$11</f>
         <v>394006285.58517343</v>
       </c>
-      <c r="L30" s="79">
+      <c r="L30" s="75">
         <f>L14*Urbanrural!$E$11</f>
         <v>397902838.40055847</v>
       </c>
-      <c r="M30" s="79">
+      <c r="M30" s="75">
         <f>M14*Urbanrural!$E$11</f>
         <v>401766162.52376306</v>
       </c>
-      <c r="N30" s="79">
+      <c r="N30" s="75">
         <f>N14*Urbanrural!$E$11</f>
         <v>405592348.6968838</v>
       </c>
-      <c r="O30" s="79">
+      <c r="O30" s="75">
         <f>O14*Urbanrural!$E$11</f>
         <v>409378464.97649288</v>
       </c>
-      <c r="P30" s="79">
+      <c r="P30" s="75">
         <f>P14*Urbanrural!$E$11</f>
         <v>413120602.1046868</v>
       </c>
-      <c r="Q30" s="79">
+      <c r="Q30" s="75">
         <f>Q14*Urbanrural!$E$11</f>
         <v>416817782.76698971</v>
       </c>
-      <c r="R30" s="79">
+      <c r="R30" s="75">
         <f>R14*Urbanrural!$E$11</f>
         <v>420468052.33444959</v>
       </c>
-      <c r="S30" s="79">
+      <c r="S30" s="75">
         <f>S14*Urbanrural!$E$11</f>
         <v>424071410.80706668</v>
       </c>
-      <c r="T30" s="79">
+      <c r="T30" s="75">
         <f>T14*Urbanrural!$E$11</f>
         <v>427628835.49931681</v>
       </c>
-      <c r="U30" s="79">
+      <c r="U30" s="75">
         <f>U14*Urbanrural!$E$11</f>
         <v>431139349.09672409</v>
       </c>
-      <c r="V30" s="79">
+      <c r="V30" s="75">
         <f>V14*Urbanrural!$E$11</f>
         <v>434605883.54271626</v>
       </c>
-      <c r="W30" s="79">
+      <c r="W30" s="75">
         <f>W14*Urbanrural!$E$11</f>
         <v>438027461.52281731</v>
       </c>
-      <c r="X30" s="79">
+      <c r="X30" s="75">
         <f>X14*Urbanrural!$E$11</f>
         <v>441407014.98045492</v>
       </c>
-      <c r="Y30" s="79">
+      <c r="Y30" s="75">
         <f>Y14*Urbanrural!$E$11</f>
         <v>444744543.91562921</v>
       </c>
-      <c r="Z30" s="79">
+      <c r="Z30" s="75">
         <f>Z14*Urbanrural!$E$11</f>
         <v>448039071.01386422</v>
       </c>
-      <c r="AA30" s="79">
+      <c r="AA30" s="75">
         <f>AA14*Urbanrural!$E$11</f>
         <v>451293528.21858752</v>
       </c>
-      <c r="AB30" s="79">
+      <c r="AB30" s="75">
         <f>AB14*Urbanrural!$E$11</f>
         <v>454505960.90084743</v>
       </c>
-      <c r="AC30" s="79">
+      <c r="AC30" s="75">
         <f>AC14*Urbanrural!$E$11</f>
         <v>457693960.72121006</v>
       </c>
-      <c r="AD30" s="79">
+      <c r="AD30" s="75">
         <f>AD14*Urbanrural!$E$11</f>
         <v>460864368.88100666</v>
       </c>
-      <c r="AE30" s="79">
+      <c r="AE30" s="75">
         <f>AE14*Urbanrural!$E$11</f>
         <v>464020117.32366478</v>
       </c>
-      <c r="AF30" s="79">
+      <c r="AF30" s="75">
         <f>AF14*Urbanrural!$E$11</f>
         <v>467164137.99261224</v>
       </c>
-      <c r="AG30" s="79">
+      <c r="AG30" s="75">
         <f>AG14*Urbanrural!$E$11</f>
         <v>470300340.14575261</v>
       </c>
-      <c r="AH30" s="79">
+      <c r="AH30" s="75">
         <f>AH14*Urbanrural!$E$11</f>
         <v>473433610.35546529</v>
       </c>
-      <c r="AI30" s="79">
+      <c r="AI30" s="75">
         <f>AI14*Urbanrural!$E$11</f>
         <v>476568835.19412965</v>
       </c>
@@ -12825,135 +12831,135 @@
         <f t="shared" si="2"/>
         <v>other</v>
       </c>
-      <c r="C31" s="79">
+      <c r="C31" s="75">
         <f>C15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="D31" s="79">
+      <c r="D31" s="75">
         <f>D15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="E31" s="79">
+      <c r="E31" s="75">
         <f>E15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="F31" s="79">
+      <c r="F31" s="75">
         <f>F15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="G31" s="79">
+      <c r="G31" s="75">
         <f>G15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="H31" s="79">
+      <c r="H31" s="75">
         <f>H15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="I31" s="79">
+      <c r="I31" s="75">
         <f>I15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="J31" s="79">
+      <c r="J31" s="75">
         <f>J15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="K31" s="79">
+      <c r="K31" s="75">
         <f>K15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="L31" s="79">
+      <c r="L31" s="75">
         <f>L15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="M31" s="79">
+      <c r="M31" s="75">
         <f>M15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="N31" s="79">
+      <c r="N31" s="75">
         <f>N15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="O31" s="79">
+      <c r="O31" s="75">
         <f>O15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="P31" s="79">
+      <c r="P31" s="75">
         <f>P15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="79">
+      <c r="Q31" s="75">
         <f>Q15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="R31" s="79">
+      <c r="R31" s="75">
         <f>R15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="S31" s="79">
+      <c r="S31" s="75">
         <f>S15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="T31" s="79">
+      <c r="T31" s="75">
         <f>T15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="U31" s="79">
+      <c r="U31" s="75">
         <f>U15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="V31" s="79">
+      <c r="V31" s="75">
         <f>V15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="W31" s="79">
+      <c r="W31" s="75">
         <f>W15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="X31" s="79">
+      <c r="X31" s="75">
         <f>X15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="79">
+      <c r="Y31" s="75">
         <f>Y15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="79">
+      <c r="Z31" s="75">
         <f>Z15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="AA31" s="79">
+      <c r="AA31" s="75">
         <f>AA15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="79">
+      <c r="AB31" s="75">
         <f>AB15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="AC31" s="79">
+      <c r="AC31" s="75">
         <f>AC15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="79">
+      <c r="AD31" s="75">
         <f>AD15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="AE31" s="79">
+      <c r="AE31" s="75">
         <f>AE15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="AF31" s="79">
+      <c r="AF31" s="75">
         <f>AF15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="AG31" s="79">
+      <c r="AG31" s="75">
         <f>AG15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="AH31" s="79">
+      <c r="AH31" s="75">
         <f>AH15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
-      <c r="AI31" s="79">
+      <c r="AI31" s="75">
         <f>AI15*Urbanrural!$E$11</f>
         <v>0</v>
       </c>
@@ -12980,11 +12986,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="34" width="14.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="10.85546875" style="81"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="34" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -12992,265 +12997,265 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="67">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
         <v>2018</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="1">
         <v>2019</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="1">
         <v>2020</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="1">
         <v>2021</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="1">
         <v>2022</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="1">
         <v>2023</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="1">
         <v>2024</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="1">
         <v>2025</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="1">
         <v>2026</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="1">
         <v>2027</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="1">
         <v>2028</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="1">
         <v>2029</v>
       </c>
-      <c r="N2" s="67">
+      <c r="N2" s="1">
         <v>2030</v>
       </c>
-      <c r="O2" s="67">
+      <c r="O2" s="1">
         <v>2031</v>
       </c>
-      <c r="P2" s="67">
+      <c r="P2" s="1">
         <v>2032</v>
       </c>
-      <c r="Q2" s="67">
+      <c r="Q2" s="1">
         <v>2033</v>
       </c>
-      <c r="R2" s="67">
+      <c r="R2" s="1">
         <v>2034</v>
       </c>
-      <c r="S2" s="67">
+      <c r="S2" s="1">
         <v>2035</v>
       </c>
-      <c r="T2" s="67">
+      <c r="T2" s="1">
         <v>2036</v>
       </c>
-      <c r="U2" s="67">
+      <c r="U2" s="1">
         <v>2037</v>
       </c>
-      <c r="V2" s="67">
+      <c r="V2" s="1">
         <v>2038</v>
       </c>
-      <c r="W2" s="67">
+      <c r="W2" s="1">
         <v>2039</v>
       </c>
-      <c r="X2" s="67">
+      <c r="X2" s="1">
         <v>2040</v>
       </c>
-      <c r="Y2" s="67">
+      <c r="Y2" s="1">
         <v>2041</v>
       </c>
-      <c r="Z2" s="67">
+      <c r="Z2" s="1">
         <v>2042</v>
       </c>
-      <c r="AA2" s="67">
+      <c r="AA2" s="1">
         <v>2043</v>
       </c>
-      <c r="AB2" s="67">
+      <c r="AB2" s="1">
         <v>2044</v>
       </c>
-      <c r="AC2" s="67">
+      <c r="AC2" s="1">
         <v>2045</v>
       </c>
-      <c r="AD2" s="67">
+      <c r="AD2" s="1">
         <v>2046</v>
       </c>
-      <c r="AE2" s="67">
+      <c r="AE2" s="1">
         <v>2047</v>
       </c>
-      <c r="AF2" s="67">
+      <c r="AF2" s="1">
         <v>2048</v>
       </c>
-      <c r="AG2" s="67">
+      <c r="AG2" s="1">
         <v>2049</v>
       </c>
-      <c r="AH2" s="67">
+      <c r="AH2" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="67">
         <f>'Investment in Bldg Construction'!AZ22</f>
         <v>54648962460</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="67">
         <f>'Investment in Bldg Construction'!BL22</f>
         <v>57342496227</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="67">
         <f>'Investment in Bldg Construction'!BX22</f>
         <v>56727317450</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+    <row r="4" spans="1:34" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="83">
+      <c r="B4" s="77">
         <f>B3*About!$A$42</f>
         <v>55741941709.200005</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="77">
         <f>C3</f>
         <v>57342496227</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="77">
         <f>D3*About!$A$40</f>
         <v>55615017107.843132</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+    <row r="5" spans="1:34" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77">
         <f>D4*E7</f>
         <v>56218396511.746437</v>
       </c>
-      <c r="F5" s="83">
+      <c r="F5" s="77">
         <f t="shared" ref="F5:AH5" si="0">E5*F7</f>
         <v>56820013795.219749</v>
       </c>
-      <c r="G5" s="83">
+      <c r="G5" s="77">
         <f t="shared" si="0"/>
         <v>57419575271.524742</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="77">
         <f t="shared" si="0"/>
         <v>58016493567.184746</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="77">
         <f t="shared" si="0"/>
         <v>58610328152.092255</v>
       </c>
-      <c r="J5" s="83">
+      <c r="J5" s="77">
         <f t="shared" si="0"/>
         <v>59200197966.032295</v>
       </c>
-      <c r="K5" s="83">
+      <c r="K5" s="77">
         <f t="shared" si="0"/>
         <v>59785662478.897346</v>
       </c>
-      <c r="L5" s="83">
+      <c r="L5" s="77">
         <f t="shared" si="0"/>
         <v>60366134317.210747</v>
       </c>
-      <c r="M5" s="83">
+      <c r="M5" s="77">
         <f t="shared" si="0"/>
         <v>60941026107.495842</v>
       </c>
-      <c r="N5" s="83">
+      <c r="N5" s="77">
         <f t="shared" si="0"/>
         <v>61509897319.645134</v>
       </c>
-      <c r="O5" s="83">
+      <c r="O5" s="77">
         <f t="shared" si="0"/>
         <v>62072160580.181953</v>
       </c>
-      <c r="P5" s="83">
+      <c r="P5" s="77">
         <f t="shared" si="0"/>
         <v>62627669045.737129</v>
       </c>
-      <c r="Q5" s="83">
+      <c r="Q5" s="77">
         <f t="shared" si="0"/>
         <v>63176129029.572334</v>
       </c>
-      <c r="R5" s="83">
+      <c r="R5" s="77">
         <f t="shared" si="0"/>
         <v>63717540531.687569</v>
       </c>
-      <c r="S5" s="83">
+      <c r="S5" s="77">
         <f t="shared" si="0"/>
         <v>64252050395.451996</v>
       </c>
-      <c r="T5" s="83">
+      <c r="T5" s="77">
         <f t="shared" si="0"/>
         <v>64779511777.49646</v>
       </c>
-      <c r="U5" s="83">
+      <c r="U5" s="77">
         <f t="shared" si="0"/>
         <v>65300365207.928452</v>
       </c>
-      <c r="V5" s="83">
+      <c r="V5" s="77">
         <f t="shared" si="0"/>
         <v>65814463843.378807</v>
       </c>
-      <c r="W5" s="83">
+      <c r="W5" s="77">
         <f t="shared" si="0"/>
         <v>66322248213.955009</v>
       </c>
-      <c r="X5" s="83">
+      <c r="X5" s="77">
         <f t="shared" si="0"/>
         <v>66823718319.657082</v>
       </c>
-      <c r="Y5" s="83">
+      <c r="Y5" s="77">
         <f t="shared" si="0"/>
         <v>67318727317.115845</v>
       </c>
-      <c r="Z5" s="83">
+      <c r="Z5" s="77">
         <f t="shared" si="0"/>
         <v>67807715736.438797</v>
       </c>
-      <c r="AA5" s="83">
+      <c r="AA5" s="77">
         <f t="shared" si="0"/>
         <v>68290389890.887611</v>
       </c>
-      <c r="AB5" s="83">
+      <c r="AB5" s="77">
         <f t="shared" si="0"/>
         <v>68769392961.107269</v>
       </c>
-      <c r="AC5" s="83">
+      <c r="AC5" s="77">
         <f t="shared" si="0"/>
         <v>69245752850.681946</v>
       </c>
-      <c r="AD5" s="83">
+      <c r="AD5" s="77">
         <f t="shared" si="0"/>
         <v>69719910089.719116</v>
       </c>
-      <c r="AE5" s="83">
+      <c r="AE5" s="77">
         <f t="shared" si="0"/>
         <v>70192305208.326309</v>
       </c>
-      <c r="AF5" s="83">
+      <c r="AF5" s="77">
         <f t="shared" si="0"/>
         <v>70663525579.980179</v>
       </c>
-      <c r="AG5" s="83">
+      <c r="AG5" s="77">
         <f t="shared" si="0"/>
         <v>71134305421.52655</v>
       </c>
-      <c r="AH5" s="83">
+      <c r="AH5" s="77">
         <f t="shared" si="0"/>
         <v>71605378949.811234</v>
       </c>
@@ -13259,135 +13264,135 @@
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="61">
         <f>'Population for scaling'!B14*1000</f>
         <v>37058900</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="61">
         <f>'Population for scaling'!C14*1000</f>
         <v>37466800</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="61">
         <f>'Population for scaling'!D14*1000</f>
         <v>37873700</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="61">
         <f>'Population for scaling'!E14*1000</f>
         <v>38284600</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="61">
         <f>'Population for scaling'!F14*1000</f>
         <v>38694300</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="61">
         <f>'Population for scaling'!G14*1000</f>
         <v>39102600</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="61">
         <f>'Population for scaling'!H14*1000</f>
         <v>39509100</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="61">
         <f>'Population for scaling'!I14*1000</f>
         <v>39913500</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="61">
         <f>'Population for scaling'!J14*1000</f>
         <v>40315200</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="61">
         <f>'Population for scaling'!K14*1000</f>
         <v>40713900</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="61">
         <f>'Population for scaling'!L14*1000</f>
         <v>41109200</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="61">
         <f>'Population for scaling'!M14*1000</f>
         <v>41500700</v>
       </c>
-      <c r="N6" s="62">
+      <c r="N6" s="61">
         <f>'Population for scaling'!N14*1000</f>
         <v>41888100</v>
       </c>
-      <c r="O6" s="62">
+      <c r="O6" s="61">
         <f>'Population for scaling'!O14*1000</f>
         <v>42271000</v>
       </c>
-      <c r="P6" s="62">
+      <c r="P6" s="61">
         <f>'Population for scaling'!P14*1000</f>
         <v>42649300</v>
       </c>
-      <c r="Q6" s="62">
+      <c r="Q6" s="61">
         <f>'Population for scaling'!Q14*1000</f>
         <v>43022800</v>
       </c>
-      <c r="R6" s="62">
+      <c r="R6" s="61">
         <f>'Population for scaling'!R14*1000</f>
         <v>43391500</v>
       </c>
-      <c r="S6" s="62">
+      <c r="S6" s="61">
         <f>'Population for scaling'!S14*1000</f>
         <v>43755500</v>
       </c>
-      <c r="T6" s="62">
+      <c r="T6" s="61">
         <f>'Population for scaling'!T14*1000</f>
         <v>44114700</v>
       </c>
-      <c r="U6" s="62">
+      <c r="U6" s="61">
         <f>'Population for scaling'!U14*1000</f>
         <v>44469400</v>
       </c>
-      <c r="V6" s="62">
+      <c r="V6" s="61">
         <f>'Population for scaling'!V14*1000</f>
         <v>44819500</v>
       </c>
-      <c r="W6" s="62">
+      <c r="W6" s="61">
         <f>'Population for scaling'!W14*1000</f>
         <v>45165300</v>
       </c>
-      <c r="X6" s="62">
+      <c r="X6" s="61">
         <f>'Population for scaling'!X14*1000</f>
         <v>45506800</v>
       </c>
-      <c r="Y6" s="62">
+      <c r="Y6" s="61">
         <f>'Population for scaling'!Y14*1000</f>
         <v>45843900</v>
       </c>
-      <c r="Z6" s="62">
+      <c r="Z6" s="61">
         <f>'Population for scaling'!Z14*1000</f>
         <v>46176900</v>
       </c>
-      <c r="AA6" s="62">
+      <c r="AA6" s="61">
         <f>'Population for scaling'!AA14*1000</f>
         <v>46505600</v>
       </c>
-      <c r="AB6" s="62">
+      <c r="AB6" s="61">
         <f>'Population for scaling'!AB14*1000</f>
         <v>46831800</v>
       </c>
-      <c r="AC6" s="62">
+      <c r="AC6" s="61">
         <f>'Population for scaling'!AC14*1000</f>
         <v>47156200</v>
       </c>
-      <c r="AD6" s="62">
+      <c r="AD6" s="61">
         <f>'Population for scaling'!AD14*1000</f>
         <v>47479100</v>
       </c>
-      <c r="AE6" s="62">
+      <c r="AE6" s="61">
         <f>'Population for scaling'!AE14*1000</f>
         <v>47800800</v>
       </c>
-      <c r="AF6" s="62">
+      <c r="AF6" s="61">
         <f>'Population for scaling'!AF14*1000</f>
         <v>48121700</v>
       </c>
-      <c r="AG6" s="62">
+      <c r="AG6" s="61">
         <f>'Population for scaling'!AG14*1000</f>
         <v>48442300</v>
       </c>
-      <c r="AH6" s="62">
+      <c r="AH6" s="61">
         <f>'Population for scaling'!AH14*1000</f>
         <v>48763100</v>
       </c>
@@ -13396,131 +13401,131 @@
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7">
         <f>C6/B6</f>
         <v>1.0110068026843755</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7">
         <f t="shared" ref="D7:AH7" si="1">D6/C6</f>
         <v>1.0108602816360084</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7">
         <f>E6/D6</f>
         <v>1.0108492172668633</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>1.0107014308625399</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>1.0105519417588638</v>
       </c>
-      <c r="H7" s="81">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>1.0103957281612987</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>1.0102356166047821</v>
       </c>
-      <c r="J7" s="81">
+      <c r="J7">
         <f t="shared" si="1"/>
         <v>1.010064263970837</v>
       </c>
-      <c r="K7" s="81">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>1.009889570186927</v>
       </c>
-      <c r="L7" s="81">
+      <c r="L7">
         <f t="shared" si="1"/>
         <v>1.0097092147890523</v>
       </c>
-      <c r="M7" s="81">
+      <c r="M7">
         <f t="shared" si="1"/>
         <v>1.0095234156831074</v>
       </c>
-      <c r="N7" s="81">
+      <c r="N7">
         <f t="shared" si="1"/>
         <v>1.0093347823048768</v>
       </c>
-      <c r="O7" s="81">
+      <c r="O7">
         <f t="shared" si="1"/>
         <v>1.0091410209582197</v>
       </c>
-      <c r="P7" s="81">
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>1.0089493979323887</v>
       </c>
-      <c r="Q7" s="81">
+      <c r="Q7">
         <f t="shared" si="1"/>
         <v>1.0087574708142923</v>
       </c>
-      <c r="R7" s="81">
+      <c r="R7">
         <f t="shared" si="1"/>
         <v>1.0085698745781306</v>
       </c>
-      <c r="S7" s="81">
+      <c r="S7">
         <f t="shared" si="1"/>
         <v>1.0083887397301314</v>
       </c>
-      <c r="T7" s="81">
+      <c r="T7">
         <f t="shared" si="1"/>
         <v>1.0082092536938214</v>
       </c>
-      <c r="U7" s="81">
+      <c r="U7">
         <f t="shared" si="1"/>
         <v>1.0080404037656383</v>
       </c>
-      <c r="V7" s="81">
+      <c r="V7">
         <f t="shared" si="1"/>
         <v>1.0078728294062884</v>
       </c>
-      <c r="W7" s="81">
+      <c r="W7">
         <f t="shared" si="1"/>
         <v>1.0077153917379711</v>
       </c>
-      <c r="X7" s="81">
+      <c r="X7">
         <f t="shared" si="1"/>
         <v>1.0075611143953433</v>
       </c>
-      <c r="Y7" s="81">
+      <c r="Y7">
         <f t="shared" si="1"/>
         <v>1.0074076841263284</v>
       </c>
-      <c r="Z7" s="81">
+      <c r="Z7">
         <f t="shared" si="1"/>
         <v>1.0072637799140125</v>
       </c>
-      <c r="AA7" s="81">
+      <c r="AA7">
         <f t="shared" si="1"/>
         <v>1.0071182777535954</v>
       </c>
-      <c r="AB7" s="81">
+      <c r="AB7">
         <f t="shared" si="1"/>
         <v>1.0070142090414917</v>
       </c>
-      <c r="AC7" s="81">
+      <c r="AC7">
         <f t="shared" si="1"/>
         <v>1.0069269171802067</v>
       </c>
-      <c r="AD7" s="81">
+      <c r="AD7">
         <f t="shared" si="1"/>
         <v>1.006847455901875</v>
       </c>
-      <c r="AE7" s="81">
+      <c r="AE7">
         <f t="shared" si="1"/>
         <v>1.0067756128486007</v>
       </c>
-      <c r="AF7" s="81">
+      <c r="AF7">
         <f t="shared" si="1"/>
         <v>1.0067132767652425</v>
       </c>
-      <c r="AG7" s="81">
+      <c r="AG7">
         <f t="shared" si="1"/>
         <v>1.0066622750235341</v>
       </c>
-      <c r="AH7" s="81">
+      <c r="AH7">
         <f t="shared" si="1"/>
         <v>1.0066223114922288</v>
       </c>
@@ -13533,792 +13538,792 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="61">
         <f>B$4*'Component percentages'!$C$15</f>
         <v>2581104157.2184372</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="61">
         <f>C$4*'Component percentages'!$C$15</f>
         <v>2655217074.5850472</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="61">
         <f>D$4*'Component percentages'!$C$15</f>
         <v>2575226973.7876091</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="61">
         <f>E$5*'Component percentages'!$C$15</f>
         <v>2603166170.7377172</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="61">
         <f>F$5*'Component percentages'!$C$15</f>
         <v>2631023773.53757</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="61">
         <f>G$5*'Component percentages'!$C$15</f>
         <v>2658786183.1621242</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="61">
         <f>H$5*'Component percentages'!$C$15</f>
         <v>2686426201.561295</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="61">
         <f>I$5*'Component percentages'!$C$15</f>
         <v>2713923430.1975174</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="61">
         <f>J$5*'Component percentages'!$C$15</f>
         <v>2741237071.9956646</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="61">
         <f>K$5*'Component percentages'!$C$15</f>
         <v>2768346728.4181724</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="61">
         <f>L$5*'Component percentages'!$C$15</f>
         <v>2795225201.4149547</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="61">
         <f>M$5*'Component percentages'!$C$15</f>
         <v>2821845292.9359269</v>
       </c>
-      <c r="N10" s="62">
+      <c r="N10" s="61">
         <f>N$5*'Component percentages'!$C$15</f>
         <v>2848186604.4435253</v>
       </c>
-      <c r="O10" s="62">
+      <c r="O10" s="61">
         <f>O$5*'Component percentages'!$C$15</f>
         <v>2874221937.8876643</v>
       </c>
-      <c r="P10" s="62">
+      <c r="P10" s="61">
         <f>P$5*'Component percentages'!$C$15</f>
         <v>2899944493.7558222</v>
       </c>
-      <c r="Q10" s="62">
+      <c r="Q10" s="61">
         <f>Q$5*'Component percentages'!$C$15</f>
         <v>2925340673.0229568</v>
       </c>
-      <c r="R10" s="62">
+      <c r="R10" s="61">
         <f>R$5*'Component percentages'!$C$15</f>
         <v>2950410475.6890678</v>
       </c>
-      <c r="S10" s="62">
+      <c r="S10" s="61">
         <f>S$5*'Component percentages'!$C$15</f>
         <v>2975160701.2666764</v>
       </c>
-      <c r="T10" s="62">
+      <c r="T10" s="61">
         <f>T$5*'Component percentages'!$C$15</f>
         <v>2999584550.2432623</v>
       </c>
-      <c r="U10" s="62">
+      <c r="U10" s="61">
         <f>U$5*'Component percentages'!$C$15</f>
         <v>3023702421.1563888</v>
       </c>
-      <c r="V10" s="62">
+      <c r="V10" s="61">
         <f>V$5*'Component percentages'!$C$15</f>
         <v>3047507514.4935341</v>
       </c>
-      <c r="W10" s="62">
+      <c r="W10" s="61">
         <f>W$5*'Component percentages'!$C$15</f>
         <v>3071020228.7922626</v>
       </c>
-      <c r="X10" s="62">
+      <c r="X10" s="61">
         <f>X$5*'Component percentages'!$C$15</f>
         <v>3094240564.0525746</v>
       </c>
-      <c r="Y10" s="62">
+      <c r="Y10" s="61">
         <f>Y$5*'Component percentages'!$C$15</f>
         <v>3117161720.7619481</v>
       </c>
-      <c r="Z10" s="62">
+      <c r="Z10" s="61">
         <f>Z$5*'Component percentages'!$C$15</f>
         <v>3139804097.4579473</v>
       </c>
-      <c r="AA10" s="62">
+      <c r="AA10" s="61">
         <f>AA$5*'Component percentages'!$C$15</f>
         <v>3162154095.11553</v>
       </c>
-      <c r="AB10" s="62">
+      <c r="AB10" s="61">
         <f>AB$5*'Component percentages'!$C$15</f>
         <v>3184334104.9600797</v>
       </c>
-      <c r="AC10" s="62">
+      <c r="AC10" s="61">
         <f>AC$5*'Component percentages'!$C$15</f>
         <v>3206391723.5792456</v>
       </c>
-      <c r="AD10" s="62">
+      <c r="AD10" s="61">
         <f>AD$5*'Component percentages'!$C$15</f>
         <v>3228347349.510591</v>
       </c>
-      <c r="AE10" s="62">
+      <c r="AE10" s="61">
         <f>AE$5*'Component percentages'!$C$15</f>
         <v>3250221381.2916813</v>
       </c>
-      <c r="AF10" s="62">
+      <c r="AF10" s="61">
         <f>AF$5*'Component percentages'!$C$15</f>
         <v>3272041016.9726009</v>
       </c>
-      <c r="AG10" s="62">
+      <c r="AG10" s="61">
         <f>AG$5*'Component percentages'!$C$15</f>
         <v>3293840254.1159573</v>
       </c>
-      <c r="AH10" s="62">
+      <c r="AH10" s="61">
         <f>AH$5*'Component percentages'!$C$15</f>
         <v>3315653090.2843547</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="61">
         <f>B$4*'Component percentages'!$C$16</f>
         <v>94509044.823162481</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="61">
         <f>C$4*'Component percentages'!$C$16</f>
         <v>97222744.310952455</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="61">
         <f>D$4*'Component percentages'!$C$16</f>
         <v>94293847.38886106</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="61">
         <f>E$5*'Component percentages'!$C$16</f>
         <v>95316861.826111257</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="61">
         <f>F$5*'Component percentages'!$C$16</f>
         <v>96336888.632977664</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="61">
         <f>G$5*'Component percentages'!$C$16</f>
         <v>97353429.871062979</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="61">
         <f>H$5*'Component percentages'!$C$16</f>
         <v>98365489.663572624</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="61">
         <f>I$5*'Component percentages'!$C$16</f>
         <v>99372321.102910608</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="61">
         <f>J$5*'Component percentages'!$C$16</f>
         <v>100372430.37388508</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="61">
         <f>K$5*'Component percentages'!$C$16</f>
         <v>101365070.56890006</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="61">
         <f>L$5*'Component percentages'!$C$16</f>
         <v>102349245.81116095</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="61">
         <f>M$5*'Component percentages'!$C$16</f>
         <v>103323960.22387318</v>
       </c>
-      <c r="N11" s="62">
+      <c r="N11" s="61">
         <f>N$5*'Component percentages'!$C$16</f>
         <v>104288466.8994408</v>
       </c>
-      <c r="O11" s="62">
+      <c r="O11" s="61">
         <f>O$5*'Component percentages'!$C$16</f>
         <v>105241769.9610692</v>
       </c>
-      <c r="P11" s="62">
+      <c r="P11" s="61">
         <f>P$5*'Component percentages'!$C$16</f>
         <v>106183620.43955971</v>
       </c>
-      <c r="Q11" s="62">
+      <c r="Q11" s="61">
         <f>Q$5*'Component percentages'!$C$16</f>
         <v>107113520.39651506</v>
       </c>
-      <c r="R11" s="62">
+      <c r="R11" s="61">
         <f>R$5*'Component percentages'!$C$16</f>
         <v>108031469.83193523</v>
       </c>
-      <c r="S11" s="62">
+      <c r="S11" s="61">
         <f>S$5*'Component percentages'!$C$16</f>
         <v>108937717.71501887</v>
       </c>
-      <c r="T11" s="62">
+      <c r="T11" s="61">
         <f>T$5*'Component percentages'!$C$16</f>
         <v>109832015.07656737</v>
       </c>
-      <c r="U11" s="62">
+      <c r="U11" s="61">
         <f>U$5*'Component percentages'!$C$16</f>
         <v>110715108.82417664</v>
       </c>
-      <c r="V11" s="62">
+      <c r="V11" s="61">
         <f>V$5*'Component percentages'!$C$16</f>
         <v>111586749.98864804</v>
       </c>
-      <c r="W11" s="62">
+      <c r="W11" s="61">
         <f>W$5*'Component percentages'!$C$16</f>
         <v>112447685.47757751</v>
       </c>
-      <c r="X11" s="62">
+      <c r="X11" s="61">
         <f>X$5*'Component percentages'!$C$16</f>
         <v>113297915.29096507</v>
       </c>
-      <c r="Y11" s="62">
+      <c r="Y11" s="61">
         <f>Y$5*'Component percentages'!$C$16</f>
         <v>114137190.45961204</v>
       </c>
-      <c r="Z11" s="62">
+      <c r="Z11" s="61">
         <f>Z$5*'Component percentages'!$C$16</f>
         <v>114966257.8911144</v>
       </c>
-      <c r="AA11" s="62">
+      <c r="AA11" s="61">
         <f>AA$5*'Component percentages'!$C$16</f>
         <v>115784619.64707483</v>
       </c>
-      <c r="AB11" s="62">
+      <c r="AB11" s="61">
         <f>AB$5*'Component percentages'!$C$16</f>
         <v>116596757.17306902</v>
       </c>
-      <c r="AC11" s="62">
+      <c r="AC11" s="61">
         <f>AC$5*'Component percentages'!$C$16</f>
         <v>117404413.25348754</v>
       </c>
-      <c r="AD11" s="62">
+      <c r="AD11" s="61">
         <f>AD$5*'Component percentages'!$C$16</f>
         <v>118208334.79592629</v>
       </c>
-      <c r="AE11" s="62">
+      <c r="AE11" s="61">
         <f>AE$5*'Component percentages'!$C$16</f>
         <v>119009268.70798127</v>
       </c>
-      <c r="AF11" s="62">
+      <c r="AF11" s="61">
         <f>AF$5*'Component percentages'!$C$16</f>
         <v>119808210.86644706</v>
       </c>
-      <c r="AG11" s="62">
+      <c r="AG11" s="61">
         <f>AG$5*'Component percentages'!$C$16</f>
         <v>120606406.11731692</v>
       </c>
-      <c r="AH11" s="62">
+      <c r="AH11" s="61">
         <f>AH$5*'Component percentages'!$C$16</f>
         <v>121405099.30658403</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="61">
         <f>B$4*'Component percentages'!$C$17</f>
-        <v>11427098050.386</v>
-      </c>
-      <c r="C12" s="62">
+        <v>3177290677.4244003</v>
+      </c>
+      <c r="C12" s="61">
         <f>C$4*'Component percentages'!$C$17</f>
-        <v>11755211726.535</v>
-      </c>
-      <c r="D12" s="62">
+        <v>3268522284.9390001</v>
+      </c>
+      <c r="D12" s="61">
         <f>D$4*'Component percentages'!$C$17</f>
-        <v>11401078507.107841</v>
-      </c>
-      <c r="E12" s="62">
+        <v>3170055975.1470585</v>
+      </c>
+      <c r="E12" s="61">
         <f>E$5*'Component percentages'!$C$17</f>
-        <v>11524771284.908018</v>
-      </c>
-      <c r="F12" s="62">
+        <v>3204448601.1695471</v>
+      </c>
+      <c r="F12" s="61">
         <f>F$5*'Component percentages'!$C$17</f>
-        <v>11648102828.020048</v>
-      </c>
-      <c r="G12" s="62">
+        <v>3238740786.3275256</v>
+      </c>
+      <c r="G12" s="61">
         <f>G$5*'Component percentages'!$C$17</f>
-        <v>11771012930.662571</v>
-      </c>
-      <c r="H12" s="62">
+        <v>3272915790.4769106</v>
+      </c>
+      <c r="H12" s="61">
         <f>H$5*'Component percentages'!$C$17</f>
-        <v>11893381181.272873</v>
-      </c>
-      <c r="I12" s="62">
+        <v>3306940133.3295307</v>
+      </c>
+      <c r="I12" s="61">
         <f>I$5*'Component percentages'!$C$17</f>
-        <v>12015117271.178911</v>
-      </c>
-      <c r="J12" s="62">
+        <v>3340788704.6692586</v>
+      </c>
+      <c r="J12" s="61">
         <f>J$5*'Component percentages'!$C$17</f>
-        <v>12136040583.036619</v>
-      </c>
-      <c r="K12" s="62">
+        <v>3374411284.0638409</v>
+      </c>
+      <c r="K12" s="61">
         <f>K$5*'Component percentages'!$C$17</f>
-        <v>12256060808.173956</v>
-      </c>
-      <c r="L12" s="62">
+        <v>3407782761.2971487</v>
+      </c>
+      <c r="L12" s="61">
         <f>L$5*'Component percentages'!$C$17</f>
-        <v>12375057535.028202</v>
-      </c>
-      <c r="M12" s="62">
+        <v>3440869656.0810127</v>
+      </c>
+      <c r="M12" s="61">
         <f>M$5*'Component percentages'!$C$17</f>
-        <v>12492910352.036648</v>
-      </c>
-      <c r="N12" s="62">
+        <v>3473638488.1272631</v>
+      </c>
+      <c r="N12" s="61">
         <f>N$5*'Component percentages'!$C$17</f>
-        <v>12609528950.527252</v>
-      </c>
-      <c r="O12" s="62">
+        <v>3506064147.2197728</v>
+      </c>
+      <c r="O12" s="61">
         <f>O$5*'Component percentages'!$C$17</f>
-        <v>12724792918.9373</v>
-      </c>
-      <c r="P12" s="62">
+        <v>3538113153.0703716</v>
+      </c>
+      <c r="P12" s="61">
         <f>P$5*'Component percentages'!$C$17</f>
-        <v>12838672154.37611</v>
-      </c>
-      <c r="Q12" s="62">
+        <v>3569777135.6070166</v>
+      </c>
+      <c r="Q12" s="61">
         <f>Q$5*'Component percentages'!$C$17</f>
-        <v>12951106451.062328</v>
-      </c>
-      <c r="R12" s="62">
+        <v>3601039354.6856232</v>
+      </c>
+      <c r="R12" s="61">
         <f>R$5*'Component percentages'!$C$17</f>
-        <v>13062095808.995951</v>
-      </c>
-      <c r="S12" s="62">
+        <v>3631899810.3061914</v>
+      </c>
+      <c r="S12" s="61">
         <f>S$5*'Component percentages'!$C$17</f>
-        <v>13171670331.067657</v>
-      </c>
-      <c r="T12" s="62">
+        <v>3662366872.5407639</v>
+      </c>
+      <c r="T12" s="61">
         <f>T$5*'Component percentages'!$C$17</f>
-        <v>13279799914.386774</v>
-      </c>
-      <c r="U12" s="62">
+        <v>3692432171.3172984</v>
+      </c>
+      <c r="U12" s="61">
         <f>U$5*'Component percentages'!$C$17</f>
-        <v>13386574867.625332</v>
-      </c>
-      <c r="V12" s="62">
+        <v>3722120816.851922</v>
+      </c>
+      <c r="V12" s="61">
         <f>V$5*'Component percentages'!$C$17</f>
-        <v>13491965087.892654</v>
-      </c>
-      <c r="W12" s="62">
+        <v>3751424439.0725923</v>
+      </c>
+      <c r="W12" s="61">
         <f>W$5*'Component percentages'!$C$17</f>
-        <v>13596060883.860777</v>
-      </c>
-      <c r="X12" s="62">
+        <v>3780368148.1954355</v>
+      </c>
+      <c r="X12" s="61">
         <f>X$5*'Component percentages'!$C$17</f>
-        <v>13698862255.529701</v>
-      </c>
-      <c r="Y12" s="62">
+        <v>3808951944.2204537</v>
+      </c>
+      <c r="Y12" s="61">
         <f>Y$5*'Component percentages'!$C$17</f>
-        <v>13800339100.008747</v>
-      </c>
-      <c r="Z12" s="62">
+        <v>3837167457.0756035</v>
+      </c>
+      <c r="Z12" s="61">
         <f>Z$5*'Component percentages'!$C$17</f>
-        <v>13900581725.969952</v>
-      </c>
-      <c r="AA12" s="62">
+        <v>3865039796.9770117</v>
+      </c>
+      <c r="AA12" s="61">
         <f>AA$5*'Component percentages'!$C$17</f>
-        <v>13999529927.63196</v>
-      </c>
-      <c r="AB12" s="62">
+        <v>3892552223.7805939</v>
+      </c>
+      <c r="AB12" s="61">
         <f>AB$5*'Component percentages'!$C$17</f>
-        <v>14097725557.026989</v>
-      </c>
-      <c r="AC12" s="62">
+        <v>3919855398.7831144</v>
+      </c>
+      <c r="AC12" s="61">
         <f>AC$5*'Component percentages'!$C$17</f>
-        <v>14195379334.389797</v>
-      </c>
-      <c r="AD12" s="62">
+        <v>3947007912.4888711</v>
+      </c>
+      <c r="AD12" s="61">
         <f>AD$5*'Component percentages'!$C$17</f>
-        <v>14292581568.392418</v>
-      </c>
-      <c r="AE12" s="62">
+        <v>3974034875.1139898</v>
+      </c>
+      <c r="AE12" s="61">
         <f>AE$5*'Component percentages'!$C$17</f>
-        <v>14389422567.706892</v>
-      </c>
-      <c r="AF12" s="62">
+        <v>4000961396.8745999</v>
+      </c>
+      <c r="AF12" s="61">
         <f>AF$5*'Component percentages'!$C$17</f>
-        <v>14486022743.895935</v>
-      </c>
-      <c r="AG12" s="62">
+        <v>4027820958.0588703</v>
+      </c>
+      <c r="AG12" s="61">
         <f>AG$5*'Component percentages'!$C$17</f>
-        <v>14582532611.412943</v>
-      </c>
-      <c r="AH12" s="62">
+        <v>4054655409.0270133</v>
+      </c>
+      <c r="AH12" s="61">
         <f>AH$5*'Component percentages'!$C$17</f>
-        <v>14679102684.711302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+        <v>4081506600.1392403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="61">
         <f>B$4*'Component percentages'!$C$18</f>
         <v>668903300.51040006</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="61">
         <f>C$4*'Component percentages'!$C$18</f>
         <v>688109954.72399998</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="61">
         <f>D$4*'Component percentages'!$C$18</f>
         <v>667380205.29411757</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="61">
         <f>E$5*'Component percentages'!$C$18</f>
         <v>674620758.14095724</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="61">
         <f>F$5*'Component percentages'!$C$18</f>
         <v>681840165.54263699</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="61">
         <f>G$5*'Component percentages'!$C$18</f>
         <v>689034903.25829697</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="61">
         <f>H$5*'Component percentages'!$C$18</f>
         <v>696197922.80621696</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="61">
         <f>I$5*'Component percentages'!$C$18</f>
         <v>703323937.8251071</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="61">
         <f>J$5*'Component percentages'!$C$18</f>
         <v>710402375.59238756</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="61">
         <f>K$5*'Component percentages'!$C$18</f>
         <v>717427949.74676812</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="61">
         <f>L$5*'Component percentages'!$C$18</f>
         <v>724393611.80652893</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="61">
         <f>M$5*'Component percentages'!$C$18</f>
         <v>731292313.28995013</v>
       </c>
-      <c r="N13" s="62">
+      <c r="N13" s="61">
         <f>N$5*'Component percentages'!$C$18</f>
         <v>738118767.83574164</v>
       </c>
-      <c r="O13" s="62">
+      <c r="O13" s="61">
         <f>O$5*'Component percentages'!$C$18</f>
         <v>744865926.96218348</v>
       </c>
-      <c r="P13" s="62">
+      <c r="P13" s="61">
         <f>P$5*'Component percentages'!$C$18</f>
         <v>751532028.54884553</v>
       </c>
-      <c r="Q13" s="62">
+      <c r="Q13" s="61">
         <f>Q$5*'Component percentages'!$C$18</f>
         <v>758113548.35486805</v>
       </c>
-      <c r="R13" s="62">
+      <c r="R13" s="61">
         <f>R$5*'Component percentages'!$C$18</f>
         <v>764610486.38025081</v>
       </c>
-      <c r="S13" s="62">
+      <c r="S13" s="61">
         <f>S$5*'Component percentages'!$C$18</f>
         <v>771024604.74542391</v>
       </c>
-      <c r="T13" s="62">
+      <c r="T13" s="61">
         <f>T$5*'Component percentages'!$C$18</f>
         <v>777354141.32995749</v>
       </c>
-      <c r="U13" s="62">
+      <c r="U13" s="61">
         <f>U$5*'Component percentages'!$C$18</f>
         <v>783604382.49514139</v>
       </c>
-      <c r="V13" s="62">
+      <c r="V13" s="61">
         <f>V$5*'Component percentages'!$C$18</f>
         <v>789773566.12054574</v>
       </c>
-      <c r="W13" s="62">
+      <c r="W13" s="61">
         <f>W$5*'Component percentages'!$C$18</f>
         <v>795866978.56746018</v>
       </c>
-      <c r="X13" s="62">
+      <c r="X13" s="61">
         <f>X$5*'Component percentages'!$C$18</f>
         <v>801884619.83588505</v>
       </c>
-      <c r="Y13" s="62">
+      <c r="Y13" s="61">
         <f>Y$5*'Component percentages'!$C$18</f>
         <v>807824727.80539012</v>
       </c>
-      <c r="Z13" s="62">
+      <c r="Z13" s="61">
         <f>Z$5*'Component percentages'!$C$18</f>
         <v>813692588.83726561</v>
       </c>
-      <c r="AA13" s="62">
+      <c r="AA13" s="61">
         <f>AA$5*'Component percentages'!$C$18</f>
         <v>819484678.6906513</v>
       </c>
-      <c r="AB13" s="62">
+      <c r="AB13" s="61">
         <f>AB$5*'Component percentages'!$C$18</f>
         <v>825232715.53328729</v>
       </c>
-      <c r="AC13" s="62">
+      <c r="AC13" s="61">
         <f>AC$5*'Component percentages'!$C$18</f>
         <v>830949034.20818341</v>
       </c>
-      <c r="AD13" s="62">
+      <c r="AD13" s="61">
         <f>AD$5*'Component percentages'!$C$18</f>
         <v>836638921.0766294</v>
       </c>
-      <c r="AE13" s="62">
+      <c r="AE13" s="61">
         <f>AE$5*'Component percentages'!$C$18</f>
         <v>842307662.49991572</v>
       </c>
-      <c r="AF13" s="62">
+      <c r="AF13" s="61">
         <f>AF$5*'Component percentages'!$C$18</f>
         <v>847962306.95976222</v>
       </c>
-      <c r="AG13" s="62">
+      <c r="AG13" s="61">
         <f>AG$5*'Component percentages'!$C$18</f>
         <v>853611665.05831861</v>
       </c>
-      <c r="AH13" s="62">
+      <c r="AH13" s="61">
         <f>AH$5*'Component percentages'!$C$18</f>
         <v>859264547.39773476</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+    <row r="14" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="61">
         <f>B$4*'Component percentages'!$C$19</f>
         <v>891871067.34720004</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="61">
         <f>C$4*'Component percentages'!$C$19</f>
         <v>917479939.63199997</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="61">
         <f>D$4*'Component percentages'!$C$19</f>
         <v>889840273.72549009</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="61">
         <f>E$5*'Component percentages'!$C$19</f>
         <v>899494344.18794298</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="61">
         <f>F$5*'Component percentages'!$C$19</f>
         <v>909120220.72351599</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="61">
         <f>G$5*'Component percentages'!$C$19</f>
         <v>918713204.34439588</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="61">
         <f>H$5*'Component percentages'!$C$19</f>
         <v>928263897.07495594</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="61">
         <f>I$5*'Component percentages'!$C$19</f>
         <v>937765250.43347609</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="61">
         <f>J$5*'Component percentages'!$C$19</f>
         <v>947203167.45651674</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="61">
         <f>K$5*'Component percentages'!$C$19</f>
         <v>956570599.66235757</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="61">
         <f>L$5*'Component percentages'!$C$19</f>
         <v>965858149.07537198</v>
       </c>
-      <c r="M14" s="62">
+      <c r="M14" s="61">
         <f>M$5*'Component percentages'!$C$19</f>
         <v>975056417.71993351</v>
       </c>
-      <c r="N14" s="62">
+      <c r="N14" s="61">
         <f>N$5*'Component percentages'!$C$19</f>
         <v>984158357.11432219</v>
       </c>
-      <c r="O14" s="62">
+      <c r="O14" s="61">
         <f>O$5*'Component percentages'!$C$19</f>
         <v>993154569.2829113</v>
       </c>
-      <c r="P14" s="62">
+      <c r="P14" s="61">
         <f>P$5*'Component percentages'!$C$19</f>
         <v>1002042704.7317941</v>
       </c>
-      <c r="Q14" s="62">
+      <c r="Q14" s="61">
         <f>Q$5*'Component percentages'!$C$19</f>
         <v>1010818064.4731574</v>
       </c>
-      <c r="R14" s="62">
+      <c r="R14" s="61">
         <f>R$5*'Component percentages'!$C$19</f>
         <v>1019480648.5070012</v>
       </c>
-      <c r="S14" s="62">
+      <c r="S14" s="61">
         <f>S$5*'Component percentages'!$C$19</f>
         <v>1028032806.327232</v>
       </c>
-      <c r="T14" s="62">
+      <c r="T14" s="61">
         <f>T$5*'Component percentages'!$C$19</f>
         <v>1036472188.4399434</v>
       </c>
-      <c r="U14" s="62">
+      <c r="U14" s="61">
         <f>U$5*'Component percentages'!$C$19</f>
         <v>1044805843.3268553</v>
       </c>
-      <c r="V14" s="62">
+      <c r="V14" s="61">
         <f>V$5*'Component percentages'!$C$19</f>
         <v>1053031421.494061</v>
       </c>
-      <c r="W14" s="62">
+      <c r="W14" s="61">
         <f>W$5*'Component percentages'!$C$19</f>
         <v>1061155971.4232801</v>
       </c>
-      <c r="X14" s="62">
+      <c r="X14" s="61">
         <f>X$5*'Component percentages'!$C$19</f>
         <v>1069179493.1145133</v>
       </c>
-      <c r="Y14" s="62">
+      <c r="Y14" s="61">
         <f>Y$5*'Component percentages'!$C$19</f>
         <v>1077099637.0738535</v>
       </c>
-      <c r="Z14" s="62">
+      <c r="Z14" s="61">
         <f>Z$5*'Component percentages'!$C$19</f>
         <v>1084923451.7830207</v>
       </c>
-      <c r="AA14" s="62">
+      <c r="AA14" s="61">
         <f>AA$5*'Component percentages'!$C$19</f>
         <v>1092646238.2542019</v>
       </c>
-      <c r="AB14" s="62">
+      <c r="AB14" s="61">
         <f>AB$5*'Component percentages'!$C$19</f>
         <v>1100310287.3777163</v>
       </c>
-      <c r="AC14" s="62">
+      <c r="AC14" s="61">
         <f>AC$5*'Component percentages'!$C$19</f>
         <v>1107932045.6109111</v>
       </c>
-      <c r="AD14" s="62">
+      <c r="AD14" s="61">
         <f>AD$5*'Component percentages'!$C$19</f>
         <v>1115518561.4355059</v>
       </c>
-      <c r="AE14" s="62">
+      <c r="AE14" s="61">
         <f>AE$5*'Component percentages'!$C$19</f>
         <v>1123076883.333221</v>
       </c>
-      <c r="AF14" s="62">
+      <c r="AF14" s="61">
         <f>AF$5*'Component percentages'!$C$19</f>
         <v>1130616409.2796829</v>
       </c>
-      <c r="AG14" s="62">
+      <c r="AG14" s="61">
         <f>AG$5*'Component percentages'!$C$19</f>
         <v>1138148886.7444248</v>
       </c>
-      <c r="AH14" s="62">
+      <c r="AH14" s="61">
         <f>AH$5*'Component percentages'!$C$19</f>
         <v>1145686063.1969798</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="62">
-        <v>0</v>
-      </c>
-      <c r="C15" s="62">
-        <v>0</v>
-      </c>
-      <c r="D15" s="62">
-        <v>0</v>
-      </c>
-      <c r="E15" s="62">
-        <v>0</v>
-      </c>
-      <c r="F15" s="62">
-        <v>0</v>
-      </c>
-      <c r="G15" s="62">
-        <v>0</v>
-      </c>
-      <c r="H15" s="62">
-        <v>0</v>
-      </c>
-      <c r="I15" s="62">
-        <v>0</v>
-      </c>
-      <c r="J15" s="62">
-        <v>0</v>
-      </c>
-      <c r="K15" s="62">
-        <v>0</v>
-      </c>
-      <c r="L15" s="62">
-        <v>0</v>
-      </c>
-      <c r="M15" s="62">
-        <v>0</v>
-      </c>
-      <c r="N15" s="62">
-        <v>0</v>
-      </c>
-      <c r="O15" s="62">
-        <v>0</v>
-      </c>
-      <c r="P15" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="62">
-        <v>0</v>
-      </c>
-      <c r="R15" s="62">
-        <v>0</v>
-      </c>
-      <c r="S15" s="62">
-        <v>0</v>
-      </c>
-      <c r="T15" s="62">
-        <v>0</v>
-      </c>
-      <c r="U15" s="62">
-        <v>0</v>
-      </c>
-      <c r="V15" s="62">
-        <v>0</v>
-      </c>
-      <c r="W15" s="62">
-        <v>0</v>
-      </c>
-      <c r="X15" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="62">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="62">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="62">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="62">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="62">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="62">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="62">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="62">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="62">
+      <c r="B15" s="61">
+        <v>0</v>
+      </c>
+      <c r="C15" s="61">
+        <v>0</v>
+      </c>
+      <c r="D15" s="61">
+        <v>0</v>
+      </c>
+      <c r="E15" s="61">
+        <v>0</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0</v>
+      </c>
+      <c r="G15" s="61">
+        <v>0</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0</v>
+      </c>
+      <c r="I15" s="61">
+        <v>0</v>
+      </c>
+      <c r="J15" s="61">
+        <v>0</v>
+      </c>
+      <c r="K15" s="61">
+        <v>0</v>
+      </c>
+      <c r="L15" s="61">
+        <v>0</v>
+      </c>
+      <c r="M15" s="61">
+        <v>0</v>
+      </c>
+      <c r="N15" s="61">
+        <v>0</v>
+      </c>
+      <c r="O15" s="61">
+        <v>0</v>
+      </c>
+      <c r="P15" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="61">
+        <v>0</v>
+      </c>
+      <c r="R15" s="61">
+        <v>0</v>
+      </c>
+      <c r="S15" s="61">
+        <v>0</v>
+      </c>
+      <c r="T15" s="61">
+        <v>0</v>
+      </c>
+      <c r="U15" s="61">
+        <v>0</v>
+      </c>
+      <c r="V15" s="61">
+        <v>0</v>
+      </c>
+      <c r="W15" s="61">
+        <v>0</v>
+      </c>
+      <c r="X15" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="61">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="61">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="61">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="61">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="61">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="61">
         <v>0</v>
       </c>
     </row>
@@ -14338,15 +14343,16 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -14733,135 +14739,135 @@
       </c>
       <c r="B4" s="4">
         <f>'Canada residential'!C20</f>
-        <v>20633199440.093262</v>
+        <v>5737035941.879591</v>
       </c>
       <c r="C4" s="4">
         <f>'Canada residential'!D20</f>
-        <v>20151312269.983662</v>
+        <v>5603047801.8978968</v>
       </c>
       <c r="D4" s="4">
         <f>'Canada residential'!E20</f>
-        <v>20610682971.768288</v>
+        <v>5730775265.3209381</v>
       </c>
       <c r="E4" s="4">
         <f>'Canada residential'!F20</f>
-        <v>20834292749.347439</v>
+        <v>5792949691.2819719</v>
       </c>
       <c r="F4" s="4">
         <f>'Canada residential'!G20</f>
-        <v>21057249492.774502</v>
+        <v>5854942541.8933983</v>
       </c>
       <c r="G4" s="4">
         <f>'Canada residential'!H20</f>
-        <v>21279444363.024124</v>
+        <v>5916723554.5969515</v>
       </c>
       <c r="H4" s="4">
         <f>'Canada residential'!I20</f>
-        <v>21500659682.045601</v>
+        <v>5978232204.2760944</v>
       </c>
       <c r="I4" s="4">
         <f>'Canada residential'!J20</f>
-        <v>21720732191.300915</v>
+        <v>6039423097.0934258</v>
       </c>
       <c r="J4" s="4">
         <f>'Canada residential'!K20</f>
-        <v>21939335373.714024</v>
+        <v>6100205445.3741446</v>
       </c>
       <c r="K4" s="4">
         <f>'Canada residential'!L20</f>
-        <v>22156305970.746902</v>
+        <v>6160533855.2808466</v>
       </c>
       <c r="L4" s="4">
         <f>'Canada residential'!M20</f>
-        <v>22371426304.348846</v>
+        <v>6220347801.6969976</v>
       </c>
       <c r="M4" s="4">
         <f>'Canada residential'!N20</f>
-        <v>22584478696.469166</v>
+        <v>6279586759.5060606</v>
       </c>
       <c r="N4" s="4">
         <f>'Canada residential'!O20</f>
-        <v>22795299888.569832</v>
+        <v>6338205334.8706369</v>
       </c>
       <c r="O4" s="4">
         <f>'Canada residential'!P20</f>
-        <v>23003672202.600155</v>
+        <v>6396143002.6741896</v>
       </c>
       <c r="P4" s="4">
         <f>'Canada residential'!Q20</f>
-        <v>23209541219.047451</v>
+        <v>6453384631.6375847</v>
       </c>
       <c r="Q4" s="4">
         <f>'Canada residential'!R20</f>
-        <v>23412798098.886375</v>
+        <v>6509899959.2025528</v>
       </c>
       <c r="R4" s="4">
         <f>'Canada residential'!S20</f>
-        <v>23613442842.116924</v>
+        <v>6565688985.3690958</v>
       </c>
       <c r="S4" s="4">
         <f>'Canada residential'!T20</f>
-        <v>23811529868.251774</v>
+        <v>6620766841.4163475</v>
       </c>
       <c r="T4" s="4">
         <f>'Canada residential'!U20</f>
-        <v>24007004757.778263</v>
+        <v>6675118396.065176</v>
       </c>
       <c r="U4" s="4">
         <f>'Canada residential'!V20</f>
-        <v>24200030769.234402</v>
+        <v>6728789043.1529799</v>
       </c>
       <c r="V4" s="4">
         <f>'Canada residential'!W20</f>
-        <v>24390553483.107513</v>
+        <v>6781763651.4006262</v>
       </c>
       <c r="W4" s="4">
         <f>'Canada residential'!X20</f>
-        <v>24578736157.935623</v>
+        <v>6834087614.6455154</v>
       </c>
       <c r="X4" s="4">
         <f>'Canada residential'!Y20</f>
-        <v>24764578793.718739</v>
+        <v>6885760932.8876495</v>
       </c>
       <c r="Y4" s="4">
         <f>'Canada residential'!Z20</f>
-        <v>24948026970.944176</v>
+        <v>6936768474.8478937</v>
       </c>
       <c r="Z4" s="4">
         <f>'Canada residential'!AA20</f>
-        <v>25129243948.149963</v>
+        <v>6987155634.3636484</v>
       </c>
       <c r="AA4" s="4">
         <f>'Canada residential'!AB20</f>
-        <v>25308120886.310753</v>
+        <v>7036892148.8766489</v>
       </c>
       <c r="AB4" s="4">
         <f>'Canada residential'!AC20</f>
-        <v>25485637336.654675</v>
+        <v>7086250381.4113007</v>
       </c>
       <c r="AC4" s="4">
         <f>'Canada residential'!AD20</f>
-        <v>25662174235.770466</v>
+        <v>7135336250.921545</v>
       </c>
       <c r="AD4" s="4">
         <f>'Canada residential'!AE20</f>
-        <v>25837894842.19614</v>
+        <v>7184195151.2447805</v>
       </c>
       <c r="AE4" s="4">
         <f>'Canada residential'!AF20</f>
-        <v>26012962414.469719</v>
+        <v>7232872476.2184095</v>
       </c>
       <c r="AF4" s="4">
         <f>'Canada residential'!AG20</f>
-        <v>26187594630.641903</v>
+        <v>7281428750.9589691</v>
       </c>
       <c r="AG4" s="4">
         <f>'Canada residential'!AH20</f>
-        <v>26362063588.276066</v>
+        <v>7329939631.8621264</v>
       </c>
       <c r="AH4" s="4">
         <f>'Canada residential'!AI20</f>
-        <v>26536641384.935577</v>
+        <v>7378480775.3235512</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -15274,6 +15280,9 @@
         <f>'Canada residential'!AI23</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15287,8 +15296,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -15312,6 +15341,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -15398,6 +15429,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -15532,23 +15575,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15559,26 +15585,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEDD7C60-F7CE-4565-899E-F8EC2CD43AD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4DB01E0-209A-46F8-87DD-323DAD013468}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -15596,6 +15602,10 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DD20BAD-8290-4E79-AC2A-CFEA7AD36B45}"/>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41B40C11-DC31-4A4F-9E65-50BD42C7AE53}">
   <ds:schemaRefs>

--- a/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
+++ b/InputData/bldgs/BASoBC/BAU Amt Spent on Bldg Components.xlsx
@@ -15316,8 +15316,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -15343,6 +15343,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -15443,6 +15444,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -15603,7 +15609,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DD20BAD-8290-4E79-AC2A-CFEA7AD36B45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F080FA4-7934-4F3B-B604-A821C6C85EED}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
